--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="2" r:id="rId1"/>
     <sheet name="Diciembre" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Enero" sheetId="5" r:id="rId3"/>
+    <sheet name="menu compras" sheetId="6" r:id="rId4"/>
+    <sheet name="sdsd" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Ingresos</t>
   </si>
@@ -127,6 +129,9 @@
   </si>
   <si>
     <t>Vehiculo y transporte</t>
+  </si>
+  <si>
+    <t>Peligro!!!</t>
   </si>
 </sst>
 </file>
@@ -186,7 +191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +246,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -389,6 +400,43 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -404,7 +452,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -427,9 +475,6 @@
     <xf numFmtId="43" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -461,6 +506,15 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -468,107 +522,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -755,19 +709,19 @@
                   <c:v>3700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5021</c:v>
+                  <c:v>5146</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1215</c:v>
+                  <c:v>1225</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4470</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1050</c:v>
+                  <c:v>1173</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9996.31</c:v>
+                  <c:v>11083.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -783,11 +737,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="158697344"/>
-        <c:axId val="158766976"/>
+        <c:axId val="195839488"/>
+        <c:axId val="195890176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158697344"/>
+        <c:axId val="195839488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,14 +750,15 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158766976"/>
+        <c:crossAx val="195890176"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158766976"/>
+        <c:axId val="195890176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,7 +769,209 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158697344"/>
+        <c:crossAx val="195839488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-DO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="132"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="32"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-DO"/>
+              <a:t>Gastos mensuales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Enero!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Comunicacion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Guarderia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bancos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ropa y cosmetico</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hogar</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vehiculo y transporte</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Medicina y consulta</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Fiesta y paseo</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Chucheria</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Compra</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Peligro!!!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Enero!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="2">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1181.1500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3278</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="186102144"/>
+        <c:axId val="186103680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="186102144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186103680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="186103680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186102144"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -849,6 +1006,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123823</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1154,30 +1348,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1205,8 +1400,12 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="4">
+        <v>302456.55</v>
+      </c>
+      <c r="D3" s="4">
+        <v>549.48</v>
+      </c>
       <c r="F3" s="4">
         <v>310576.36</v>
       </c>
@@ -1215,8 +1414,12 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="4">
+        <v>69.77</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-3.73</v>
+      </c>
       <c r="F4" s="4">
         <v>-70.06</v>
       </c>
@@ -1225,8 +1428,12 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="4">
+        <v>6080.14</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5210.1400000000003</v>
+      </c>
       <c r="F5" s="4">
         <v>80.12</v>
       </c>
@@ -1235,8 +1442,12 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="4">
+        <v>3666.33</v>
+      </c>
+      <c r="D6" s="4">
+        <v>26.33</v>
+      </c>
       <c r="F6" s="4">
         <v>75.08</v>
       </c>
@@ -1245,6 +1456,12 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
+      <c r="C7">
+        <v>550</v>
+      </c>
+      <c r="D7" s="4">
+        <v>800</v>
+      </c>
       <c r="F7" s="4">
         <v>300</v>
       </c>
@@ -1252,6 +1469,12 @@
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>12</v>
+      </c>
+      <c r="C8">
+        <v>4928</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3060</v>
       </c>
       <c r="F8" s="4">
         <v>38</v>
@@ -1297,24 +1520,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="33">
         <v>1365.86</v>
       </c>
       <c r="D2" s="1"/>
@@ -1326,11 +1549,11 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="34">
         <v>1900</v>
       </c>
       <c r="D3" s="1"/>
@@ -1341,11 +1564,11 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="34">
         <v>1845</v>
       </c>
       <c r="D4" s="3"/>
@@ -1355,39 +1578,39 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>1152.33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="34">
         <v>1895</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="34">
         <v>3700</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="35">
-        <v>5021</v>
+      <c r="C8" s="34">
+        <v>5146</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1398,49 +1621,49 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="35">
-        <v>1215</v>
+      <c r="C9" s="34">
+        <v>1225</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="34">
         <v>4470</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="35">
-        <v>1050</v>
+      <c r="C11" s="34">
+        <v>1173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="37">
-        <v>9996.31</v>
+      <c r="C12" s="36">
+        <v>11083.13</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="38">
         <f>SUM(C2:C12)</f>
-        <v>33610.5</v>
+        <v>34955.32</v>
       </c>
     </row>
   </sheetData>
@@ -1452,10 +1675,181 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="34">
+        <v>1825</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="35">
+        <v>1181.1500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="34">
+        <v>155.94999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="34"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="34">
+        <v>650</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="36">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="44">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="38">
+        <f>SUM(C2:C12)</f>
+        <v>7180.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F17" sqref="B1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,40 +1989,40 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>1</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>69828.399999999994</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <f>D13/D12</f>
         <v>0.71604103774395522</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>50000</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <f>C12-C13</f>
         <v>0.28395896225604478</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <f>C14*D12</f>
         <v>19828.399999999994</v>
       </c>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -737,11 +737,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="195839488"/>
-        <c:axId val="195890176"/>
+        <c:axId val="181661056"/>
+        <c:axId val="183309824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195839488"/>
+        <c:axId val="181661056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +750,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195890176"/>
+        <c:crossAx val="183309824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -758,7 +758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195890176"/>
+        <c:axId val="183309824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +769,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195839488"/>
+        <c:crossAx val="181661056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -904,13 +904,13 @@
                   <c:v>1825</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1181.1500000000001</c:v>
+                  <c:v>1141.1500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>155.94999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>650</c:v>
+                  <c:v>725</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>20</c:v>
@@ -919,7 +919,7 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3278</c:v>
+                  <c:v>3423</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12000</c:v>
@@ -938,11 +938,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="186102144"/>
-        <c:axId val="186103680"/>
+        <c:axId val="157851008"/>
+        <c:axId val="157869184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="186102144"/>
+        <c:axId val="157851008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +951,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186103680"/>
+        <c:crossAx val="157869184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -959,7 +959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186103680"/>
+        <c:axId val="157869184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -970,7 +970,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186102144"/>
+        <c:crossAx val="157851008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1027,15 +1027,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>123823</xdr:colOff>
+      <xdr:colOff>85723</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:colOff>161924</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1349,7 +1349,7 @@
   <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1678,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="35">
-        <v>1181.1500000000001</v>
+        <v>1141.1500000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1761,7 +1761,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="34">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1803,7 +1803,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="36">
-        <v>3278</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C14" s="38">
         <f>SUM(C2:C12)</f>
-        <v>7180.1</v>
+        <v>7360.1</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1849,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="B1:F17"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -737,11 +737,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="181661056"/>
-        <c:axId val="183309824"/>
+        <c:axId val="194991616"/>
+        <c:axId val="194993152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181661056"/>
+        <c:axId val="194991616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +750,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183309824"/>
+        <c:crossAx val="194993152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -758,7 +758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183309824"/>
+        <c:axId val="194993152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +769,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181661056"/>
+        <c:crossAx val="194991616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -910,16 +910,16 @@
                   <c:v>155.94999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>725</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3423</c:v>
+                  <c:v>3533</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12000</c:v>
@@ -938,11 +938,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="157851008"/>
-        <c:axId val="157869184"/>
+        <c:axId val="195006464"/>
+        <c:axId val="195008000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157851008"/>
+        <c:axId val="195006464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +951,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157869184"/>
+        <c:crossAx val="195008000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -959,7 +959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157869184"/>
+        <c:axId val="195008000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -970,7 +970,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157851008"/>
+        <c:crossAx val="195006464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1349,7 +1349,7 @@
   <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1678,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,7 +1761,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="34">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1777,7 +1777,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="34">
-        <v>20</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1794,7 +1794,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="42">
-        <v>70</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1803,7 +1803,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="36">
-        <v>3423</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C14" s="38">
         <f>SUM(C2:C12)</f>
-        <v>7360.1</v>
+        <v>8645.1</v>
       </c>
     </row>
   </sheetData>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -7,11 +7,10 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Inventario" sheetId="2" r:id="rId1"/>
-    <sheet name="Diciembre" sheetId="3" r:id="rId2"/>
-    <sheet name="Enero" sheetId="5" r:id="rId3"/>
-    <sheet name="menu compras" sheetId="6" r:id="rId4"/>
-    <sheet name="sdsd" sheetId="4" r:id="rId5"/>
+    <sheet name="Inventario Enero" sheetId="2" r:id="rId1"/>
+    <sheet name="Enero" sheetId="5" r:id="rId2"/>
+    <sheet name="sdsd" sheetId="4" r:id="rId3"/>
+    <sheet name="Diciembre año pasado" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -253,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -443,6 +442,113 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -452,7 +558,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -512,7 +618,33 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -633,6 +765,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
@@ -645,9 +787,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Diciembre!$B$2:$B$12</c:f>
+              <c:f>Enero!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Comunicacion</c:v>
                 </c:pt>
@@ -680,48 +822,45 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Compra</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Peligro!!!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Diciembre!$C$2:$C$12</c:f>
+              <c:f>Enero!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1365.86</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1900</c:v>
-                </c:pt>
+                <c:ptCount val="12"/>
                 <c:pt idx="2">
-                  <c:v>1845</c:v>
+                  <c:v>1825</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1152.33</c:v>
+                  <c:v>1141.1500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1895</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3700</c:v>
+                  <c:v>155.94999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5146</c:v>
+                  <c:v>1465</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1225</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4470</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1173</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11083.13</c:v>
+                  <c:v>4261.4799999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,11 +876,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="194991616"/>
-        <c:axId val="194993152"/>
+        <c:axId val="193353216"/>
+        <c:axId val="193354752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194991616"/>
+        <c:axId val="193353216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +889,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194993152"/>
+        <c:crossAx val="193354752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -758,7 +897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194993152"/>
+        <c:axId val="193354752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +908,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194991616"/>
+        <c:crossAx val="193353216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -830,16 +969,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
           <c:dLbls>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
@@ -852,9 +981,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Enero!$B$2:$B$13</c:f>
+              <c:f>'Diciembre año pasado'!$B$2:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Comunicacion</c:v>
                 </c:pt>
@@ -887,42 +1016,48 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Compra</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Peligro!!!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Enero!$C$2:$C$13</c:f>
+              <c:f>'Diciembre año pasado'!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1365.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1900</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>1825</c:v>
+                  <c:v>1845</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1141.1500000000001</c:v>
+                  <c:v>1152.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>155.94999999999999</c:v>
+                  <c:v>1895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>825</c:v>
+                  <c:v>5146</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1020</c:v>
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4470</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>145</c:v>
+                  <c:v>1173</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3533</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12000</c:v>
+                  <c:v>11083.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -938,11 +1073,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="195006464"/>
-        <c:axId val="195008000"/>
+        <c:axId val="193695744"/>
+        <c:axId val="193697280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195006464"/>
+        <c:axId val="193695744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +1086,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195008000"/>
+        <c:crossAx val="193697280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -959,7 +1094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195008000"/>
+        <c:axId val="193697280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -970,7 +1105,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195006464"/>
+        <c:crossAx val="193695744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -992,20 +1127,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>123823</xdr:colOff>
+      <xdr:colOff>85723</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:colOff>161924</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1027,22 +1164,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>85723</xdr:colOff>
+      <xdr:colOff>123823</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1346,170 +1481,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K16"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="45" t="s">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="45"/>
+      <c r="C3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E4" s="49">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F4" s="49">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G4" s="49">
         <v>4</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C5" s="52">
+        <v>310576.36</v>
+      </c>
+      <c r="D5" s="53">
         <v>302456.55</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E5" s="53">
         <v>549.48</v>
       </c>
-      <c r="F3" s="4">
-        <v>310576.36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C6" s="54">
+        <v>-70.06</v>
+      </c>
+      <c r="D6" s="55">
         <v>69.77</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E6" s="55">
         <v>-3.73</v>
       </c>
-      <c r="F4" s="4">
-        <v>-70.06</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C7" s="54">
+        <v>80.12</v>
+      </c>
+      <c r="D7" s="55">
         <v>6080.14</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E7" s="55">
         <v>5210.1400000000003</v>
       </c>
-      <c r="F5" s="4">
-        <v>80.12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C8" s="54">
+        <v>75.08</v>
+      </c>
+      <c r="D8" s="55">
         <v>3666.33</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E8" s="55">
         <v>26.33</v>
       </c>
-      <c r="F6" s="4">
-        <v>75.08</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C9" s="54">
+        <v>300</v>
+      </c>
+      <c r="D9" s="54">
         <v>550</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E9" s="55">
         <v>800</v>
       </c>
-      <c r="F7" s="4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C10" s="50">
+        <v>38</v>
+      </c>
+      <c r="D10" s="50">
         <v>4928</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E10" s="51">
         <v>3060</v>
       </c>
-      <c r="F8" s="4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="C3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1518,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,9 +1685,7 @@
       <c r="B2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="33">
-        <v>1365.86</v>
-      </c>
+      <c r="C2" s="33"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1553,9 +1699,7 @@
       <c r="B3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="34">
-        <v>1900</v>
-      </c>
+      <c r="C3" s="34"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1569,7 +1713,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="34">
-        <v>1845</v>
+        <v>1825</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1583,7 +1727,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="35">
-        <v>1152.33</v>
+        <v>1141.1500000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1592,7 +1736,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="34">
-        <v>1895</v>
+        <v>155.94999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1600,9 +1744,7 @@
       <c r="B7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="34">
-        <v>3700</v>
-      </c>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
@@ -1610,7 +1752,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="34">
-        <v>5146</v>
+        <v>1465</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1626,44 +1768,52 @@
         <v>29</v>
       </c>
       <c r="C9" s="34">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="34">
-        <v>4470</v>
+      <c r="C10" s="40">
+        <v>50</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="34">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="42">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="36">
-        <v>11083.13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
+        <v>4261.4799999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="44">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C14" s="38">
         <f>SUM(C2:C12)</f>
-        <v>34955.32</v>
+        <v>10073.58</v>
       </c>
     </row>
   </sheetData>
@@ -1674,177 +1824,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="34">
-        <v>1825</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="35">
-        <v>1141.1500000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="34">
-        <v>155.94999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="34"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="34">
-        <v>825</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="34">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="42">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="36">
-        <v>3533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="44">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="38">
-        <f>SUM(C2:C12)</f>
-        <v>8645.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -2050,4 +2029,161 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="33">
+        <v>1365.86</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="34">
+        <v>1900</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="34">
+        <v>1845</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="35">
+        <v>1152.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="34">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="34">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="34">
+        <v>5146</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="34">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="34">
+        <v>4470</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="34">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="36">
+        <v>11083.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="38">
+        <f>SUM(C2:C12)</f>
+        <v>34955.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -835,20 +835,23 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>1825</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1141.1500000000001</c:v>
+                  <c:v>1142.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>155.94999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1465</c:v>
+                  <c:v>1540</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1020</c:v>
+                  <c:v>1030</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>50</c:v>
@@ -857,7 +860,7 @@
                   <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4261.4799999999996</c:v>
+                  <c:v>4606.4799999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12000</c:v>
@@ -876,11 +879,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="193353216"/>
-        <c:axId val="193354752"/>
+        <c:axId val="169301504"/>
+        <c:axId val="169303040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="193353216"/>
+        <c:axId val="169301504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -889,7 +892,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193354752"/>
+        <c:crossAx val="169303040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -897,7 +900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193354752"/>
+        <c:axId val="169303040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,7 +911,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193353216"/>
+        <c:crossAx val="169301504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1073,11 +1076,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="193695744"/>
-        <c:axId val="193697280"/>
+        <c:axId val="169648128"/>
+        <c:axId val="169649664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="193695744"/>
+        <c:axId val="169648128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,7 +1089,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193697280"/>
+        <c:crossAx val="169649664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1094,7 +1097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193697280"/>
+        <c:axId val="169649664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,7 +1108,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193695744"/>
+        <c:crossAx val="169648128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1484,7 +1487,7 @@
   <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I13" sqref="H13:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,64 +1539,64 @@
       <c r="B5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="52">
-        <v>310576.36</v>
+      <c r="C5" s="53">
+        <v>302456.55</v>
       </c>
       <c r="D5" s="53">
-        <v>302456.55</v>
-      </c>
-      <c r="E5" s="53">
         <v>549.48</v>
       </c>
-      <c r="F5" s="52"/>
+      <c r="E5" s="52">
+        <v>804912</v>
+      </c>
+      <c r="F5" s="53"/>
       <c r="G5" s="53"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="54">
-        <v>-70.06</v>
+      <c r="C6" s="55">
+        <v>69.77</v>
       </c>
       <c r="D6" s="55">
-        <v>69.77</v>
-      </c>
-      <c r="E6" s="55">
         <v>-3.73</v>
       </c>
-      <c r="F6" s="54"/>
+      <c r="E6" s="54">
+        <v>-3.73</v>
+      </c>
+      <c r="F6" s="55"/>
       <c r="G6" s="55"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="54">
-        <v>80.12</v>
+      <c r="C7" s="55">
+        <v>6080.14</v>
       </c>
       <c r="D7" s="55">
-        <v>6080.14</v>
-      </c>
-      <c r="E7" s="55">
         <v>5210.1400000000003</v>
       </c>
-      <c r="F7" s="54"/>
+      <c r="E7" s="54">
+        <v>2506.66</v>
+      </c>
+      <c r="F7" s="55"/>
       <c r="G7" s="55"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="54">
-        <v>75.08</v>
+      <c r="C8" s="55">
+        <v>3666.33</v>
       </c>
       <c r="D8" s="55">
-        <v>3666.33</v>
-      </c>
-      <c r="E8" s="55">
         <v>26.33</v>
       </c>
-      <c r="F8" s="54"/>
+      <c r="E8" s="54">
+        <v>26.33</v>
+      </c>
+      <c r="F8" s="55"/>
       <c r="G8" s="55"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -1601,15 +1604,15 @@
         <v>11</v>
       </c>
       <c r="C9" s="54">
-        <v>300</v>
-      </c>
-      <c r="D9" s="54">
         <v>550</v>
       </c>
-      <c r="E9" s="55">
+      <c r="D9" s="55">
         <v>800</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="E9" s="54">
+        <v>100</v>
+      </c>
+      <c r="F9" s="55"/>
       <c r="G9" s="55"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1617,15 +1620,15 @@
         <v>12</v>
       </c>
       <c r="C10" s="50">
-        <v>38</v>
-      </c>
-      <c r="D10" s="50">
         <v>4928</v>
       </c>
-      <c r="E10" s="51">
+      <c r="D10" s="51">
         <v>3060</v>
       </c>
-      <c r="F10" s="50"/>
+      <c r="E10" s="50">
+        <v>3003</v>
+      </c>
+      <c r="F10" s="51"/>
       <c r="G10" s="51"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -1669,7 +1672,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,7 +1688,9 @@
       <c r="B2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="33">
+        <v>100</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1727,7 +1732,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="35">
-        <v>1141.1500000000001</v>
+        <v>1142.51</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1752,7 +1757,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="34">
-        <v>1465</v>
+        <v>1540</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1768,7 +1773,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="34">
-        <v>1020</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1796,7 +1801,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="36">
-        <v>4261.4799999999996</v>
+        <v>4606.4799999999996</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1813,7 +1818,7 @@
       </c>
       <c r="C14" s="38">
         <f>SUM(C2:C12)</f>
-        <v>10073.58</v>
+        <v>10604.939999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2036,7 +2041,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario Enero" sheetId="2" r:id="rId1"/>
@@ -836,7 +836,7 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1335</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1825</c:v>
@@ -857,10 +857,10 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>155</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4606.4799999999996</c:v>
+                  <c:v>4841.4799999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12000</c:v>
@@ -879,11 +879,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="169301504"/>
-        <c:axId val="169303040"/>
+        <c:axId val="181294592"/>
+        <c:axId val="181296128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169301504"/>
+        <c:axId val="181294592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +892,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169303040"/>
+        <c:crossAx val="181296128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -900,7 +900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169303040"/>
+        <c:axId val="181296128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +911,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169301504"/>
+        <c:crossAx val="181294592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1076,11 +1076,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="169648128"/>
-        <c:axId val="169649664"/>
+        <c:axId val="181641216"/>
+        <c:axId val="181642752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169648128"/>
+        <c:axId val="181641216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1089,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169649664"/>
+        <c:crossAx val="181642752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1097,7 +1097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169649664"/>
+        <c:axId val="181642752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,7 +1108,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169648128"/>
+        <c:crossAx val="181641216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1486,7 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="H13:I15"/>
     </sheetView>
   </sheetViews>
@@ -1672,7 +1672,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,7 +1689,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="33">
-        <v>100</v>
+        <v>1335</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1792,7 +1792,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="42">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1801,7 +1801,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="36">
-        <v>4606.4799999999996</v>
+        <v>4841.4799999999996</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="C14" s="38">
         <f>SUM(C2:C12)</f>
-        <v>10604.939999999999</v>
+        <v>12089.939999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2040,7 +2040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -847,8 +847,11 @@
                 <c:pt idx="4">
                   <c:v>155.94999999999999</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1540</c:v>
+                  <c:v>2240</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1030</c:v>
@@ -860,7 +863,7 @@
                   <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4841.4799999999996</c:v>
+                  <c:v>5234.4799999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12000</c:v>
@@ -879,11 +882,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="181294592"/>
-        <c:axId val="181296128"/>
+        <c:axId val="190797312"/>
+        <c:axId val="190798848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181294592"/>
+        <c:axId val="190797312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +895,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181296128"/>
+        <c:crossAx val="190798848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -900,7 +903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181296128"/>
+        <c:axId val="190798848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +914,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181294592"/>
+        <c:crossAx val="190797312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1076,11 +1079,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="181641216"/>
-        <c:axId val="181642752"/>
+        <c:axId val="191078400"/>
+        <c:axId val="191079936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181641216"/>
+        <c:axId val="191078400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1092,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181642752"/>
+        <c:crossAx val="191079936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1097,7 +1100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181642752"/>
+        <c:axId val="191079936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,7 +1111,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181641216"/>
+        <c:crossAx val="191078400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1487,7 +1490,7 @@
   <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="H13:I15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,7 +1675,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,7 +1752,9 @@
       <c r="B7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="34">
+        <v>3000</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
@@ -1757,7 +1762,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="34">
-        <v>1540</v>
+        <v>2240</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1801,7 +1806,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="36">
-        <v>4841.4799999999996</v>
+        <v>5234.4799999999996</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1818,7 +1823,7 @@
       </c>
       <c r="C14" s="38">
         <f>SUM(C2:C12)</f>
-        <v>12089.939999999999</v>
+        <v>16182.939999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario Enero" sheetId="2" r:id="rId1"/>
@@ -847,14 +847,11 @@
                 <c:pt idx="4">
                   <c:v>155.94999999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000</c:v>
-                </c:pt>
                 <c:pt idx="6">
                   <c:v>2240</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1030</c:v>
+                  <c:v>1514.29</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>50</c:v>
@@ -863,7 +860,7 @@
                   <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5234.4799999999996</c:v>
+                  <c:v>5367.48</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12000</c:v>
@@ -882,11 +879,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="190797312"/>
-        <c:axId val="190798848"/>
+        <c:axId val="181622272"/>
+        <c:axId val="181623808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190797312"/>
+        <c:axId val="181622272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,7 +892,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190798848"/>
+        <c:crossAx val="181623808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -903,7 +900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190798848"/>
+        <c:axId val="181623808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,7 +911,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190797312"/>
+        <c:crossAx val="181622272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1079,11 +1076,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="191078400"/>
-        <c:axId val="191079936"/>
+        <c:axId val="182099968"/>
+        <c:axId val="182101504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="191078400"/>
+        <c:axId val="182099968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,7 +1089,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191079936"/>
+        <c:crossAx val="182101504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1100,7 +1097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191079936"/>
+        <c:axId val="182101504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1108,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191078400"/>
+        <c:crossAx val="182099968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1489,7 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1752,9 +1749,7 @@
       <c r="B7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="34">
-        <v>3000</v>
-      </c>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
@@ -1778,7 +1773,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="34">
-        <v>1030</v>
+        <v>1514.29</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1806,7 +1801,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="36">
-        <v>5234.4799999999996</v>
+        <v>5367.48</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1823,7 +1818,7 @@
       </c>
       <c r="C14" s="38">
         <f>SUM(C2:C12)</f>
-        <v>16182.939999999999</v>
+        <v>13800.23</v>
       </c>
     </row>
   </sheetData>
@@ -2045,7 +2040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -836,31 +836,31 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1335</c:v>
+                  <c:v>1375.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1825</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1142.51</c:v>
+                  <c:v>1144.3599999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>155.94999999999999</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2240</c:v>
+                  <c:v>2890</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1514.29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>170</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5367.48</c:v>
+                  <c:v>8369.17</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12000</c:v>
@@ -879,11 +879,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="181622272"/>
-        <c:axId val="181623808"/>
+        <c:axId val="17932288"/>
+        <c:axId val="17934208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181622272"/>
+        <c:axId val="17932288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +892,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181623808"/>
+        <c:crossAx val="17934208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -900,7 +900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181623808"/>
+        <c:axId val="17934208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +911,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181622272"/>
+        <c:crossAx val="17932288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1076,11 +1076,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="182099968"/>
-        <c:axId val="182101504"/>
+        <c:axId val="164795904"/>
+        <c:axId val="164797440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182099968"/>
+        <c:axId val="164795904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1089,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182101504"/>
+        <c:crossAx val="164797440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1097,7 +1097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182101504"/>
+        <c:axId val="164797440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,7 +1108,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182099968"/>
+        <c:crossAx val="164795904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1487,7 +1487,7 @@
   <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,7 +1548,9 @@
       <c r="E5" s="52">
         <v>804912</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="53">
+        <v>9310.41</v>
+      </c>
       <c r="G5" s="53"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -1580,7 +1582,9 @@
       <c r="E7" s="54">
         <v>2506.66</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="55">
+        <v>2521.6799999999998</v>
+      </c>
       <c r="G7" s="55"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -1596,7 +1600,9 @@
       <c r="E8" s="54">
         <v>26.33</v>
       </c>
-      <c r="F8" s="55"/>
+      <c r="F8" s="55">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="G8" s="55"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -1612,7 +1618,9 @@
       <c r="E9" s="54">
         <v>100</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="55">
+        <v>900</v>
+      </c>
       <c r="G9" s="55"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1628,7 +1636,9 @@
       <c r="E10" s="50">
         <v>3003</v>
       </c>
-      <c r="F10" s="51"/>
+      <c r="F10" s="51">
+        <v>297</v>
+      </c>
       <c r="G10" s="51"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -1672,7 +1682,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,7 +1699,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="33">
-        <v>1335</v>
+        <v>1375.86</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1732,7 +1742,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="35">
-        <v>1142.51</v>
+        <v>1144.3599999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1741,7 +1751,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="34">
-        <v>155.94999999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1757,7 +1767,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="34">
-        <v>2240</v>
+        <v>2890</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1782,7 +1792,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="40">
-        <v>50</v>
+        <v>690</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -1792,7 +1802,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="42">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1801,7 +1811,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="36">
-        <v>5367.48</v>
+        <v>8369.17</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1818,7 +1828,7 @@
       </c>
       <c r="C14" s="38">
         <f>SUM(C2:C12)</f>
-        <v>13800.23</v>
+        <v>18293.68</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +2051,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario Enero" sheetId="2" r:id="rId1"/>
@@ -839,7 +839,7 @@
                   <c:v>1375.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1825</c:v>
+                  <c:v>1850</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1144.3599999999999</c:v>
@@ -851,16 +851,16 @@
                   <c:v>2890</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1514.29</c:v>
+                  <c:v>1524.29</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>185</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8369.17</c:v>
+                  <c:v>8878.5300000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12000</c:v>
@@ -879,11 +879,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="17932288"/>
-        <c:axId val="17934208"/>
+        <c:axId val="183191040"/>
+        <c:axId val="183192576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="17932288"/>
+        <c:axId val="183191040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +892,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="17934208"/>
+        <c:crossAx val="183192576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -900,7 +900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17934208"/>
+        <c:axId val="183192576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +911,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="17932288"/>
+        <c:crossAx val="183191040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1076,11 +1076,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="164795904"/>
-        <c:axId val="164797440"/>
+        <c:axId val="183480320"/>
+        <c:axId val="183481856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="164795904"/>
+        <c:axId val="183480320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1089,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164797440"/>
+        <c:crossAx val="183481856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1097,7 +1097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164797440"/>
+        <c:axId val="183481856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,7 +1108,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164795904"/>
+        <c:crossAx val="183480320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1486,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,7 +1566,9 @@
       <c r="E6" s="54">
         <v>-3.73</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="55">
+        <v>-3.73</v>
+      </c>
       <c r="G6" s="55"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -1682,7 +1684,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,7 +1730,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="34">
-        <v>1825</v>
+        <v>1850</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1783,7 +1785,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="34">
-        <v>1514.29</v>
+        <v>1524.29</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1802,7 +1804,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="42">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1811,7 +1813,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="36">
-        <v>8369.17</v>
+        <v>8878.5300000000007</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1828,7 +1830,7 @@
       </c>
       <c r="C14" s="38">
         <f>SUM(C2:C12)</f>
-        <v>18293.68</v>
+        <v>18858.04</v>
       </c>
     </row>
   </sheetData>
@@ -2050,7 +2052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario Enero" sheetId="2" r:id="rId1"/>
     <sheet name="Enero" sheetId="5" r:id="rId2"/>
-    <sheet name="sdsd" sheetId="4" r:id="rId3"/>
-    <sheet name="Diciembre año pasado" sheetId="3" r:id="rId4"/>
+    <sheet name="Diciembre año pasado" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>Ingresos</t>
   </si>
@@ -28,12 +27,6 @@
     <t>semanas</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>control de gastos</t>
-  </si>
-  <si>
     <t>Ahorros</t>
   </si>
   <si>
@@ -58,42 +51,6 @@
     <t>CAJA ROSALIS</t>
   </si>
   <si>
-    <t>1/7</t>
-  </si>
-  <si>
-    <t>8/14</t>
-  </si>
-  <si>
-    <t>15/21</t>
-  </si>
-  <si>
-    <t>Semana</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Gastos</t>
-  </si>
-  <si>
-    <t>% debe gastar</t>
-  </si>
-  <si>
-    <t>% Gastado</t>
-  </si>
-  <si>
-    <t>22/31</t>
-  </si>
-  <si>
     <t>Colegio</t>
   </si>
   <si>
@@ -130,7 +87,79 @@
     <t>Vehiculo y transporte</t>
   </si>
   <si>
-    <t>Peligro!!!</t>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Combustible</t>
+  </si>
+  <si>
+    <t>monto</t>
+  </si>
+  <si>
+    <t>chucheria</t>
+  </si>
+  <si>
+    <t>cargador y recarga</t>
+  </si>
+  <si>
+    <t>cuaderno</t>
+  </si>
+  <si>
+    <t>cuota mario</t>
+  </si>
+  <si>
+    <t>impuestos y tarjeta</t>
+  </si>
+  <si>
+    <t>ropa y cosmetico</t>
+  </si>
+  <si>
+    <t>goma, aro carro y pasaje</t>
+  </si>
+  <si>
+    <t>Presupuesto</t>
+  </si>
+  <si>
+    <t>fiesta y paseo</t>
+  </si>
+  <si>
+    <t>Gastos variable</t>
+  </si>
+  <si>
+    <t>Gastos F</t>
+  </si>
+  <si>
+    <t>Gastos Fijos</t>
+  </si>
+  <si>
+    <t>Gastos Variables</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>proyectado</t>
+  </si>
+  <si>
+    <t>Concentra</t>
+  </si>
+  <si>
+    <t>Rosalis quincena1</t>
+  </si>
+  <si>
+    <t>Rosalis quincena2</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Gastos V</t>
   </si>
 </sst>
 </file>
@@ -142,7 +171,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +218,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -199,37 +243,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF68E945"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBEBC3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,8 +271,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4B4B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -399,43 +443,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -558,95 +565,87 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="2" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -654,63 +653,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF4B4B"/>
+      <color rgb="FF68E945"/>
       <color rgb="FFBBEBC3"/>
-      <color rgb="FF68E945"/>
     </mruColors>
   </colors>
   <extLst>
@@ -728,37 +677,18 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="132"/>
+      <c14:style val="142"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="32"/>
+      <c:style val="42"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-DO"/>
-              <a:t>Gastos mensuales</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -766,7 +696,53 @@
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="68E945"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="68E945"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -775,101 +751,110 @@
               </a:solidFill>
             </c:spPr>
           </c:dPt>
-          <c:dLbls>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Enero!$B$2:$B$13</c:f>
+              <c:f>Enero!$F$43:$F$50</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Comunicacion</c:v>
+                  <c:v>Ingresos</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Colegio</c:v>
+                  <c:v>.</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Guarderia</c:v>
+                  <c:v>Ahorros</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Bancos</c:v>
+                  <c:v>.</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Ropa y cosmetico</c:v>
+                  <c:v>Gastos F</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Hogar</c:v>
+                  <c:v>.</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Vehiculo y transporte</c:v>
+                  <c:v>Gastos V</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Medicina y consulta</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Fiesta y paseo</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Chucheria</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Compra</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Peligro!!!</c:v>
+                  <c:v>.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Enero!$C$2:$C$13</c:f>
+              <c:f>Enero!$G$43:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1375.86</c:v>
+                  <c:v>69828.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20608.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1850</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1144.3599999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>15413.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13713.53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2890</c:v>
+                  <c:v>4414.87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1524.29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>690</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8878.5300000000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12000</c:v>
+                  <c:v>5143.6499999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -877,22 +862,21 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:overlap val="40"/>
-        <c:axId val="183191040"/>
-        <c:axId val="183192576"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="12946816"/>
+        <c:axId val="12956800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183191040"/>
+        <c:axId val="12946816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183192576"/>
+        <c:crossAx val="12956800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -900,18 +884,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183192576"/>
+        <c:axId val="12956800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183191040"/>
+        <c:crossAx val="12946816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1076,11 +1060,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="183480320"/>
-        <c:axId val="183481856"/>
+        <c:axId val="183083008"/>
+        <c:axId val="183084544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183480320"/>
+        <c:axId val="183083008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1073,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183481856"/>
+        <c:crossAx val="183084544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1097,7 +1081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183481856"/>
+        <c:axId val="183084544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,7 +1092,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183480320"/>
+        <c:crossAx val="183083008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1129,23 +1113,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85723</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1487,7 +1469,7 @@
   <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,34 +1481,34 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="45"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24">
         <v>1</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="24">
         <v>2</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="24">
         <v>3</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="24">
         <v>4</v>
       </c>
       <c r="H4" s="1"/>
@@ -1536,112 +1518,112 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="28">
+        <v>302456.55</v>
+      </c>
+      <c r="D5" s="28">
+        <v>549.48</v>
+      </c>
+      <c r="E5" s="27">
+        <v>804912</v>
+      </c>
+      <c r="F5" s="28">
+        <v>9310.41</v>
+      </c>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="53">
-        <v>302456.55</v>
-      </c>
-      <c r="D5" s="53">
-        <v>549.48</v>
-      </c>
-      <c r="E5" s="52">
-        <v>804912</v>
-      </c>
-      <c r="F5" s="53">
-        <v>9310.41</v>
-      </c>
-      <c r="G5" s="53"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="46" t="s">
+      <c r="C6" s="30">
+        <v>69.77</v>
+      </c>
+      <c r="D6" s="30">
+        <v>-3.73</v>
+      </c>
+      <c r="E6" s="29">
+        <v>-3.73</v>
+      </c>
+      <c r="F6" s="30">
+        <v>-3.73</v>
+      </c>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="30">
+        <v>6080.14</v>
+      </c>
+      <c r="D7" s="30">
+        <v>5210.1400000000003</v>
+      </c>
+      <c r="E7" s="29">
+        <v>2506.66</v>
+      </c>
+      <c r="F7" s="30">
+        <v>2521.6799999999998</v>
+      </c>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="30">
+        <v>3666.33</v>
+      </c>
+      <c r="D8" s="30">
+        <v>26.33</v>
+      </c>
+      <c r="E8" s="29">
+        <v>26.33</v>
+      </c>
+      <c r="F8" s="30">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="29">
+        <v>550</v>
+      </c>
+      <c r="D9" s="30">
+        <v>800</v>
+      </c>
+      <c r="E9" s="29">
+        <v>100</v>
+      </c>
+      <c r="F9" s="30">
+        <v>900</v>
+      </c>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="55">
-        <v>69.77</v>
-      </c>
-      <c r="D6" s="55">
-        <v>-3.73</v>
-      </c>
-      <c r="E6" s="54">
-        <v>-3.73</v>
-      </c>
-      <c r="F6" s="55">
-        <v>-3.73</v>
-      </c>
-      <c r="G6" s="55"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="55">
-        <v>6080.14</v>
-      </c>
-      <c r="D7" s="55">
-        <v>5210.1400000000003</v>
-      </c>
-      <c r="E7" s="54">
-        <v>2506.66</v>
-      </c>
-      <c r="F7" s="55">
-        <v>2521.6799999999998</v>
-      </c>
-      <c r="G7" s="55"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="55">
-        <v>3666.33</v>
-      </c>
-      <c r="D8" s="55">
-        <v>26.33</v>
-      </c>
-      <c r="E8" s="54">
-        <v>26.33</v>
-      </c>
-      <c r="F8" s="55">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G8" s="55"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="54">
-        <v>550</v>
-      </c>
-      <c r="D9" s="55">
-        <v>800</v>
-      </c>
-      <c r="E9" s="54">
-        <v>100</v>
-      </c>
-      <c r="F9" s="55">
-        <v>900</v>
-      </c>
-      <c r="G9" s="55"/>
-    </row>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="50">
+      <c r="C10" s="25">
         <v>4928</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="26">
         <v>3060</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="25">
         <v>3003</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="26">
         <v>297</v>
       </c>
-      <c r="G10" s="51"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
@@ -1681,159 +1663,502 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="33">
-        <v>1375.86</v>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37">
+        <f>SUM(H8:H12)</f>
+        <v>69828.399999999994</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="29" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="39">
+        <f>H4</f>
+        <v>50000</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="F3" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="42">
+        <f>SUM(D8:D13)</f>
+        <v>15413.53</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="F4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="55">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="42">
+        <v>4414.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1235</v>
+      </c>
+      <c r="D8" s="55">
+        <v>1235</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="55">
+        <v>49220</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0</v>
+      </c>
+      <c r="D9" s="55">
+        <v>900</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="19">
+        <v>7304.2</v>
+      </c>
+      <c r="H9" s="55">
+        <v>7304.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1800</v>
+      </c>
+      <c r="D10" s="55">
+        <v>1800</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="19">
+        <v>7304.2</v>
+      </c>
+      <c r="H10" s="55">
+        <v>7304.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="45">
+        <v>0</v>
+      </c>
+      <c r="D11" s="55">
+        <v>200</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="45">
+        <v>3500</v>
+      </c>
+      <c r="H11" s="55">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1800</v>
+      </c>
+      <c r="D12" s="55">
+        <v>2400</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="19">
+        <v>2500</v>
+      </c>
+      <c r="H12" s="55">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="19">
+        <v>8878.5300000000007</v>
+      </c>
+      <c r="D13" s="55">
+        <v>8878.5300000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="29" t="s">
+      <c r="H15" s="35"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="34">
-        <v>1850</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="35">
-        <v>1144.3599999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="29" t="s">
+      <c r="C16" s="49">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C17" s="49">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="49">
+        <v>50</v>
+      </c>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="49">
+        <v>907.07</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="49">
+        <v>237.29</v>
+      </c>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="49">
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="34"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="29" t="s">
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="49">
+        <v>1090</v>
+      </c>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="51">
+        <v>1524.29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="51">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="40"/>
+      <c r="C25" s="51"/>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="40"/>
+      <c r="C26" s="49"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="40"/>
+      <c r="C27" s="49"/>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="40"/>
+      <c r="C28" s="49"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="40"/>
+      <c r="C29" s="49"/>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="40"/>
+      <c r="C30" s="49"/>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="40"/>
+      <c r="C31" s="49"/>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="40"/>
+      <c r="C32" s="49"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="40"/>
+      <c r="C33" s="49"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="40"/>
+      <c r="C34" s="49"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="40"/>
+      <c r="C35" s="49"/>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="40"/>
+      <c r="C36" s="49"/>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="40"/>
+      <c r="C37" s="49"/>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="40"/>
+      <c r="C38" s="49"/>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="40"/>
+      <c r="C39" s="49"/>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="40"/>
+      <c r="C40" s="49"/>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="40"/>
+      <c r="C41" s="49"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="40"/>
+      <c r="C42" s="49"/>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="40"/>
+      <c r="C43" s="49"/>
+      <c r="F43" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="35">
+        <f>C2</f>
+        <v>69828.399999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="40"/>
+      <c r="C44" s="49"/>
+      <c r="F44" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="35">
+        <f>SUM(G8:G12)</f>
+        <v>20608.400000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="40"/>
+      <c r="C45" s="49"/>
+      <c r="F45" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="35">
+        <f>H4</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="40"/>
+      <c r="C46" s="49"/>
+      <c r="F46" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="35">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="40"/>
+      <c r="C47" s="49"/>
+      <c r="F47" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="34">
-        <v>2890</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="34">
-        <v>1524.29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="40">
-        <v>690</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="42">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="36">
-        <v>8878.5300000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="44">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="38">
-        <f>SUM(C2:C12)</f>
-        <v>18858.04</v>
-      </c>
+      <c r="G47" s="35">
+        <f>C4</f>
+        <v>15413.53</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="40"/>
+      <c r="C48" s="49"/>
+      <c r="F48" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="35">
+        <f>SUM(C8:C13)</f>
+        <v>13713.53</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="40"/>
+      <c r="C49" s="49"/>
+      <c r="F49" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="35">
+        <f>C5</f>
+        <v>4414.87</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="40"/>
+      <c r="C50" s="49"/>
+      <c r="F50" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="35">
+        <f>SUM(C16:C120)</f>
+        <v>5143.6499999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="40"/>
+      <c r="C51" s="49"/>
+    </row>
+    <row r="52" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="40"/>
+      <c r="C52" s="49"/>
+    </row>
+    <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="40"/>
+      <c r="C53" s="49"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1842,234 +2167,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7">
-        <v>14973.43</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="14">
-        <f>C4/D14</f>
-        <v>0.75515069294547243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7">
-        <v>5913</v>
-      </c>
-      <c r="D5" s="14">
-        <f>0.25+(D4-E4)</f>
-        <v>-0.25515069294547243</v>
-      </c>
-      <c r="E5" s="14">
-        <f>C5/D14</f>
-        <v>0.29820863004579301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7">
-        <v>9076</v>
-      </c>
-      <c r="D6" s="14">
-        <f>0.25+(D5-E5)</f>
-        <v>-0.30335932299126545</v>
-      </c>
-      <c r="E6" s="14">
-        <f>C6/D14</f>
-        <v>0.4577273002360252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2321.31</v>
-      </c>
-      <c r="D7" s="14">
-        <f>0.25+(D6-E6)</f>
-        <v>-0.51108662322729059</v>
-      </c>
-      <c r="E7" s="14">
-        <f>C7/D14</f>
-        <v>0.11706996025902244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="15">
-        <f>D8*D14</f>
-        <v>-12455.340000000004</v>
-      </c>
-      <c r="D8" s="16">
-        <f>(D7-E7)</f>
-        <v>-0.62815658348631298</v>
-      </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="21">
-        <v>1</v>
-      </c>
-      <c r="D12" s="22">
-        <v>69828.399999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="20">
-        <f>D13/D12</f>
-        <v>0.71604103774395522</v>
-      </c>
-      <c r="D13" s="23">
-        <v>50000</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="20">
-        <f>C12-C13</f>
-        <v>0.28395896225604478</v>
-      </c>
-      <c r="D14" s="24">
-        <f>C14*D12</f>
-        <v>19828.399999999994</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="A2" s="5"/>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="13">
         <v>1365.86</v>
       </c>
       <c r="D2" s="1"/>
@@ -2081,11 +2198,11 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="34">
+      <c r="A3" s="6"/>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="14">
         <v>1900</v>
       </c>
       <c r="D3" s="1"/>
@@ -2096,11 +2213,11 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="34">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="14">
         <v>1845</v>
       </c>
       <c r="D4" s="3"/>
@@ -2110,38 +2227,38 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="15">
         <v>1152.33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="34">
+      <c r="A6" s="6"/>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14">
         <v>1895</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="34">
+      <c r="A7" s="6"/>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14">
         <v>3700</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="34">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="14">
         <v>5146</v>
       </c>
       <c r="D8" s="1"/>
@@ -2153,47 +2270,47 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="34">
+      <c r="A9" s="6"/>
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="14">
         <v>1225</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="34">
+      <c r="A10" s="6"/>
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="14">
         <v>4470</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="34">
+      <c r="A11" s="6"/>
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="14">
         <v>1173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="36">
+      <c r="A12" s="7"/>
+      <c r="B12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="16">
         <v>11083.13</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="38">
+      <c r="B13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="18">
         <f>SUM(C2:C12)</f>
         <v>34955.32</v>
       </c>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="Enero" sheetId="5" r:id="rId2"/>
     <sheet name="Diciembre año pasado" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>Ingresos</t>
   </si>
@@ -160,12 +160,15 @@
   </si>
   <si>
     <t>Gastos V</t>
+  </si>
+  <si>
+    <t>Otros</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -234,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,8 +298,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -555,6 +564,19 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -565,7 +587,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -587,7 +609,6 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -605,18 +626,6 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -631,21 +640,36 @@
     <xf numFmtId="43" fontId="3" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="2" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="2" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -666,14 +690,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-DO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -704,6 +731,11 @@
                 <a:srgbClr val="68E945"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F86B-4F8D-A749-945F9421E404}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -717,6 +749,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F86B-4F8D-A749-945F9421E404}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -727,6 +764,11 @@
                 <a:srgbClr val="68E945"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F86B-4F8D-A749-945F9421E404}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -740,6 +782,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F86B-4F8D-A749-945F9421E404}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -750,6 +797,11 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F86B-4F8D-A749-945F9421E404}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -763,6 +815,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-F86B-4F8D-A749-945F9421E404}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -773,6 +830,11 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-F86B-4F8D-A749-945F9421E404}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -786,6 +848,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-F86B-4F8D-A749-945F9421E404}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -826,10 +893,10 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>69828.399999999994</c:v>
+                  <c:v>69798.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20608.400000000001</c:v>
+                  <c:v>20638.57</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>50000</c:v>
@@ -852,9 +919,13 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-F86B-4F8D-A749-945F9421E404}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -873,6 +944,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -913,9 +985,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-DO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -942,7 +1014,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -957,6 +1028,13 @@
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -965,6 +1043,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1049,6 +1132,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0168-40B7-9B74-64E6A6D46F8E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1070,6 +1158,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1222,7 +1311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1257,7 +1346,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1481,34 +1570,34 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23">
         <v>1</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>2</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>3</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <v>4</v>
       </c>
       <c r="H4" s="1"/>
@@ -1518,112 +1607,112 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>302456.55</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>549.48</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="26">
         <v>804912</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <v>9310.41</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="29">
         <v>69.77</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="29">
         <v>-3.73</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="28">
         <v>-3.73</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="29">
         <v>-3.73</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="29">
         <v>6080.14</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="29">
         <v>5210.1400000000003</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <v>2506.66</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <v>2521.6799999999998</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <v>3666.33</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <v>26.33</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="28">
         <v>26.33</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>550</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <v>800</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <v>100</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <v>900</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>4928</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="25">
         <v>3060</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>3003</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="25">
         <v>297</v>
       </c>
-      <c r="G10" s="26"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
@@ -1666,7 +1755,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,7 +1765,7 @@
     <col min="3" max="3" width="12.42578125" style="12" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -1686,51 +1775,51 @@
         <v>33</v>
       </c>
       <c r="C1" s="50"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37">
-        <f>SUM(H8:H12)</f>
-        <v>69828.399999999994</v>
+      <c r="C2" s="32">
+        <f>SUM(H8:H13)</f>
+        <v>69798.23</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="34">
         <f>H4</f>
         <v>50000</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="37">
         <f>SUM(D8:D13)</f>
         <v>15413.53</v>
       </c>
@@ -1738,19 +1827,19 @@
       <c r="F4" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="54">
         <v>0</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="45">
         <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="37">
         <v>4414.87</v>
       </c>
     </row>
@@ -1760,22 +1849,22 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="44" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1784,20 +1873,20 @@
       <c r="B8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="54">
         <v>1235</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="45">
         <v>1235</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="54">
         <v>0</v>
       </c>
-      <c r="H8" s="55">
-        <v>49220</v>
+      <c r="H8" s="45">
+        <v>49189.83</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -1806,19 +1895,19 @@
       <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="54">
         <v>0</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="45">
         <v>900</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="54">
         <v>7304.2</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="45">
         <v>7304.2</v>
       </c>
     </row>
@@ -1827,40 +1916,40 @@
       <c r="B10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="54">
         <v>1800</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="45">
         <v>1800</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="54">
         <v>7304.2</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="45">
         <v>7304.2</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="54">
         <v>0</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="45">
         <v>200</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="54">
         <v>3500</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="45">
         <v>3500</v>
       </c>
     </row>
@@ -1869,19 +1958,19 @@
       <c r="B12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="54">
         <v>1800</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="45">
         <v>2400</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="55">
         <v>2500</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="53">
         <v>2500</v>
       </c>
     </row>
@@ -1889,270 +1978,279 @@
       <c r="B13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="54">
         <v>8878.5300000000007</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="45">
         <v>8878.5300000000007</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="55">
+        <v>30.17</v>
+      </c>
+      <c r="H13" s="53">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="35"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="56">
         <v>205</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="56">
         <v>140</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="56">
         <v>50</v>
       </c>
-      <c r="H18" s="35"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="56">
         <v>907.07</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="56">
         <v>237.29</v>
       </c>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="56">
         <v>300</v>
       </c>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="56">
         <v>1090</v>
       </c>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="57">
         <v>1524.29</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="57">
         <v>690</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="40"/>
-      <c r="C25" s="51"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="57"/>
     </row>
     <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="40"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="56"/>
     </row>
     <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="40"/>
-      <c r="C27" s="49"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="56"/>
     </row>
     <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="40"/>
-      <c r="C28" s="49"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="56"/>
     </row>
     <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="40"/>
-      <c r="C29" s="49"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="56"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="40"/>
-      <c r="C30" s="49"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="56"/>
     </row>
     <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="40"/>
-      <c r="C31" s="49"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="56"/>
     </row>
     <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="40"/>
-      <c r="C32" s="49"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="56"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="40"/>
-      <c r="C33" s="49"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="56"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="40"/>
-      <c r="C34" s="49"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="56"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="C35" s="49"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="56"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="40"/>
-      <c r="C36" s="49"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="56"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="40"/>
-      <c r="C37" s="49"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="56"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="40"/>
-      <c r="C38" s="49"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="56"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="40"/>
-      <c r="C39" s="49"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="56"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="40"/>
-      <c r="C40" s="49"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="56"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="40"/>
-      <c r="C41" s="49"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="56"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="40"/>
-      <c r="C42" s="49"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="56"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="40"/>
-      <c r="C43" s="49"/>
-      <c r="F43" s="47" t="s">
+      <c r="B43" s="35"/>
+      <c r="C43" s="56"/>
+      <c r="F43" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="G43" s="35">
+      <c r="G43" s="30">
         <f>C2</f>
-        <v>69828.399999999994</v>
+        <v>69798.23</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="40"/>
-      <c r="C44" s="49"/>
-      <c r="F44" s="47" t="s">
+      <c r="B44" s="35"/>
+      <c r="C44" s="56"/>
+      <c r="F44" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="35">
-        <f>SUM(G8:G12)</f>
-        <v>20608.400000000001</v>
+      <c r="G44" s="30">
+        <f>SUM(G8:G13)</f>
+        <v>20638.57</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="40"/>
-      <c r="C45" s="49"/>
-      <c r="F45" s="47" t="s">
+      <c r="B45" s="35"/>
+      <c r="C45" s="56"/>
+      <c r="F45" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="35">
+      <c r="G45" s="30">
         <f>H4</f>
         <v>50000</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="40"/>
-      <c r="C46" s="49"/>
-      <c r="F46" s="47" t="s">
+      <c r="B46" s="35"/>
+      <c r="C46" s="56"/>
+      <c r="F46" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G46" s="35">
+      <c r="G46" s="30">
         <f>G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="40"/>
-      <c r="C47" s="49"/>
-      <c r="F47" s="47" t="s">
+      <c r="B47" s="35"/>
+      <c r="C47" s="56"/>
+      <c r="F47" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="G47" s="35">
+      <c r="G47" s="30">
         <f>C4</f>
         <v>15413.53</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="40"/>
-      <c r="C48" s="49"/>
-      <c r="F48" s="47" t="s">
+      <c r="B48" s="35"/>
+      <c r="C48" s="56"/>
+      <c r="F48" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G48" s="35">
+      <c r="G48" s="30">
         <f>SUM(C8:C13)</f>
         <v>13713.53</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="40"/>
-      <c r="C49" s="49"/>
-      <c r="F49" s="47" t="s">
+      <c r="B49" s="35"/>
+      <c r="C49" s="56"/>
+      <c r="F49" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="G49" s="35">
+      <c r="G49" s="30">
         <f>C5</f>
         <v>4414.87</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="40"/>
-      <c r="C50" s="49"/>
-      <c r="F50" s="47" t="s">
+      <c r="B50" s="35"/>
+      <c r="C50" s="56"/>
+      <c r="F50" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G50" s="35">
+      <c r="G50" s="30">
         <f>SUM(C16:C120)</f>
         <v>5143.6499999999996</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="40"/>
-      <c r="C51" s="49"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="56"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="40"/>
-      <c r="C52" s="49"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="56"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="40"/>
-      <c r="C53" s="49"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Ingresos</t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>Gastos V</t>
+  </si>
+  <si>
+    <t>tayota</t>
+  </si>
+  <si>
+    <t>quineo</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>queso</t>
   </si>
 </sst>
 </file>
@@ -605,18 +617,6 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -636,16 +636,28 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="2" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="2" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -841,20 +853,19 @@
                   <c:v>15413.53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13713.53</c:v>
+                  <c:v>13813.59</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4414.87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5143.6499999999996</c:v>
+                  <c:v>5218.6499999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -863,11 +874,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="12946816"/>
-        <c:axId val="12956800"/>
+        <c:axId val="167952384"/>
+        <c:axId val="167953920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="12946816"/>
+        <c:axId val="167952384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,7 +887,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12956800"/>
+        <c:crossAx val="167953920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -884,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12956800"/>
+        <c:axId val="167953920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,7 +906,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12946816"/>
+        <c:crossAx val="167952384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1060,11 +1071,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="183083008"/>
-        <c:axId val="183084544"/>
+        <c:axId val="188454400"/>
+        <c:axId val="188455936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183083008"/>
+        <c:axId val="188454400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,7 +1084,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183084544"/>
+        <c:crossAx val="188455936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1081,7 +1092,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183084544"/>
+        <c:axId val="188455936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,7 +1103,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183083008"/>
+        <c:crossAx val="188454400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1482,17 +1493,17 @@
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="20"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
@@ -1665,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,61 +1687,61 @@
     <col min="3" max="3" width="12.42578125" style="12" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="43" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="33">
         <f>SUM(H8:H12)</f>
         <v>69828.399999999994</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="35">
         <f>H4</f>
         <v>50000</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="38">
         <f>SUM(D8:D13)</f>
         <v>15413.53</v>
       </c>
@@ -1741,16 +1752,16 @@
       <c r="G4" s="19">
         <v>0</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="49">
         <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="38">
         <v>4414.87</v>
       </c>
     </row>
@@ -1760,22 +1771,22 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="48" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1787,7 +1798,7 @@
       <c r="C8" s="19">
         <v>1235</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="49">
         <v>1235</v>
       </c>
       <c r="F8" s="17" t="s">
@@ -1796,7 +1807,7 @@
       <c r="G8" s="19">
         <v>0</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="49">
         <v>49220</v>
       </c>
       <c r="I8" s="1"/>
@@ -1809,7 +1820,7 @@
       <c r="C9" s="19">
         <v>0</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="49">
         <v>900</v>
       </c>
       <c r="F9" s="17" t="s">
@@ -1818,7 +1829,7 @@
       <c r="G9" s="19">
         <v>7304.2</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="49">
         <v>7304.2</v>
       </c>
     </row>
@@ -1830,7 +1841,7 @@
       <c r="C10" s="19">
         <v>1800</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="49">
         <v>1800</v>
       </c>
       <c r="F10" s="17" t="s">
@@ -1839,28 +1850,28 @@
       <c r="G10" s="19">
         <v>7304.2</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="49">
         <v>7304.2</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="41">
         <v>0</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="49">
         <v>200</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="41">
         <v>3500</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="49">
         <v>3500</v>
       </c>
     </row>
@@ -1872,7 +1883,7 @@
       <c r="C12" s="19">
         <v>1800</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="49">
         <v>2400</v>
       </c>
       <c r="F12" s="17" t="s">
@@ -1881,7 +1892,7 @@
       <c r="G12" s="19">
         <v>2500</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="49">
         <v>2500</v>
       </c>
     </row>
@@ -1890,269 +1901,285 @@
         <v>18</v>
       </c>
       <c r="C13" s="19">
-        <v>8878.5300000000007</v>
-      </c>
-      <c r="D13" s="55">
+        <v>8978.59</v>
+      </c>
+      <c r="D13" s="49">
         <v>8878.5300000000007</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="35"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="45">
         <v>205</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="45">
         <v>140</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="45">
         <v>50</v>
       </c>
-      <c r="H18" s="35"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="45">
         <v>907.07</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="45">
         <v>237.29</v>
       </c>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="45">
         <v>300</v>
       </c>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="45">
         <v>1090</v>
       </c>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="46">
         <v>1524.29</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="46">
         <v>690</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="40"/>
-      <c r="C25" s="51"/>
+      <c r="B25" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="46">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="40"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="45">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="40"/>
-      <c r="C27" s="49"/>
+      <c r="B27" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="45">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="40"/>
-      <c r="C28" s="49"/>
+      <c r="B28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="45">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="40"/>
-      <c r="C29" s="49"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="45"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="40"/>
-      <c r="C30" s="49"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="45"/>
     </row>
     <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="40"/>
-      <c r="C31" s="49"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="45"/>
     </row>
     <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="40"/>
-      <c r="C32" s="49"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="45"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="40"/>
-      <c r="C33" s="49"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="45"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="40"/>
-      <c r="C34" s="49"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="45"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="C35" s="49"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="45"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="40"/>
-      <c r="C36" s="49"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="45"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="40"/>
-      <c r="C37" s="49"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="45"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="40"/>
-      <c r="C38" s="49"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="45"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="40"/>
-      <c r="C39" s="49"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="45"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="40"/>
-      <c r="C40" s="49"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="45"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="40"/>
-      <c r="C41" s="49"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="45"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="40"/>
-      <c r="C42" s="49"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="45"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="40"/>
-      <c r="C43" s="49"/>
-      <c r="F43" s="47" t="s">
+      <c r="B43" s="36"/>
+      <c r="C43" s="45"/>
+      <c r="F43" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="G43" s="35">
+      <c r="G43" s="31">
         <f>C2</f>
         <v>69828.399999999994</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="40"/>
-      <c r="C44" s="49"/>
-      <c r="F44" s="47" t="s">
+      <c r="B44" s="36"/>
+      <c r="C44" s="45"/>
+      <c r="F44" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="35">
+      <c r="G44" s="31">
         <f>SUM(G8:G12)</f>
         <v>20608.400000000001</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="40"/>
-      <c r="C45" s="49"/>
-      <c r="F45" s="47" t="s">
+      <c r="B45" s="36"/>
+      <c r="C45" s="45"/>
+      <c r="F45" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="35">
+      <c r="G45" s="31">
         <f>H4</f>
         <v>50000</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="40"/>
-      <c r="C46" s="49"/>
-      <c r="F46" s="47" t="s">
+      <c r="B46" s="36"/>
+      <c r="C46" s="45"/>
+      <c r="F46" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="G46" s="35">
+      <c r="G46" s="31">
         <f>G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="40"/>
-      <c r="C47" s="49"/>
-      <c r="F47" s="47" t="s">
+      <c r="B47" s="36"/>
+      <c r="C47" s="45"/>
+      <c r="F47" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="G47" s="35">
+      <c r="G47" s="31">
         <f>C4</f>
         <v>15413.53</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="40"/>
-      <c r="C48" s="49"/>
-      <c r="F48" s="47" t="s">
+      <c r="B48" s="36"/>
+      <c r="C48" s="45"/>
+      <c r="F48" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="G48" s="35">
+      <c r="G48" s="31">
         <f>SUM(C8:C13)</f>
-        <v>13713.53</v>
+        <v>13813.59</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="40"/>
-      <c r="C49" s="49"/>
-      <c r="F49" s="47" t="s">
+      <c r="B49" s="36"/>
+      <c r="C49" s="45"/>
+      <c r="F49" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="G49" s="35">
+      <c r="G49" s="31">
         <f>C5</f>
         <v>4414.87</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="40"/>
-      <c r="C50" s="49"/>
-      <c r="F50" s="47" t="s">
+      <c r="B50" s="36"/>
+      <c r="C50" s="45"/>
+      <c r="F50" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="G50" s="35">
+      <c r="G50" s="31">
         <f>SUM(C16:C120)</f>
-        <v>5143.6499999999996</v>
+        <v>5218.6499999999996</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="40"/>
-      <c r="C51" s="49"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="45"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="40"/>
-      <c r="C52" s="49"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="45"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="40"/>
-      <c r="C53" s="49"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -874,11 +874,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="167952384"/>
-        <c:axId val="167953920"/>
+        <c:axId val="182374400"/>
+        <c:axId val="182375936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="167952384"/>
+        <c:axId val="182374400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +887,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167953920"/>
+        <c:crossAx val="182375936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -895,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167953920"/>
+        <c:axId val="182375936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +906,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167952384"/>
+        <c:crossAx val="182374400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -953,7 +953,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1071,11 +1070,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="188454400"/>
-        <c:axId val="188455936"/>
+        <c:axId val="182691328"/>
+        <c:axId val="182692864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188454400"/>
+        <c:axId val="182691328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,7 +1083,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188455936"/>
+        <c:crossAx val="182692864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1092,7 +1091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188455936"/>
+        <c:axId val="182692864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,7 +1102,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188454400"/>
+        <c:crossAx val="182691328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1677,7 +1676,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario Enero" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>Ingresos</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>queso</t>
+  </si>
+  <si>
+    <t>interes impuestos progreso</t>
+  </si>
+  <si>
+    <t>interes retenido progreso</t>
   </si>
 </sst>
 </file>
@@ -859,7 +865,7 @@
                   <c:v>4414.87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5218.6499999999996</c:v>
+                  <c:v>5219.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,11 +880,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="182374400"/>
-        <c:axId val="182375936"/>
+        <c:axId val="190697472"/>
+        <c:axId val="190699008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182374400"/>
+        <c:axId val="190697472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +893,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182375936"/>
+        <c:crossAx val="190699008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -895,7 +901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182375936"/>
+        <c:axId val="190699008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +912,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182374400"/>
+        <c:crossAx val="190697472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1070,11 +1076,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="182691328"/>
-        <c:axId val="182692864"/>
+        <c:axId val="191014400"/>
+        <c:axId val="191015936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182691328"/>
+        <c:axId val="191014400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,7 +1089,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182692864"/>
+        <c:crossAx val="191015936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1091,7 +1097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182692864"/>
+        <c:axId val="191015936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +1108,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182691328"/>
+        <c:crossAx val="191014400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1478,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,7 +1565,7 @@
         <v>-3.73</v>
       </c>
       <c r="F6" s="30">
-        <v>-3.73</v>
+        <v>-3.12</v>
       </c>
       <c r="G6" s="30"/>
     </row>
@@ -1675,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2025,12 +2031,20 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36"/>
-      <c r="C29" s="45"/>
+      <c r="B29" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="45">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="36"/>
-      <c r="C30" s="45"/>
+      <c r="B30" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="45">
+        <v>-7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="36"/>
@@ -2165,7 +2179,7 @@
       </c>
       <c r="G50" s="31">
         <f>SUM(C16:C120)</f>
-        <v>5218.6499999999996</v>
+        <v>5219.26</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario Enero" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>Ingresos</t>
   </si>
@@ -114,9 +114,6 @@
     <t>ropa y cosmetico</t>
   </si>
   <si>
-    <t>goma, aro carro y pasaje</t>
-  </si>
-  <si>
     <t>Presupuesto</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>Gastos variable</t>
   </si>
   <si>
-    <t>Gastos F</t>
-  </si>
-  <si>
     <t>Gastos Fijos</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>CG</t>
   </si>
   <si>
-    <t>Gastos V</t>
-  </si>
-  <si>
     <t>tayota</t>
   </si>
   <si>
@@ -178,6 +169,54 @@
   </si>
   <si>
     <t>interes retenido progreso</t>
+  </si>
+  <si>
+    <t>Inversion bhd leon</t>
+  </si>
+  <si>
+    <t>Renta casa</t>
+  </si>
+  <si>
+    <t>agua</t>
+  </si>
+  <si>
+    <t>merienda</t>
+  </si>
+  <si>
+    <t>colmado</t>
+  </si>
+  <si>
+    <t>desayuno</t>
+  </si>
+  <si>
+    <t>crema adel</t>
+  </si>
+  <si>
+    <t>BHDLeon</t>
+  </si>
+  <si>
+    <t>Gastos personales</t>
+  </si>
+  <si>
+    <t>compras varias</t>
+  </si>
+  <si>
+    <t>Banco popular</t>
+  </si>
+  <si>
+    <t>Consulta Medica</t>
+  </si>
+  <si>
+    <t>Gastos</t>
+  </si>
+  <si>
+    <t>pasaje</t>
+  </si>
+  <si>
+    <t>goma, aro carro</t>
+  </si>
+  <si>
+    <t>Gas casa</t>
   </si>
 </sst>
 </file>
@@ -189,7 +228,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,8 +290,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,8 +359,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -576,6 +628,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -583,7 +648,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -634,7 +699,6 @@
     <xf numFmtId="43" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -663,6 +727,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -782,34 +864,11 @@
               </a:solidFill>
             </c:spPr>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Enero!$F$43:$F$50</c:f>
+              <c:f>Enero!$J$26:$J$31</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Ingresos</c:v>
                 </c:pt>
@@ -823,15 +882,9 @@
                   <c:v>.</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Gastos F</c:v>
+                  <c:v>Gastos</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>.</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Gastos V</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>.</c:v>
                 </c:pt>
               </c:strCache>
@@ -839,15 +892,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Enero!$G$43:$G$50</c:f>
+              <c:f>Enero!$K$26:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>69828.399999999994</c:v>
+                  <c:v>69798.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20608.400000000001</c:v>
+                  <c:v>69798.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>50000</c:v>
@@ -856,16 +909,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15413.53</c:v>
+                  <c:v>19798.229999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13813.59</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4414.87</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5219.26</c:v>
+                  <c:v>17145.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -880,11 +927,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190697472"/>
-        <c:axId val="190699008"/>
+        <c:axId val="158734592"/>
+        <c:axId val="158736384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190697472"/>
+        <c:axId val="158734592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,7 +940,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190699008"/>
+        <c:crossAx val="158736384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -901,7 +948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190699008"/>
+        <c:axId val="158736384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,7 +959,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190697472"/>
+        <c:crossAx val="158734592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -959,6 +1006,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1076,11 +1124,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="191014400"/>
-        <c:axId val="191015936"/>
+        <c:axId val="158408704"/>
+        <c:axId val="158410240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="191014400"/>
+        <c:axId val="158408704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1137,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191015936"/>
+        <c:crossAx val="158410240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1097,7 +1145,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191015936"/>
+        <c:axId val="158410240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,7 +1156,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191014400"/>
+        <c:crossAx val="158408704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1130,15 +1178,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1484,7 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1498,17 +1546,17 @@
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="20"/>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
@@ -1679,31 +1727,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="12" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="42" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -1712,11 +1761,11 @@
       </c>
       <c r="C2" s="33">
         <f>SUM(H8:H12)</f>
-        <v>69828.399999999994</v>
+        <v>69798.23</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1731,473 +1780,832 @@
         <v>50000</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>41</v>
+      <c r="G3" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="38">
-        <f>SUM(D8:D13)</f>
-        <v>15413.53</v>
+        <v>35</v>
+      </c>
+      <c r="C4" s="55">
+        <f>SUM(D9:D17)</f>
+        <v>14175</v>
       </c>
       <c r="D4" s="3"/>
       <c r="F4" s="17" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G4" s="19">
         <v>0</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="48">
         <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="38">
-        <v>4414.87</v>
+        <v>36</v>
+      </c>
+      <c r="C5" s="55">
+        <f>C2-(C3+C4)</f>
+        <v>5623.2299999999959</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
+      <c r="B6"/>
+      <c r="C6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="47" t="s">
+      <c r="B7" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="F7" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>41</v>
+      <c r="G7" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="19">
-        <v>1235</v>
-      </c>
-      <c r="D8" s="49">
-        <v>1235</v>
+      <c r="B8" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="49">
-        <v>49220</v>
+        <v>49189.83</v>
+      </c>
+      <c r="H8" s="48">
+        <v>49189.83</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="17" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C9" s="19">
-        <v>0</v>
-      </c>
-      <c r="D9" s="49">
-        <v>900</v>
+        <v>1235</v>
+      </c>
+      <c r="D9" s="48">
+        <v>1235</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" s="19">
         <v>7304.2</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="48">
         <v>7304.2</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="19">
-        <v>1800</v>
-      </c>
-      <c r="D10" s="49">
-        <v>1800</v>
+        <v>0</v>
+      </c>
+      <c r="D10" s="48">
+        <v>900</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="19">
         <v>7304.2</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="48">
         <v>7304.2</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="41">
-        <v>0</v>
-      </c>
-      <c r="D11" s="49">
-        <v>200</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="41">
+      <c r="B11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1800</v>
+      </c>
+      <c r="D11" s="48">
+        <v>1800</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="40">
         <v>3500</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="48">
         <v>3500</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="19">
-        <v>1800</v>
-      </c>
-      <c r="D12" s="49">
-        <v>2400</v>
+      <c r="B12" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="40">
+        <v>0</v>
+      </c>
+      <c r="D12" s="48">
+        <v>190</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G12" s="19">
         <v>2500</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="48">
         <v>2500</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="40">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="19">
+        <v>2400</v>
+      </c>
+      <c r="D14" s="48">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0</v>
+      </c>
+      <c r="D15" s="48">
+        <v>500</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="56"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0</v>
+      </c>
+      <c r="D16" s="48">
+        <v>3000</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="19">
-        <v>8978.59</v>
-      </c>
-      <c r="D13" s="49">
-        <v>8878.5300000000007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="44" t="s">
+      <c r="C17" s="19">
+        <v>3150</v>
+      </c>
+      <c r="D17" s="48">
+        <v>3150</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="44">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="F18" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="44">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="F19" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="44">
+        <v>140</v>
+      </c>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36" t="s">
+      <c r="F20" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="44">
+        <v>907.07</v>
+      </c>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C21" s="44">
         <v>205</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="45">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="36" t="s">
+      <c r="F21" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="44">
+        <v>300</v>
+      </c>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C22" s="44">
         <v>50</v>
       </c>
-      <c r="H18" s="31"/>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="45">
-        <v>907.07</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="36" t="s">
+      <c r="F22" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="45">
+        <v>690</v>
+      </c>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C23" s="44">
         <v>237.29</v>
       </c>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="45">
-        <v>300</v>
-      </c>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="45">
-        <v>1090</v>
-      </c>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="36" t="s">
+      <c r="F23" s="36"/>
+      <c r="G23" s="45"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="44">
+        <v>250</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="45"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="46">
-        <v>1524.29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="46">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="36" t="s">
+      <c r="C25" s="45">
+        <v>524.29</v>
+      </c>
+      <c r="F25" s="36"/>
+      <c r="G25" s="45"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="45">
+        <v>25</v>
+      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="45"/>
+      <c r="J26" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="31">
+        <f>C2</f>
+        <v>69798.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="44">
+        <v>20</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="45"/>
+      <c r="J27" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="31">
+        <f>SUM(G8:G12)</f>
+        <v>69798.23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="44">
+        <v>10</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="45"/>
+      <c r="J28" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="31">
+        <f>H4</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="46">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="36" t="s">
+      <c r="C29" s="44">
+        <v>20</v>
+      </c>
+      <c r="F29" s="36"/>
+      <c r="G29" s="45"/>
+      <c r="J29" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="31">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C30" s="44">
+        <v>0.68</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="45"/>
+      <c r="J30" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="31">
+        <f>C4+C5</f>
+        <v>19798.229999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="44">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F31" s="36"/>
+      <c r="G31" s="45"/>
+      <c r="J31" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="31">
+        <f>SUM(C9:C17)+SUM(C21:C120)</f>
+        <v>17145.78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="44">
+        <v>65</v>
+      </c>
+      <c r="F32" s="36"/>
+      <c r="G32" s="45"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="44">
+        <v>10</v>
+      </c>
+      <c r="F33" s="36"/>
+      <c r="G33" s="45"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="44">
+        <v>295</v>
+      </c>
+      <c r="F34" s="36"/>
+      <c r="G34" s="44"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="44">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="45">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="45">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="45">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="36"/>
-      <c r="C31" s="45"/>
-    </row>
-    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="36"/>
-      <c r="C32" s="45"/>
-    </row>
-    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="36"/>
-      <c r="C33" s="45"/>
-    </row>
-    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="36"/>
-      <c r="C34" s="45"/>
-    </row>
-    <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="36"/>
-      <c r="C35" s="45"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="45"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="36"/>
-      <c r="C36" s="45"/>
+      <c r="B36" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="44">
+        <v>5828.59</v>
+      </c>
+      <c r="F36" s="36"/>
+      <c r="G36" s="45"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="36"/>
-      <c r="C37" s="45"/>
+      <c r="C37" s="44"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="45"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="36"/>
-      <c r="C38" s="45"/>
+      <c r="C38" s="44"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="44"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="36"/>
-      <c r="C39" s="45"/>
+      <c r="C39" s="44"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="44"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="36"/>
-      <c r="C40" s="45"/>
+      <c r="C40" s="44"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="44"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="36"/>
-      <c r="C41" s="45"/>
+      <c r="C41" s="44"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="44"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="36"/>
-      <c r="C42" s="45"/>
+      <c r="C42" s="44"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="44"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="36"/>
-      <c r="C43" s="45"/>
-      <c r="F43" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="31">
-        <f>C2</f>
-        <v>69828.399999999994</v>
+      <c r="C43" s="44"/>
+      <c r="F43" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="44">
+        <f>SUM(G17:G42)</f>
+        <v>2864.07</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="36"/>
-      <c r="C44" s="45"/>
-      <c r="F44" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="31">
-        <f>SUM(G8:G12)</f>
-        <v>20608.400000000001</v>
-      </c>
+      <c r="C44" s="44"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="36"/>
-      <c r="C45" s="45"/>
-      <c r="F45" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="31">
-        <f>H4</f>
-        <v>50000</v>
-      </c>
+      <c r="C45" s="44"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="36"/>
-      <c r="C46" s="45"/>
-      <c r="F46" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="31">
-        <f>G4</f>
-        <v>0</v>
-      </c>
+      <c r="C46" s="44"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="36"/>
-      <c r="C47" s="45"/>
-      <c r="F47" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" s="31">
-        <f>C4</f>
-        <v>15413.53</v>
-      </c>
+      <c r="C47" s="44"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="36"/>
-      <c r="C48" s="45"/>
-      <c r="F48" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G48" s="31">
-        <f>SUM(C8:C13)</f>
-        <v>13813.59</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="44"/>
+    </row>
+    <row r="49" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="36"/>
-      <c r="C49" s="45"/>
-      <c r="F49" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" s="31">
-        <f>C5</f>
-        <v>4414.87</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="44"/>
+    </row>
+    <row r="50" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="36"/>
-      <c r="C50" s="45"/>
-      <c r="F50" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" s="31">
-        <f>SUM(C16:C120)</f>
-        <v>5219.26</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="44"/>
+    </row>
+    <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="36"/>
-      <c r="C51" s="45"/>
-    </row>
-    <row r="52" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="44"/>
+    </row>
+    <row r="52" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="36"/>
-      <c r="C52" s="45"/>
-    </row>
-    <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="44"/>
+    </row>
+    <row r="53" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="36"/>
-      <c r="C53" s="45"/>
+      <c r="C53" s="44"/>
+    </row>
+    <row r="54" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="36"/>
+      <c r="C54" s="44"/>
+    </row>
+    <row r="55" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="36"/>
+      <c r="C55" s="44"/>
+    </row>
+    <row r="56" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="36"/>
+      <c r="C56" s="44"/>
+    </row>
+    <row r="57" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="36"/>
+      <c r="C57" s="44"/>
+    </row>
+    <row r="58" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="36"/>
+      <c r="C58" s="44"/>
+    </row>
+    <row r="59" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="36"/>
+      <c r="C59" s="44"/>
+    </row>
+    <row r="60" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="36"/>
+      <c r="C60" s="44"/>
+    </row>
+    <row r="61" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="36"/>
+      <c r="C61" s="44"/>
+    </row>
+    <row r="62" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="36"/>
+      <c r="C62" s="44"/>
+    </row>
+    <row r="63" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="36"/>
+      <c r="C63" s="44"/>
+    </row>
+    <row r="64" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="36"/>
+      <c r="C64" s="44"/>
+    </row>
+    <row r="65" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="36"/>
+      <c r="C65" s="44"/>
+    </row>
+    <row r="66" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="36"/>
+      <c r="C66" s="44"/>
+    </row>
+    <row r="67" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="36"/>
+      <c r="C67" s="44"/>
+    </row>
+    <row r="68" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="36"/>
+      <c r="C68" s="44"/>
+    </row>
+    <row r="69" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="36"/>
+      <c r="C69" s="44"/>
+    </row>
+    <row r="70" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="36"/>
+      <c r="C70" s="44"/>
+    </row>
+    <row r="71" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="36"/>
+      <c r="C71" s="44"/>
+    </row>
+    <row r="72" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="36"/>
+      <c r="C72" s="44"/>
+    </row>
+    <row r="73" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="36"/>
+      <c r="C73" s="44"/>
+    </row>
+    <row r="74" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="36"/>
+      <c r="C74" s="44"/>
+    </row>
+    <row r="75" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="36"/>
+      <c r="C75" s="44"/>
+    </row>
+    <row r="76" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="36"/>
+      <c r="C76" s="44"/>
+    </row>
+    <row r="77" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="36"/>
+      <c r="C77" s="44"/>
+    </row>
+    <row r="78" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="36"/>
+      <c r="C78" s="44"/>
+    </row>
+    <row r="79" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="36"/>
+      <c r="C79" s="44"/>
+    </row>
+    <row r="80" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="36"/>
+      <c r="C80" s="44"/>
+    </row>
+    <row r="81" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="36"/>
+      <c r="C81" s="44"/>
+    </row>
+    <row r="82" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="36"/>
+      <c r="C82" s="44"/>
+    </row>
+    <row r="83" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="36"/>
+      <c r="C83" s="44"/>
+    </row>
+    <row r="84" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="36"/>
+      <c r="C84" s="44"/>
+    </row>
+    <row r="85" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="36"/>
+      <c r="C85" s="44"/>
+    </row>
+    <row r="86" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="36"/>
+      <c r="C86" s="44"/>
+    </row>
+    <row r="87" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="36"/>
+      <c r="C87" s="44"/>
+    </row>
+    <row r="88" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="36"/>
+      <c r="C88" s="44"/>
+    </row>
+    <row r="89" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="36"/>
+      <c r="C89" s="44"/>
+    </row>
+    <row r="90" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="36"/>
+      <c r="C90" s="44"/>
+    </row>
+    <row r="91" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="36"/>
+      <c r="C91" s="44"/>
+    </row>
+    <row r="92" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="36"/>
+      <c r="C92" s="44"/>
+    </row>
+    <row r="93" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="36"/>
+      <c r="C93" s="44"/>
+    </row>
+    <row r="94" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="36"/>
+      <c r="C94" s="44"/>
+    </row>
+    <row r="95" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="36"/>
+      <c r="C95" s="44"/>
+    </row>
+    <row r="96" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="36"/>
+      <c r="C96" s="44"/>
+    </row>
+    <row r="97" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="36"/>
+      <c r="C97" s="44"/>
+    </row>
+    <row r="98" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="36"/>
+      <c r="C98" s="44"/>
+    </row>
+    <row r="99" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="36"/>
+      <c r="C99" s="44"/>
+    </row>
+    <row r="100" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="36"/>
+      <c r="C100" s="44"/>
+    </row>
+    <row r="101" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="36"/>
+      <c r="C101" s="44"/>
+    </row>
+    <row r="102" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="36"/>
+      <c r="C102" s="44"/>
+    </row>
+    <row r="103" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="36"/>
+      <c r="C103" s="44"/>
+    </row>
+    <row r="104" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="36"/>
+      <c r="C104" s="44"/>
+    </row>
+    <row r="105" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="36"/>
+      <c r="C105" s="44"/>
+    </row>
+    <row r="106" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="36"/>
+      <c r="C106" s="44"/>
+    </row>
+    <row r="107" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="36"/>
+      <c r="C107" s="44"/>
+    </row>
+    <row r="108" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="36"/>
+      <c r="C108" s="44"/>
+    </row>
+    <row r="109" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="36"/>
+      <c r="C109" s="44"/>
+    </row>
+    <row r="110" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="36"/>
+      <c r="C110" s="44"/>
+    </row>
+    <row r="111" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="36"/>
+      <c r="C111" s="44"/>
+    </row>
+    <row r="112" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="36"/>
+      <c r="C112" s="44"/>
+    </row>
+    <row r="113" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="36"/>
+      <c r="C113" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F2"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2210,7 +2618,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Inventario Enero" sheetId="2" r:id="rId1"/>
+    <sheet name="Inventario" sheetId="2" r:id="rId1"/>
     <sheet name="Enero" sheetId="5" r:id="rId2"/>
     <sheet name="Diciembre año pasado" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
   <si>
     <t>Ingresos</t>
   </si>
@@ -45,12 +45,6 @@
     <t>PROGRESO</t>
   </si>
   <si>
-    <t>CAJA ADELSON</t>
-  </si>
-  <si>
-    <t>CAJA ROSALIS</t>
-  </si>
-  <si>
     <t>Colegio</t>
   </si>
   <si>
@@ -217,6 +211,42 @@
   </si>
   <si>
     <t>Gas casa</t>
+  </si>
+  <si>
+    <t>enero</t>
+  </si>
+  <si>
+    <t>CARTERA ADELSON</t>
+  </si>
+  <si>
+    <t>CARTERA ROSALIS</t>
+  </si>
+  <si>
+    <t>huevo</t>
+  </si>
+  <si>
+    <t>pasaje rosalis</t>
+  </si>
+  <si>
+    <t>rabito y mandarina</t>
+  </si>
+  <si>
+    <t>desayuno rosalis</t>
+  </si>
+  <si>
+    <t>verdura y otros</t>
+  </si>
+  <si>
+    <t>peso adel</t>
+  </si>
+  <si>
+    <t>BHD Adel cobertura membresia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popular cargo </t>
+  </si>
+  <si>
+    <t>progreso impuesto</t>
   </si>
 </sst>
 </file>
@@ -228,7 +258,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,8 +327,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,12 +358,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,8 +397,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -375,21 +419,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -519,17 +548,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -546,7 +564,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -555,90 +573,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -648,102 +603,83 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="2" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -753,12 +689,19 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF95C8DF"/>
+      <color rgb="FF68E945"/>
       <color rgb="FFFF4B4B"/>
-      <color rgb="FF68E945"/>
       <color rgb="FFBBEBC3"/>
     </mruColors>
   </colors>
@@ -912,7 +855,7 @@
                   <c:v>19798.229999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17145.78</c:v>
+                  <c:v>17497.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -927,11 +870,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159744768"/>
-        <c:axId val="159746304"/>
+        <c:axId val="124845056"/>
+        <c:axId val="124851712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159744768"/>
+        <c:axId val="124845056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -940,7 +883,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159746304"/>
+        <c:crossAx val="124851712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -948,7 +891,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159746304"/>
+        <c:axId val="124851712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +902,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159744768"/>
+        <c:crossAx val="124845056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1123,11 +1066,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="167189888"/>
-        <c:axId val="191449728"/>
+        <c:axId val="158773632"/>
+        <c:axId val="158775936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="167189888"/>
+        <c:axId val="158773632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,7 +1079,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191449728"/>
+        <c:crossAx val="158775936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1144,7 +1087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191449728"/>
+        <c:axId val="158775936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1098,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167189888"/>
+        <c:crossAx val="158773632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1177,15 +1120,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>266701</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1529,196 +1472,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L18"/>
+  <dimension ref="A3:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="54" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24">
+      <c r="C4" s="45">
         <v>1</v>
       </c>
-      <c r="E4" s="24">
+      <c r="D4" s="45">
         <v>2</v>
       </c>
-      <c r="F4" s="24">
+      <c r="E4" s="45">
         <v>3</v>
       </c>
-      <c r="G4" s="24">
+      <c r="F4" s="45">
         <v>4</v>
       </c>
+      <c r="G4" s="44"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28">
-        <v>302456.55</v>
-      </c>
-      <c r="D5" s="28">
+      <c r="C5" s="46">
         <v>549.48</v>
       </c>
-      <c r="E5" s="27">
-        <v>804912</v>
-      </c>
-      <c r="F5" s="28">
+      <c r="D5" s="46">
+        <v>8049.48</v>
+      </c>
+      <c r="E5" s="46">
         <v>9310.41</v>
       </c>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="F5" s="46">
+        <v>49355.41</v>
+      </c>
+      <c r="G5" s="44"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="30">
-        <v>69.77</v>
-      </c>
-      <c r="D6" s="30">
+      <c r="C6" s="47">
         <v>-3.73</v>
       </c>
-      <c r="E6" s="29">
+      <c r="D6" s="47">
         <v>-3.73</v>
       </c>
-      <c r="F6" s="30">
+      <c r="E6" s="47">
         <v>-3.12</v>
       </c>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="F6" s="47">
+        <v>13.06</v>
+      </c>
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="30">
-        <v>6080.14</v>
-      </c>
-      <c r="D7" s="30">
+      <c r="C7" s="47">
         <v>5210.1400000000003</v>
       </c>
-      <c r="E7" s="29">
+      <c r="D7" s="47">
         <v>2506.66</v>
       </c>
-      <c r="F7" s="30">
+      <c r="E7" s="47">
         <v>2521.6799999999998</v>
       </c>
-      <c r="G7" s="30"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="F7" s="47">
+        <v>9755.32</v>
+      </c>
+      <c r="G7" s="44"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="30">
-        <v>3666.33</v>
-      </c>
-      <c r="D8" s="30">
+      <c r="C8" s="47">
         <v>26.33</v>
       </c>
-      <c r="E8" s="29">
+      <c r="D8" s="47">
         <v>26.33</v>
       </c>
-      <c r="F8" s="30">
+      <c r="E8" s="47">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="29">
+      <c r="F8" s="47">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="47">
+        <v>800</v>
+      </c>
+      <c r="D9" s="47">
+        <v>100</v>
+      </c>
+      <c r="E9" s="47">
+        <v>900</v>
+      </c>
+      <c r="F9" s="47">
         <v>550</v>
       </c>
-      <c r="D9" s="30">
-        <v>800</v>
-      </c>
-      <c r="E9" s="29">
-        <v>100</v>
-      </c>
-      <c r="F9" s="30">
-        <v>900</v>
-      </c>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="25">
-        <v>4928</v>
-      </c>
-      <c r="D10" s="26">
+      <c r="G9" s="44"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="44"/>
+      <c r="B10" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="48">
         <v>3060</v>
       </c>
-      <c r="E10" s="25">
+      <c r="D10" s="48">
         <v>3003</v>
       </c>
-      <c r="F10" s="26">
+      <c r="E10" s="48">
         <v>297</v>
       </c>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="4"/>
+      <c r="F10" s="48">
+        <v>230</v>
+      </c>
+      <c r="G10" s="44"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="C3:G3"/>
+  <mergeCells count="1">
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
+  <conditionalFormatting sqref="C5:E10">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1728,882 +1670,991 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="11" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="21">
         <f>SUM(H8:H12)</f>
         <v>69798.23</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="23">
         <f>H4</f>
         <v>50000</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>39</v>
+      <c r="G3" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="49">
+      <c r="A4" s="5"/>
+      <c r="B4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="37">
         <f>SUM(D9:D17)</f>
         <v>14175</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="F4" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="F4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="18">
         <v>0</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="36">
         <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="49">
+      <c r="A5" s="5"/>
+      <c r="B5" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="37">
         <f>C2-(C3+C4)</f>
         <v>5623.2299999999959</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="5"/>
       <c r="B6"/>
       <c r="C6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="F7" s="46" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="F7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="G8" s="18">
+        <v>49189.83</v>
+      </c>
+      <c r="H8" s="36">
+        <v>49189.83</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1235</v>
+      </c>
+      <c r="D9" s="36">
+        <v>1235</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="G9" s="18">
+        <v>7304.2</v>
+      </c>
+      <c r="H9" s="36">
+        <v>7304.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="36">
+        <v>900</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="19">
-        <v>49189.83</v>
-      </c>
-      <c r="H8" s="48">
-        <v>49189.83</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="17" t="s">
+      <c r="G10" s="18">
+        <v>7304.2</v>
+      </c>
+      <c r="H10" s="36">
+        <v>7304.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1800</v>
+      </c>
+      <c r="D11" s="36">
+        <v>1800</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="28">
+        <v>3500</v>
+      </c>
+      <c r="H11" s="36">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="36">
+        <v>190</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="18">
+        <v>2500</v>
+      </c>
+      <c r="H12" s="36">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="28">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="18">
+        <v>2400</v>
+      </c>
+      <c r="D14" s="36">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0</v>
+      </c>
+      <c r="D15" s="36">
+        <v>500</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="41">
+        <f>SUM(G17:G200)</f>
+        <v>2864.07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0</v>
+      </c>
+      <c r="D16" s="36">
+        <v>3000</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="19">
-        <v>1235</v>
-      </c>
-      <c r="D9" s="48">
-        <v>1235</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="19">
-        <v>7304.2</v>
-      </c>
-      <c r="H9" s="48">
-        <v>7304.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="18">
+        <v>3150</v>
+      </c>
+      <c r="D17" s="36">
+        <v>3150</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="32">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="F18" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="41">
+        <f>SUM(C21:C200)</f>
+        <v>7912.130000000001</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="32">
+        <v>140</v>
+      </c>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="32">
+        <v>907.07</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="32">
+        <v>205</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="32">
+        <v>300</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="32">
+        <v>50</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="33">
+        <v>690</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="32">
+        <v>237.29</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="32">
+        <v>250</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="33">
+        <v>524.29</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="33"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="33">
+        <v>25</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="33"/>
+      <c r="J26" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="48">
-        <v>900</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="19">
-        <v>7304.2</v>
-      </c>
-      <c r="H10" s="48">
-        <v>7304.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="19">
-        <v>1800</v>
-      </c>
-      <c r="D11" s="48">
-        <v>1800</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="40">
-        <v>3500</v>
-      </c>
-      <c r="H11" s="48">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="40">
-        <v>0</v>
-      </c>
-      <c r="D12" s="48">
-        <v>190</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="19">
-        <v>2500</v>
-      </c>
-      <c r="H12" s="48">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="40">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="48">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="19">
-        <v>2400</v>
-      </c>
-      <c r="D14" s="48">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="19">
-        <v>0</v>
-      </c>
-      <c r="D15" s="48">
-        <v>500</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="60"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="19">
-        <v>0</v>
-      </c>
-      <c r="D16" s="48">
-        <v>3000</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="19">
-        <v>3150</v>
-      </c>
-      <c r="D17" s="48">
-        <v>3150</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="44">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
-      <c r="F18" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="44">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="60"/>
-      <c r="F19" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="44">
-        <v>140</v>
-      </c>
-      <c r="H19" s="31"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="44">
-        <v>907.07</v>
-      </c>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="44">
-        <v>205</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="44">
-        <v>300</v>
-      </c>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="44">
-        <v>50</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="45">
-        <v>690</v>
-      </c>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="44">
-        <v>237.29</v>
-      </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="45"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="44">
-        <v>250</v>
-      </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="45"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="45">
-        <v>524.29</v>
-      </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="45"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="45">
-        <v>25</v>
-      </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="45"/>
-      <c r="J26" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="K26" s="31">
+      <c r="K26" s="19">
         <f>C2</f>
         <v>69798.23</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="44">
+      <c r="B27" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="32">
         <v>20</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="45"/>
-      <c r="J27" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="31">
+      <c r="F27" s="24"/>
+      <c r="G27" s="33"/>
+      <c r="J27" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="19">
         <f>SUM(G8:G12)</f>
         <v>69798.23</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="44">
+      <c r="B28" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="32">
         <v>10</v>
       </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="45"/>
-      <c r="J28" s="42" t="s">
+      <c r="F28" s="24"/>
+      <c r="G28" s="33"/>
+      <c r="J28" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K28" s="31">
+      <c r="K28" s="19">
         <f>H4</f>
         <v>50000</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="44">
+      <c r="B29" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="32">
         <v>20</v>
       </c>
-      <c r="F29" s="36"/>
-      <c r="G29" s="45"/>
-      <c r="J29" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="31">
+      <c r="F29" s="24"/>
+      <c r="G29" s="33"/>
+      <c r="J29" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="19">
         <f>G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="44">
+      <c r="B30" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="32">
         <v>0.68</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="45"/>
-      <c r="J30" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30" s="31">
+      <c r="F30" s="24"/>
+      <c r="G30" s="33"/>
+      <c r="J30" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30" s="19">
         <f>C4+C5</f>
         <v>19798.229999999996</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="32">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="33"/>
+      <c r="J31" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="19">
+        <f>SUM(C9:C17)+SUM(C21:C120)</f>
+        <v>17497.13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="32">
+        <v>65</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="32">
+        <v>10</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="33"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="32">
+        <v>295</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="32"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="32">
+        <v>20</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="33"/>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="32">
+        <v>5828.59</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="33"/>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="32">
         <v>50</v>
       </c>
-      <c r="C31" s="44">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="45"/>
-      <c r="J31" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31" s="31">
-        <f>SUM(C9:C17)+SUM(C21:C120)</f>
-        <v>17145.78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="44">
-        <v>65</v>
-      </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="45"/>
-    </row>
-    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="44">
+      <c r="F37" s="24"/>
+      <c r="G37" s="33"/>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="32">
+        <v>75</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="32"/>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="32">
+        <v>30</v>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="G39" s="32"/>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="32">
+        <v>30</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="32"/>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="32">
+        <v>125</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="32"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="32">
         <v>10</v>
       </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="45"/>
-    </row>
-    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="36" t="s">
+      <c r="F42" s="24"/>
+      <c r="G42" s="32"/>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="32">
+        <v>50</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="33"/>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="32">
         <v>55</v>
       </c>
-      <c r="C34" s="44">
-        <v>295</v>
-      </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="44"/>
-    </row>
-    <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="44">
-        <v>20</v>
-      </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="45"/>
-    </row>
-    <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="44">
-        <v>5828.59</v>
-      </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="45"/>
-    </row>
-    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="36"/>
-      <c r="C37" s="44"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="45"/>
-    </row>
-    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="36"/>
-      <c r="C38" s="44"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="44"/>
-    </row>
-    <row r="39" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="36"/>
-      <c r="C39" s="44"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="44"/>
-    </row>
-    <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="36"/>
-      <c r="C40" s="44"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="44"/>
-    </row>
-    <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="36"/>
-      <c r="C41" s="44"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="44"/>
-    </row>
-    <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="36"/>
-      <c r="C42" s="44"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="44"/>
-    </row>
-    <row r="43" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="36"/>
-      <c r="C43" s="44"/>
-      <c r="F43" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="44">
-        <f>SUM(G17:G42)</f>
-        <v>2864.07</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="36"/>
-      <c r="C44" s="44"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="33"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="36"/>
-      <c r="C45" s="44"/>
+      <c r="B45" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="32">
+        <v>-73.650000000000006</v>
+      </c>
+      <c r="F45" s="24"/>
+      <c r="G45" s="33"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="36"/>
-      <c r="C46" s="44"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="32"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="33"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="36"/>
-      <c r="C47" s="44"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="32"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="33"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="36"/>
-      <c r="C48" s="44"/>
-    </row>
-    <row r="49" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="36"/>
-      <c r="C49" s="44"/>
-    </row>
-    <row r="50" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="36"/>
-      <c r="C50" s="44"/>
-    </row>
-    <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="36"/>
-      <c r="C51" s="44"/>
-    </row>
-    <row r="52" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="36"/>
-      <c r="C52" s="44"/>
-    </row>
-    <row r="53" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="36"/>
-      <c r="C53" s="44"/>
-    </row>
-    <row r="54" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="36"/>
-      <c r="C54" s="44"/>
-    </row>
-    <row r="55" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="36"/>
-      <c r="C55" s="44"/>
-    </row>
-    <row r="56" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="36"/>
-      <c r="C56" s="44"/>
-    </row>
-    <row r="57" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="36"/>
-      <c r="C57" s="44"/>
-    </row>
-    <row r="58" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="36"/>
-      <c r="C58" s="44"/>
-    </row>
-    <row r="59" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="36"/>
-      <c r="C59" s="44"/>
-    </row>
-    <row r="60" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="36"/>
-      <c r="C60" s="44"/>
-    </row>
-    <row r="61" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="36"/>
-      <c r="C61" s="44"/>
-    </row>
-    <row r="62" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="36"/>
-      <c r="C62" s="44"/>
-    </row>
-    <row r="63" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="36"/>
-      <c r="C63" s="44"/>
-    </row>
-    <row r="64" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="36"/>
-      <c r="C64" s="44"/>
-    </row>
-    <row r="65" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="36"/>
-      <c r="C65" s="44"/>
-    </row>
-    <row r="66" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="36"/>
-      <c r="C66" s="44"/>
-    </row>
-    <row r="67" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="36"/>
-      <c r="C67" s="44"/>
-    </row>
-    <row r="68" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="36"/>
-      <c r="C68" s="44"/>
-    </row>
-    <row r="69" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="36"/>
-      <c r="C69" s="44"/>
-    </row>
-    <row r="70" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="36"/>
-      <c r="C70" s="44"/>
-    </row>
-    <row r="71" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="36"/>
-      <c r="C71" s="44"/>
-    </row>
-    <row r="72" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="36"/>
-      <c r="C72" s="44"/>
-    </row>
-    <row r="73" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="36"/>
-      <c r="C73" s="44"/>
-    </row>
-    <row r="74" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="36"/>
-      <c r="C74" s="44"/>
-    </row>
-    <row r="75" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="36"/>
-      <c r="C75" s="44"/>
-    </row>
-    <row r="76" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="36"/>
-      <c r="C76" s="44"/>
-    </row>
-    <row r="77" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="36"/>
-      <c r="C77" s="44"/>
-    </row>
-    <row r="78" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="36"/>
-      <c r="C78" s="44"/>
-    </row>
-    <row r="79" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="36"/>
-      <c r="C79" s="44"/>
-    </row>
-    <row r="80" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="36"/>
-      <c r="C80" s="44"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="32"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="33"/>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="24"/>
+      <c r="C49" s="32"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="33"/>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="24"/>
+      <c r="C50" s="32"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="33"/>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="24"/>
+      <c r="C51" s="32"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="33"/>
+    </row>
+    <row r="52" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="24"/>
+      <c r="C52" s="32"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="33"/>
+    </row>
+    <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="24"/>
+      <c r="C53" s="32"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="32"/>
+    </row>
+    <row r="54" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="24"/>
+      <c r="C54" s="32"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="33"/>
+    </row>
+    <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="24"/>
+      <c r="C55" s="32"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="33"/>
+    </row>
+    <row r="56" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="24"/>
+      <c r="C56" s="32"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="33"/>
+    </row>
+    <row r="57" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="24"/>
+      <c r="C57" s="32"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="32"/>
+    </row>
+    <row r="58" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="24"/>
+      <c r="C58" s="32"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="32"/>
+    </row>
+    <row r="59" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="24"/>
+      <c r="C59" s="32"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="32"/>
+    </row>
+    <row r="60" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="24"/>
+      <c r="C60" s="32"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="32"/>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="24"/>
+      <c r="C61" s="32"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="32"/>
+    </row>
+    <row r="62" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="24"/>
+      <c r="C62" s="32"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="33"/>
+    </row>
+    <row r="63" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="24"/>
+      <c r="C63" s="32"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="33"/>
+    </row>
+    <row r="64" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="24"/>
+      <c r="C64" s="32"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="33"/>
+    </row>
+    <row r="65" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="24"/>
+      <c r="C65" s="32"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="33"/>
+    </row>
+    <row r="66" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="24"/>
+      <c r="C66" s="32"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="33"/>
+    </row>
+    <row r="67" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="24"/>
+      <c r="C67" s="32"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="33"/>
+    </row>
+    <row r="68" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="24"/>
+      <c r="C68" s="32"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="33"/>
+    </row>
+    <row r="69" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="24"/>
+      <c r="C69" s="32"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="33"/>
+    </row>
+    <row r="70" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="24"/>
+      <c r="C70" s="32"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="33"/>
+    </row>
+    <row r="71" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="24"/>
+      <c r="C71" s="32"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="33"/>
+    </row>
+    <row r="72" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="24"/>
+      <c r="C72" s="32"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="32"/>
+    </row>
+    <row r="73" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="24"/>
+      <c r="C73" s="32"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="33"/>
+    </row>
+    <row r="74" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="24"/>
+      <c r="C74" s="32"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="33"/>
+    </row>
+    <row r="75" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="24"/>
+      <c r="C75" s="32"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="33"/>
+    </row>
+    <row r="76" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="24"/>
+      <c r="C76" s="32"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="32"/>
+    </row>
+    <row r="77" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="24"/>
+      <c r="C77" s="32"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="32"/>
+    </row>
+    <row r="78" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="24"/>
+      <c r="C78" s="32"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="32"/>
+    </row>
+    <row r="79" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="24"/>
+      <c r="C79" s="32"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="32"/>
+    </row>
+    <row r="80" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="24"/>
+      <c r="C80" s="32"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="32"/>
     </row>
     <row r="81" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="36"/>
-      <c r="C81" s="44"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="32"/>
     </row>
     <row r="82" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="36"/>
-      <c r="C82" s="44"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="32"/>
     </row>
     <row r="83" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="36"/>
-      <c r="C83" s="44"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="32"/>
     </row>
     <row r="84" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="36"/>
-      <c r="C84" s="44"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="32"/>
     </row>
     <row r="85" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="36"/>
-      <c r="C85" s="44"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="32"/>
     </row>
     <row r="86" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="36"/>
-      <c r="C86" s="44"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="32"/>
     </row>
     <row r="87" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="36"/>
-      <c r="C87" s="44"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="32"/>
     </row>
     <row r="88" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="36"/>
-      <c r="C88" s="44"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="32"/>
     </row>
     <row r="89" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="36"/>
-      <c r="C89" s="44"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="32"/>
     </row>
     <row r="90" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="36"/>
-      <c r="C90" s="44"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="32"/>
     </row>
     <row r="91" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="36"/>
-      <c r="C91" s="44"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="32"/>
     </row>
     <row r="92" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="36"/>
-      <c r="C92" s="44"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="32"/>
     </row>
     <row r="93" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="36"/>
-      <c r="C93" s="44"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="32"/>
     </row>
     <row r="94" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="36"/>
-      <c r="C94" s="44"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="32"/>
     </row>
     <row r="95" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="36"/>
-      <c r="C95" s="44"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="32"/>
     </row>
     <row r="96" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="36"/>
-      <c r="C96" s="44"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="32"/>
     </row>
     <row r="97" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="36"/>
-      <c r="C97" s="44"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="32"/>
     </row>
     <row r="98" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="36"/>
-      <c r="C98" s="44"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="32"/>
     </row>
     <row r="99" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="36"/>
-      <c r="C99" s="44"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="32"/>
     </row>
     <row r="100" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="36"/>
-      <c r="C100" s="44"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="32"/>
     </row>
     <row r="101" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="36"/>
-      <c r="C101" s="44"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="32"/>
     </row>
     <row r="102" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="36"/>
-      <c r="C102" s="44"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="32"/>
     </row>
     <row r="103" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="36"/>
-      <c r="C103" s="44"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="32"/>
     </row>
     <row r="104" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="36"/>
-      <c r="C104" s="44"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="32"/>
     </row>
     <row r="105" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="36"/>
-      <c r="C105" s="44"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="32"/>
     </row>
     <row r="106" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="36"/>
-      <c r="C106" s="44"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="32"/>
     </row>
     <row r="107" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="36"/>
-      <c r="C107" s="44"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="32"/>
     </row>
     <row r="108" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="36"/>
-      <c r="C108" s="44"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="32"/>
     </row>
     <row r="109" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="36"/>
-      <c r="C109" s="44"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="32"/>
     </row>
     <row r="110" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="36"/>
-      <c r="C110" s="44"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="32"/>
     </row>
     <row r="111" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="36"/>
-      <c r="C111" s="44"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="32"/>
     </row>
     <row r="112" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="36"/>
-      <c r="C112" s="44"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="32"/>
     </row>
     <row r="113" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="36"/>
-      <c r="C113" s="44"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F2"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2624,16 +2675,16 @@
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="A2" s="4"/>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="12">
         <v>1365.86</v>
       </c>
       <c r="D2" s="1"/>
@@ -2645,11 +2696,11 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="A3" s="5"/>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13">
         <v>1900</v>
       </c>
       <c r="D3" s="1"/>
@@ -2660,11 +2711,11 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="A4" s="5"/>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13">
         <v>1845</v>
       </c>
       <c r="D4" s="3"/>
@@ -2674,38 +2725,38 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="14">
         <v>1152.33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13">
         <v>1895</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="A7" s="5"/>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="13">
         <v>3700</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="13">
         <v>5146</v>
       </c>
       <c r="D8" s="1"/>
@@ -2717,47 +2768,47 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="13">
+        <v>4470</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="14">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="14">
-        <v>4470</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>1173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="16">
+      <c r="A12" s="6"/>
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="15">
         <v>11083.13</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="B13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="17">
         <f>SUM(C2:C12)</f>
         <v>34955.32</v>
       </c>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="2" r:id="rId1"/>
     <sheet name="Enero" sheetId="5" r:id="rId2"/>
     <sheet name="Diciembre año pasado" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -252,7 +252,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -709,14 +709,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-DO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -747,6 +750,11 @@
                 <a:srgbClr val="68E945"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3FA8-4974-82FB-960EC423E8D0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -760,6 +768,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3FA8-4974-82FB-960EC423E8D0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -770,6 +783,11 @@
                 <a:srgbClr val="68E945"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3FA8-4974-82FB-960EC423E8D0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -783,6 +801,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3FA8-4974-82FB-960EC423E8D0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -793,6 +816,11 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3FA8-4974-82FB-960EC423E8D0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -806,6 +834,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3FA8-4974-82FB-960EC423E8D0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -849,7 +882,7 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>19798.229999999996</c:v>
@@ -860,6 +893,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-3FA8-4974-82FB-960EC423E8D0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -880,6 +918,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -920,9 +959,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-DO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -963,6 +1002,13 @@
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -971,6 +1017,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1055,6 +1106,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC0B-40CC-97AB-203C2039427D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1076,6 +1132,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1228,7 +1285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1263,7 +1320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1474,7 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1670,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,7 +1802,7 @@
         <v>49</v>
       </c>
       <c r="G4" s="18">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H4" s="36">
         <v>50000</v>
@@ -2132,7 +2189,7 @@
       </c>
       <c r="K29" s="19">
         <f>G4</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="Enero" sheetId="5" r:id="rId2"/>
     <sheet name="Diciembre año pasado" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>Ingresos</t>
   </si>
@@ -247,12 +247,18 @@
   </si>
   <si>
     <t>progreso impuesto</t>
+  </si>
+  <si>
+    <t>cena</t>
+  </si>
+  <si>
+    <t>rosmarln</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -717,9 +723,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-DO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -750,7 +756,7 @@
                 <a:srgbClr val="68E945"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -768,7 +774,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -783,7 +789,7 @@
                 <a:srgbClr val="68E945"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -801,7 +807,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -816,7 +822,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -834,7 +840,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -888,12 +894,12 @@
                   <c:v>19798.229999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17497.13</c:v>
+                  <c:v>17567.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-3FA8-4974-82FB-960EC423E8D0}"/>
             </c:ext>
@@ -908,11 +914,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="124845056"/>
-        <c:axId val="124851712"/>
+        <c:axId val="183006720"/>
+        <c:axId val="183008256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124845056"/>
+        <c:axId val="183006720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,7 +928,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124851712"/>
+        <c:crossAx val="183008256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -930,7 +936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124851712"/>
+        <c:axId val="183008256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,7 +947,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124845056"/>
+        <c:crossAx val="183006720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -959,9 +965,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-DO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1017,7 +1023,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1106,7 +1112,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DC0B-40CC-97AB-203C2039427D}"/>
             </c:ext>
@@ -1122,11 +1128,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="158773632"/>
-        <c:axId val="158775936"/>
+        <c:axId val="182885760"/>
+        <c:axId val="182895744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158773632"/>
+        <c:axId val="182885760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,7 +1142,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158775936"/>
+        <c:crossAx val="182895744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1144,7 +1150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158775936"/>
+        <c:axId val="182895744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1161,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158773632"/>
+        <c:crossAx val="182885760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1285,7 +1291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1320,7 +1326,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1532,7 +1538,7 @@
   <dimension ref="A3:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2039,7 +2045,7 @@
       </c>
       <c r="C19" s="41">
         <f>SUM(C21:C200)</f>
-        <v>7912.130000000001</v>
+        <v>7982.130000000001</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>25</v>
@@ -2223,7 +2229,7 @@
       </c>
       <c r="K31" s="19">
         <f>SUM(C9:C17)+SUM(C21:C120)</f>
-        <v>17497.13</v>
+        <v>17567.13</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2367,20 +2373,32 @@
       <c r="G45" s="33"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
-      <c r="C46" s="32"/>
+      <c r="B46" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="32">
+        <v>40</v>
+      </c>
       <c r="F46" s="24"/>
       <c r="G46" s="33"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
-      <c r="C47" s="32"/>
+      <c r="B47" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="32">
+        <v>20</v>
+      </c>
       <c r="F47" s="24"/>
       <c r="G47" s="33"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="24"/>
-      <c r="C48" s="32"/>
+      <c r="B48" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="32">
+        <v>10</v>
+      </c>
       <c r="F48" s="24"/>
       <c r="G48" s="33"/>
     </row>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>Ingresos</t>
   </si>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t>rosmarln</t>
+  </si>
+  <si>
+    <t>salami</t>
+  </si>
+  <si>
+    <t>tomate y aji</t>
+  </si>
+  <si>
+    <t>cebolla</t>
+  </si>
+  <si>
+    <t>chinola</t>
   </si>
 </sst>
 </file>
@@ -888,13 +900,13 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>19798.229999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17567.13</c:v>
+                  <c:v>17717.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -914,11 +926,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="183006720"/>
-        <c:axId val="183008256"/>
+        <c:axId val="192243584"/>
+        <c:axId val="192245120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183006720"/>
+        <c:axId val="192243584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,7 +940,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183008256"/>
+        <c:crossAx val="192245120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -936,7 +948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183008256"/>
+        <c:axId val="192245120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +959,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183006720"/>
+        <c:crossAx val="192243584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1128,11 +1140,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="182885760"/>
-        <c:axId val="182895744"/>
+        <c:axId val="192139264"/>
+        <c:axId val="192140800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182885760"/>
+        <c:axId val="192139264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,7 +1154,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182895744"/>
+        <c:crossAx val="192140800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1150,7 +1162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182895744"/>
+        <c:axId val="192140800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,7 +1173,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182885760"/>
+        <c:crossAx val="192139264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1537,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1733,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,7 +1820,7 @@
         <v>49</v>
       </c>
       <c r="G4" s="18">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="H4" s="36">
         <v>50000</v>
@@ -2045,7 +2057,7 @@
       </c>
       <c r="C19" s="41">
         <f>SUM(C21:C200)</f>
-        <v>7982.130000000001</v>
+        <v>8132.130000000001</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>25</v>
@@ -2195,7 +2207,7 @@
       </c>
       <c r="K29" s="19">
         <f>G4</f>
-        <v>20000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2229,7 +2241,7 @@
       </c>
       <c r="K31" s="19">
         <f>SUM(C9:C17)+SUM(C21:C120)</f>
-        <v>17567.13</v>
+        <v>17717.13</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2403,32 +2415,52 @@
       <c r="G48" s="33"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="24"/>
-      <c r="C49" s="32"/>
+      <c r="B49" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="32">
+        <v>50</v>
+      </c>
       <c r="F49" s="24"/>
       <c r="G49" s="33"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="24"/>
-      <c r="C50" s="32"/>
+      <c r="B50" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="32">
+        <v>40</v>
+      </c>
       <c r="F50" s="24"/>
       <c r="G50" s="33"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="24"/>
-      <c r="C51" s="32"/>
+      <c r="B51" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="32">
+        <v>25</v>
+      </c>
       <c r="F51" s="24"/>
       <c r="G51" s="33"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="24"/>
-      <c r="C52" s="32"/>
+      <c r="B52" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="32">
+        <v>15</v>
+      </c>
       <c r="F52" s="24"/>
       <c r="G52" s="33"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="24"/>
-      <c r="C53" s="32"/>
+      <c r="B53" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="32">
+        <v>20</v>
+      </c>
       <c r="F53" s="24"/>
       <c r="G53" s="32"/>
     </row>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="2" r:id="rId1"/>
     <sheet name="Enero" sheetId="5" r:id="rId2"/>
     <sheet name="Diciembre año pasado" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t>Ingresos</t>
   </si>
@@ -265,6 +266,9 @@
   </si>
   <si>
     <t>chinola</t>
+  </si>
+  <si>
+    <t>ace</t>
   </si>
 </sst>
 </file>
@@ -906,7 +910,7 @@
                   <c:v>19798.229999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17717.13</c:v>
+                  <c:v>17922.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -926,11 +930,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192243584"/>
-        <c:axId val="192245120"/>
+        <c:axId val="182740864"/>
+        <c:axId val="182742400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192243584"/>
+        <c:axId val="182740864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -940,7 +944,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192245120"/>
+        <c:crossAx val="182742400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -948,7 +952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192245120"/>
+        <c:axId val="182742400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +963,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192243584"/>
+        <c:crossAx val="182740864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1006,6 +1010,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1140,11 +1145,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="192139264"/>
-        <c:axId val="192140800"/>
+        <c:axId val="182636544"/>
+        <c:axId val="182638080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192139264"/>
+        <c:axId val="182636544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,7 +1159,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192140800"/>
+        <c:crossAx val="182638080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1162,7 +1167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192140800"/>
+        <c:axId val="182638080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,7 +1178,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192139264"/>
+        <c:crossAx val="182636544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1549,7 +1554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1745,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,7 +2062,7 @@
       </c>
       <c r="C19" s="41">
         <f>SUM(C21:C200)</f>
-        <v>8132.130000000001</v>
+        <v>8337.130000000001</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>25</v>
@@ -2241,7 +2246,7 @@
       </c>
       <c r="K31" s="19">
         <f>SUM(C9:C17)+SUM(C21:C120)</f>
-        <v>17717.13</v>
+        <v>17922.13</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2465,44 +2470,72 @@
       <c r="G53" s="32"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="24"/>
-      <c r="C54" s="32"/>
+      <c r="B54" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="32">
+        <v>65</v>
+      </c>
       <c r="F54" s="24"/>
       <c r="G54" s="33"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="24"/>
-      <c r="C55" s="32"/>
+      <c r="B55" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="32">
+        <v>30</v>
+      </c>
       <c r="F55" s="24"/>
       <c r="G55" s="33"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="24"/>
-      <c r="C56" s="32"/>
+      <c r="B56" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="32">
+        <v>30</v>
+      </c>
       <c r="F56" s="24"/>
       <c r="G56" s="33"/>
     </row>
     <row r="57" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="24"/>
-      <c r="C57" s="32"/>
+      <c r="B57" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="32">
+        <v>20</v>
+      </c>
       <c r="F57" s="24"/>
       <c r="G57" s="32"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="24"/>
-      <c r="C58" s="32"/>
+      <c r="B58" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="32">
+        <v>25</v>
+      </c>
       <c r="F58" s="24"/>
       <c r="G58" s="32"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="24"/>
-      <c r="C59" s="32"/>
+      <c r="B59" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="32">
+        <v>20</v>
+      </c>
       <c r="F59" s="24"/>
       <c r="G59" s="32"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="24"/>
-      <c r="C60" s="32"/>
+      <c r="B60" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="32">
+        <v>15</v>
+      </c>
       <c r="F60" s="24"/>
       <c r="G60" s="32"/>
     </row>
@@ -2775,7 +2808,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2925,4 +2958,16 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="2" r:id="rId1"/>
@@ -253,9 +253,6 @@
     <t>cena</t>
   </si>
   <si>
-    <t>rosmarln</t>
-  </si>
-  <si>
     <t>salami</t>
   </si>
   <si>
@@ -269,6 +266,9 @@
   </si>
   <si>
     <t>ace</t>
+  </si>
+  <si>
+    <t>rosmarlin</t>
   </si>
 </sst>
 </file>
@@ -910,7 +910,7 @@
                   <c:v>19798.229999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17922.13</c:v>
+                  <c:v>18392.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,11 +930,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="182740864"/>
-        <c:axId val="182742400"/>
+        <c:axId val="161743616"/>
+        <c:axId val="161745152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182740864"/>
+        <c:axId val="161743616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -944,7 +944,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182742400"/>
+        <c:crossAx val="161745152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -952,7 +952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182742400"/>
+        <c:axId val="161745152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,7 +963,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182740864"/>
+        <c:crossAx val="161743616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1010,7 +1010,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1145,11 +1144,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="182636544"/>
-        <c:axId val="182638080"/>
+        <c:axId val="154304512"/>
+        <c:axId val="154306048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182636544"/>
+        <c:axId val="154304512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,7 +1158,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182638080"/>
+        <c:crossAx val="154306048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1167,7 +1166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182638080"/>
+        <c:axId val="154306048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,7 +1177,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182636544"/>
+        <c:crossAx val="154304512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1750,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView showGridLines="0" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,7 +1996,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="18">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D15" s="36">
         <v>500</v>
@@ -2007,7 +2006,7 @@
       </c>
       <c r="G15" s="41">
         <f>SUM(G17:G200)</f>
-        <v>2864.07</v>
+        <v>2904.07</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2062,7 +2061,7 @@
       </c>
       <c r="C19" s="41">
         <f>SUM(C21:C200)</f>
-        <v>8337.130000000001</v>
+        <v>8307.130000000001</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>25</v>
@@ -2124,8 +2123,12 @@
       <c r="C23" s="32">
         <v>237.29</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="33"/>
+      <c r="F23" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="33">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="24" t="s">
@@ -2134,8 +2137,12 @@
       <c r="C24" s="32">
         <v>250</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="33"/>
+      <c r="F24" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="33">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="24" t="s">
@@ -2246,7 +2253,7 @@
       </c>
       <c r="K31" s="19">
         <f>SUM(C9:C17)+SUM(C21:C120)</f>
-        <v>17922.13</v>
+        <v>18392.13</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2401,7 +2408,7 @@
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="24" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C47" s="32">
         <v>20</v>
@@ -2411,17 +2418,17 @@
     </row>
     <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C48" s="32">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="33"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="32">
         <v>50</v>
@@ -2441,7 +2448,7 @@
     </row>
     <row r="51" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" s="32">
         <v>25</v>
@@ -2451,7 +2458,7 @@
     </row>
     <row r="52" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="32">
         <v>15</v>
@@ -2461,7 +2468,7 @@
     </row>
     <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="32">
         <v>20</v>
@@ -2491,7 +2498,7 @@
     </row>
     <row r="56" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="32">
         <v>30</v>
@@ -2501,7 +2508,7 @@
     </row>
     <row r="57" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="32">
         <v>20</v>
@@ -2520,22 +2527,14 @@
       <c r="G58" s="32"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="32">
-        <v>20</v>
-      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="32"/>
       <c r="F59" s="24"/>
       <c r="G59" s="32"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="32">
-        <v>15</v>
-      </c>
+      <c r="B60" s="24"/>
+      <c r="C60" s="32"/>
       <c r="F60" s="24"/>
       <c r="G60" s="32"/>
     </row>
@@ -2964,7 +2963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
   <si>
     <t>Ingresos</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>rosmarlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomate </t>
+  </si>
+  <si>
+    <t>ensalada</t>
   </si>
 </sst>
 </file>
@@ -910,7 +916,7 @@
                   <c:v>19798.229999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18392.13</c:v>
+                  <c:v>18522.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,11 +936,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="161743616"/>
-        <c:axId val="161745152"/>
+        <c:axId val="184609024"/>
+        <c:axId val="148578304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="161743616"/>
+        <c:axId val="184609024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -944,7 +950,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161745152"/>
+        <c:crossAx val="148578304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -952,7 +958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161745152"/>
+        <c:axId val="148578304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,7 +969,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161743616"/>
+        <c:crossAx val="184609024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1010,6 +1016,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1144,11 +1151,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="154304512"/>
-        <c:axId val="154306048"/>
+        <c:axId val="151581056"/>
+        <c:axId val="151582592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154304512"/>
+        <c:axId val="151581056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1158,7 +1165,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154306048"/>
+        <c:crossAx val="151582592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1166,7 +1173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154306048"/>
+        <c:axId val="151582592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,7 +1184,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154304512"/>
+        <c:crossAx val="151581056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1749,8 +1756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,7 +2068,7 @@
       </c>
       <c r="C19" s="41">
         <f>SUM(C21:C200)</f>
-        <v>8307.130000000001</v>
+        <v>8437.130000000001</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>25</v>
@@ -2253,7 +2260,7 @@
       </c>
       <c r="K31" s="19">
         <f>SUM(C9:C17)+SUM(C21:C120)</f>
-        <v>18392.13</v>
+        <v>18522.13</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2527,32 +2534,52 @@
       <c r="G58" s="32"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="24"/>
-      <c r="C59" s="32"/>
+      <c r="B59" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="32">
+        <v>35</v>
+      </c>
       <c r="F59" s="24"/>
       <c r="G59" s="32"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="24"/>
-      <c r="C60" s="32"/>
+      <c r="B60" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="32">
+        <v>25</v>
+      </c>
       <c r="F60" s="24"/>
       <c r="G60" s="32"/>
     </row>
     <row r="61" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="24"/>
-      <c r="C61" s="32"/>
+      <c r="B61" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="32">
+        <v>25</v>
+      </c>
       <c r="F61" s="24"/>
       <c r="G61" s="32"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="24"/>
-      <c r="C62" s="32"/>
+      <c r="B62" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="32">
+        <v>35</v>
+      </c>
       <c r="F62" s="24"/>
       <c r="G62" s="33"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="24"/>
-      <c r="C63" s="32"/>
+      <c r="B63" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="32">
+        <v>10</v>
+      </c>
       <c r="F63" s="24"/>
       <c r="G63" s="33"/>
     </row>
@@ -2963,7 +2990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Inventario" sheetId="2" r:id="rId1"/>
-    <sheet name="Enero" sheetId="5" r:id="rId2"/>
-    <sheet name="Diciembre año pasado" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Enero" sheetId="5" r:id="rId1"/>
+    <sheet name="Diciembre año pasado" sheetId="3" r:id="rId2"/>
+    <sheet name="Inventario" sheetId="2" r:id="rId3"/>
+    <sheet name="Febrero" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
   <si>
     <t>Ingresos</t>
   </si>
@@ -275,6 +275,51 @@
   </si>
   <si>
     <t>ensalada</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>guineo maduro</t>
+  </si>
+  <si>
+    <t>febrero</t>
+  </si>
+  <si>
+    <t>BHD FONDO</t>
+  </si>
+  <si>
+    <t>retencion  DGII Popular</t>
+  </si>
+  <si>
+    <t>paleta ninas</t>
+  </si>
+  <si>
+    <t>higado</t>
+  </si>
+  <si>
+    <t>ensalada y lechuga</t>
+  </si>
+  <si>
+    <t>verdura  y ahuyama</t>
+  </si>
+  <si>
+    <t>limon</t>
+  </si>
+  <si>
+    <t>pan y queso</t>
+  </si>
+  <si>
+    <t>chocolate y china</t>
+  </si>
+  <si>
+    <t>habichuela verde</t>
+  </si>
+  <si>
+    <t>quineo verde</t>
+  </si>
+  <si>
+    <t>maiz palomita</t>
   </si>
 </sst>
 </file>
@@ -631,7 +676,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -708,6 +753,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -936,11 +984,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="184609024"/>
-        <c:axId val="148578304"/>
+        <c:axId val="190806272"/>
+        <c:axId val="190812160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184609024"/>
+        <c:axId val="190806272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,7 +998,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148578304"/>
+        <c:crossAx val="190812160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -958,7 +1006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148578304"/>
+        <c:axId val="190812160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,7 +1017,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184609024"/>
+        <c:crossAx val="190806272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1016,7 +1064,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1151,11 +1198,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="151581056"/>
-        <c:axId val="151582592"/>
+        <c:axId val="191447424"/>
+        <c:axId val="191448960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151581056"/>
+        <c:axId val="191447424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,7 +1212,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151582592"/>
+        <c:crossAx val="191448960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1173,7 +1220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151582592"/>
+        <c:axId val="191448960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,7 +1231,249 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151581056"/>
+        <c:crossAx val="191447424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-DO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="142"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="42"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="68E945"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3FA8-4974-82FB-960EC423E8D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3FA8-4974-82FB-960EC423E8D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="68E945"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3FA8-4974-82FB-960EC423E8D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3FA8-4974-82FB-960EC423E8D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3FA8-4974-82FB-960EC423E8D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3FA8-4974-82FB-960EC423E8D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Febrero!$J$26:$J$31</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ingresos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ahorros</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gastos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Febrero!$K$26:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>69838.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8134.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19838.229999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8435.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-3FA8-4974-82FB-960EC423E8D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="191077376"/>
+        <c:axId val="191079168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="191077376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="191079168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="191079168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="191077376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1255,6 +1544,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1558,206 +1884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="45">
-        <v>1</v>
-      </c>
-      <c r="D4" s="45">
-        <v>2</v>
-      </c>
-      <c r="E4" s="45">
-        <v>3</v>
-      </c>
-      <c r="F4" s="45">
-        <v>4</v>
-      </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="46">
-        <v>549.48</v>
-      </c>
-      <c r="D5" s="46">
-        <v>8049.48</v>
-      </c>
-      <c r="E5" s="46">
-        <v>9310.41</v>
-      </c>
-      <c r="F5" s="46">
-        <v>49355.41</v>
-      </c>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="47">
-        <v>-3.73</v>
-      </c>
-      <c r="D6" s="47">
-        <v>-3.73</v>
-      </c>
-      <c r="E6" s="47">
-        <v>-3.12</v>
-      </c>
-      <c r="F6" s="47">
-        <v>13.06</v>
-      </c>
-      <c r="G6" s="44"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="47">
-        <v>5210.1400000000003</v>
-      </c>
-      <c r="D7" s="47">
-        <v>2506.66</v>
-      </c>
-      <c r="E7" s="47">
-        <v>2521.6799999999998</v>
-      </c>
-      <c r="F7" s="47">
-        <v>9755.32</v>
-      </c>
-      <c r="G7" s="44"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="47">
-        <v>26.33</v>
-      </c>
-      <c r="D8" s="47">
-        <v>26.33</v>
-      </c>
-      <c r="E8" s="47">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F8" s="47">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G8" s="44"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="47">
-        <v>800</v>
-      </c>
-      <c r="D9" s="47">
-        <v>100</v>
-      </c>
-      <c r="E9" s="47">
-        <v>900</v>
-      </c>
-      <c r="F9" s="47">
-        <v>550</v>
-      </c>
-      <c r="G9" s="44"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="48">
-        <v>3060</v>
-      </c>
-      <c r="D10" s="48">
-        <v>3003</v>
-      </c>
-      <c r="E10" s="48">
-        <v>297</v>
-      </c>
-      <c r="F10" s="48">
-        <v>230</v>
-      </c>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="42"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:F3"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C5:E10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView showGridLines="0" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2829,7 +2959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -2986,16 +3116,1247 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="45">
+        <v>1</v>
+      </c>
+      <c r="D4" s="45">
+        <v>2</v>
+      </c>
+      <c r="E4" s="45">
+        <v>3</v>
+      </c>
+      <c r="F4" s="45">
+        <v>4</v>
+      </c>
+      <c r="G4" s="44"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="46">
+        <v>549.48</v>
+      </c>
+      <c r="D5" s="46">
+        <v>8049.48</v>
+      </c>
+      <c r="E5" s="46">
+        <v>9310.41</v>
+      </c>
+      <c r="F5" s="46">
+        <v>49355.41</v>
+      </c>
+      <c r="G5" s="44"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="47">
+        <v>-3.73</v>
+      </c>
+      <c r="D6" s="47">
+        <v>-3.73</v>
+      </c>
+      <c r="E6" s="47">
+        <v>-3.12</v>
+      </c>
+      <c r="F6" s="47">
+        <v>13.06</v>
+      </c>
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="47">
+        <v>5210.1400000000003</v>
+      </c>
+      <c r="D7" s="47">
+        <v>2506.66</v>
+      </c>
+      <c r="E7" s="47">
+        <v>2521.6799999999998</v>
+      </c>
+      <c r="F7" s="47">
+        <v>9755.32</v>
+      </c>
+      <c r="G7" s="44"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="47">
+        <v>26.33</v>
+      </c>
+      <c r="D8" s="47">
+        <v>26.33</v>
+      </c>
+      <c r="E8" s="47">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F8" s="47">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="47">
+        <v>800</v>
+      </c>
+      <c r="D9" s="47">
+        <v>100</v>
+      </c>
+      <c r="E9" s="47">
+        <v>900</v>
+      </c>
+      <c r="F9" s="47">
+        <v>550</v>
+      </c>
+      <c r="G9" s="44"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="44"/>
+      <c r="B10" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="48">
+        <v>3060</v>
+      </c>
+      <c r="D10" s="48">
+        <v>3003</v>
+      </c>
+      <c r="E10" s="48">
+        <v>297</v>
+      </c>
+      <c r="F10" s="48">
+        <v>230</v>
+      </c>
+      <c r="G10" s="44"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="42"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="44"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="44"/>
+      <c r="B14" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="53">
+        <v>1</v>
+      </c>
+      <c r="D14" s="53">
+        <v>2</v>
+      </c>
+      <c r="E14" s="53">
+        <v>3</v>
+      </c>
+      <c r="F14" s="53">
+        <v>4</v>
+      </c>
+      <c r="G14" s="44"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="46">
+        <v>7355.5</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="44"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="47">
+        <v>13.06</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="44"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="47">
+        <v>50063.15</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="44"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="47">
+        <v>205.34</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="44"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="47">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="44"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="47">
+        <v>300</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="44"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="44"/>
+      <c r="B21" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="48">
+        <v>610</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="44"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C13:F13"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:E10 C15:E21">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K113"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <f>SUM(H8:H13)</f>
+        <v>69838.23</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="23">
+        <f>H4</f>
+        <v>50000</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="F3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="37">
+        <f>SUM(D9:D17)</f>
+        <v>14175</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="F4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="36">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="37">
+        <f>C2-(C3+C4)</f>
+        <v>5663.2299999999959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="F7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="36">
+        <v>49189.83</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="36">
+        <v>1235</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="18">
+        <v>7324.2</v>
+      </c>
+      <c r="H9" s="36">
+        <v>7324.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="18">
+        <v>900</v>
+      </c>
+      <c r="D10" s="36">
+        <v>900</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="36">
+        <v>7324.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1800</v>
+      </c>
+      <c r="D11" s="36">
+        <v>1800</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="36">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="28">
+        <v>90</v>
+      </c>
+      <c r="D12" s="36">
+        <v>190</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="36">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="18">
+        <v>810.56</v>
+      </c>
+      <c r="H13" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="18">
+        <v>600</v>
+      </c>
+      <c r="D14" s="36">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3000</v>
+      </c>
+      <c r="D16" s="36">
+        <v>3000</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="41">
+        <f>SUM(G18:G201)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="18">
+        <v>1720</v>
+      </c>
+      <c r="D17" s="36">
+        <v>3150</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="F18" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="41">
+        <f>SUM(C21:C200)</f>
+        <v>325.01</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="32">
+        <v>25</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="32"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="32">
+        <v>50</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="32"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="32">
+        <v>60</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="32">
+        <v>30</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="33">
+        <v>15</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="33"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="33">
+        <v>40</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="33"/>
+      <c r="J26" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="19">
+        <f>C2</f>
+        <v>69838.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="32">
+        <v>30</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="33"/>
+      <c r="J27" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="19">
+        <f>SUM(G8:G13)</f>
+        <v>8134.76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="32">
+        <v>60</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="33"/>
+      <c r="J28" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="19">
+        <f>H4</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="32">
+        <v>20</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="33"/>
+      <c r="J29" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="19">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="32">
+        <v>20</v>
+      </c>
+      <c r="F30" s="24"/>
+      <c r="G30" s="33"/>
+      <c r="J30" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30" s="19">
+        <f>C4+C5</f>
+        <v>19838.229999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="24"/>
+      <c r="C31" s="32"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="33"/>
+      <c r="J31" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="19">
+        <f>SUM(C9:C17)+SUM(C21:C120)</f>
+        <v>8435.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="24"/>
+      <c r="C32" s="32"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="24"/>
+      <c r="C33" s="32"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="33"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="24"/>
+      <c r="C34" s="32"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="33"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="24"/>
+      <c r="C35" s="32"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="32"/>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="24"/>
+      <c r="C36" s="32"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="33"/>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="24"/>
+      <c r="C37" s="32"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="33"/>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="24"/>
+      <c r="C38" s="32"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="33"/>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="24"/>
+      <c r="C39" s="32"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="32"/>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="24"/>
+      <c r="C40" s="32"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="32"/>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="24"/>
+      <c r="C41" s="32"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="32"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="24"/>
+      <c r="C42" s="32"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="32"/>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="24"/>
+      <c r="C43" s="32"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="32"/>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="24"/>
+      <c r="C44" s="32"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="33"/>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="24"/>
+      <c r="C45" s="32"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="33"/>
+    </row>
+    <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="24"/>
+      <c r="C46" s="32"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="33"/>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="24"/>
+      <c r="C47" s="32"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="33"/>
+    </row>
+    <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="24"/>
+      <c r="C48" s="32"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="33"/>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="24"/>
+      <c r="C49" s="32"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="33"/>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="24"/>
+      <c r="C50" s="32"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="33"/>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="24"/>
+      <c r="C51" s="32"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="33"/>
+    </row>
+    <row r="52" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="24"/>
+      <c r="C52" s="32"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="33"/>
+    </row>
+    <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="24"/>
+      <c r="C53" s="32"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="33"/>
+    </row>
+    <row r="54" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="24"/>
+      <c r="C54" s="32"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="32"/>
+    </row>
+    <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="24"/>
+      <c r="C55" s="32"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="33"/>
+    </row>
+    <row r="56" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="24"/>
+      <c r="C56" s="32"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="33"/>
+    </row>
+    <row r="57" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="24"/>
+      <c r="C57" s="32"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="33"/>
+    </row>
+    <row r="58" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="24"/>
+      <c r="C58" s="32"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="32"/>
+    </row>
+    <row r="59" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="24"/>
+      <c r="C59" s="32"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="32"/>
+    </row>
+    <row r="60" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="24"/>
+      <c r="C60" s="32"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="32"/>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="24"/>
+      <c r="C61" s="32"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="32"/>
+    </row>
+    <row r="62" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="24"/>
+      <c r="C62" s="32"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="32"/>
+    </row>
+    <row r="63" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="24"/>
+      <c r="C63" s="32"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="33"/>
+    </row>
+    <row r="64" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="24"/>
+      <c r="C64" s="32"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="33"/>
+    </row>
+    <row r="65" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="24"/>
+      <c r="C65" s="32"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="33"/>
+    </row>
+    <row r="66" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="24"/>
+      <c r="C66" s="32"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="33"/>
+    </row>
+    <row r="67" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="24"/>
+      <c r="C67" s="32"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="33"/>
+    </row>
+    <row r="68" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="24"/>
+      <c r="C68" s="32"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="33"/>
+    </row>
+    <row r="69" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="24"/>
+      <c r="C69" s="32"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="33"/>
+    </row>
+    <row r="70" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="24"/>
+      <c r="C70" s="32"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="33"/>
+    </row>
+    <row r="71" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="24"/>
+      <c r="C71" s="32"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="33"/>
+    </row>
+    <row r="72" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="24"/>
+      <c r="C72" s="32"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="33"/>
+    </row>
+    <row r="73" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="24"/>
+      <c r="C73" s="32"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="32"/>
+    </row>
+    <row r="74" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="24"/>
+      <c r="C74" s="32"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="33"/>
+    </row>
+    <row r="75" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="24"/>
+      <c r="C75" s="32"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="33"/>
+    </row>
+    <row r="76" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="24"/>
+      <c r="C76" s="32"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="33"/>
+    </row>
+    <row r="77" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="24"/>
+      <c r="C77" s="32"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="32"/>
+    </row>
+    <row r="78" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="24"/>
+      <c r="C78" s="32"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="32"/>
+    </row>
+    <row r="79" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="24"/>
+      <c r="C79" s="32"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="32"/>
+    </row>
+    <row r="80" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="24"/>
+      <c r="C80" s="32"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="32"/>
+    </row>
+    <row r="81" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="24"/>
+      <c r="C81" s="32"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="32"/>
+    </row>
+    <row r="82" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="24"/>
+      <c r="C82" s="32"/>
+    </row>
+    <row r="83" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="24"/>
+      <c r="C83" s="32"/>
+    </row>
+    <row r="84" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="24"/>
+      <c r="C84" s="32"/>
+    </row>
+    <row r="85" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="24"/>
+      <c r="C85" s="32"/>
+    </row>
+    <row r="86" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="24"/>
+      <c r="C86" s="32"/>
+    </row>
+    <row r="87" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="24"/>
+      <c r="C87" s="32"/>
+    </row>
+    <row r="88" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="24"/>
+      <c r="C88" s="32"/>
+    </row>
+    <row r="89" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="24"/>
+      <c r="C89" s="32"/>
+    </row>
+    <row r="90" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="24"/>
+      <c r="C90" s="32"/>
+    </row>
+    <row r="91" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="24"/>
+      <c r="C91" s="32"/>
+    </row>
+    <row r="92" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="24"/>
+      <c r="C92" s="32"/>
+    </row>
+    <row r="93" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="24"/>
+      <c r="C93" s="32"/>
+    </row>
+    <row r="94" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="24"/>
+      <c r="C94" s="32"/>
+    </row>
+    <row r="95" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="24"/>
+      <c r="C95" s="32"/>
+    </row>
+    <row r="96" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="24"/>
+      <c r="C96" s="32"/>
+    </row>
+    <row r="97" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="24"/>
+      <c r="C97" s="32"/>
+    </row>
+    <row r="98" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="24"/>
+      <c r="C98" s="32"/>
+    </row>
+    <row r="99" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="24"/>
+      <c r="C99" s="32"/>
+    </row>
+    <row r="100" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="24"/>
+      <c r="C100" s="32"/>
+    </row>
+    <row r="101" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="24"/>
+      <c r="C101" s="32"/>
+    </row>
+    <row r="102" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="24"/>
+      <c r="C102" s="32"/>
+    </row>
+    <row r="103" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="24"/>
+      <c r="C103" s="32"/>
+    </row>
+    <row r="104" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="24"/>
+      <c r="C104" s="32"/>
+    </row>
+    <row r="105" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="24"/>
+      <c r="C105" s="32"/>
+    </row>
+    <row r="106" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="24"/>
+      <c r="C106" s="32"/>
+    </row>
+    <row r="107" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="24"/>
+      <c r="C107" s="32"/>
+    </row>
+    <row r="108" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="24"/>
+      <c r="C108" s="32"/>
+    </row>
+    <row r="109" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="24"/>
+      <c r="C109" s="32"/>
+    </row>
+    <row r="110" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="24"/>
+      <c r="C110" s="32"/>
+    </row>
+    <row r="111" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="24"/>
+      <c r="C111" s="32"/>
+    </row>
+    <row r="112" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="24"/>
+      <c r="C112" s="32"/>
+    </row>
+    <row r="113" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="24"/>
+      <c r="C113" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="B7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="101">
   <si>
     <t>Ingresos</t>
   </si>
@@ -984,11 +984,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190806272"/>
-        <c:axId val="190812160"/>
+        <c:axId val="186956032"/>
+        <c:axId val="186970112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190806272"/>
+        <c:axId val="186956032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +998,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190812160"/>
+        <c:crossAx val="186970112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1006,7 +1006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190812160"/>
+        <c:axId val="186970112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +1017,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190806272"/>
+        <c:crossAx val="186956032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1198,11 +1198,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="191447424"/>
-        <c:axId val="191448960"/>
+        <c:axId val="187244928"/>
+        <c:axId val="187246464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="191447424"/>
+        <c:axId val="187244928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,7 +1212,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191448960"/>
+        <c:crossAx val="187246464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1220,7 +1220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191448960"/>
+        <c:axId val="187246464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1231,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191447424"/>
+        <c:crossAx val="187244928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1420,7 +1420,7 @@
                   <c:v>19838.229999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8435.01</c:v>
+                  <c:v>8415.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1440,11 +1440,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="191077376"/>
-        <c:axId val="191079168"/>
+        <c:axId val="187653120"/>
+        <c:axId val="187659008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="191077376"/>
+        <c:axId val="187653120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,7 +1454,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191079168"/>
+        <c:crossAx val="187659008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1462,7 +1462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191079168"/>
+        <c:axId val="187659008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,7 +1473,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191077376"/>
+        <c:crossAx val="187653120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1886,7 +1886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -3121,7 +3121,7 @@
   <dimension ref="A3:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3422,11 +3422,13 @@
       <c r="G21" s="44"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
       <c r="E22" s="44"/>
       <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3447,8 +3449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3708,7 +3710,7 @@
       </c>
       <c r="G16" s="41">
         <f>SUM(G18:G201)</f>
-        <v>45</v>
+        <v>938.52</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3746,7 +3748,7 @@
       </c>
       <c r="C19" s="41">
         <f>SUM(C21:C200)</f>
-        <v>325.01</v>
+        <v>305.01</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>73</v>
@@ -3778,8 +3780,12 @@
       <c r="C21" s="32">
         <v>0.01</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="32"/>
+      <c r="F21" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="32">
+        <v>20</v>
+      </c>
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3789,8 +3795,12 @@
       <c r="C22" s="32">
         <v>50</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="32"/>
+      <c r="F22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="32">
+        <v>873.52</v>
+      </c>
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3892,12 +3902,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="32">
-        <v>20</v>
-      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="32"/>
       <c r="F30" s="24"/>
       <c r="G30" s="33"/>
       <c r="J30" s="30" t="s">
@@ -3918,7 +3924,7 @@
       </c>
       <c r="K31" s="19">
         <f>SUM(C9:C17)+SUM(C21:C120)</f>
-        <v>8435.01</v>
+        <v>8415.01</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -12,12 +12,12 @@
     <sheet name="Inventario" sheetId="2" r:id="rId3"/>
     <sheet name="Febrero" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="102">
   <si>
     <t>Ingresos</t>
   </si>
@@ -320,12 +320,15 @@
   </si>
   <si>
     <t>maiz palomita</t>
+  </si>
+  <si>
+    <t>ADELSON PRESTAMOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -793,9 +796,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-DO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -826,7 +829,7 @@
                 <a:srgbClr val="68E945"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -844,7 +847,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -859,7 +862,7 @@
                 <a:srgbClr val="68E945"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -877,7 +880,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -892,7 +895,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -910,7 +913,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -969,7 +972,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-3FA8-4974-82FB-960EC423E8D0}"/>
             </c:ext>
@@ -1035,9 +1038,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-DO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1093,7 +1096,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1182,7 +1185,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DC0B-40CC-97AB-203C2039427D}"/>
             </c:ext>
@@ -1249,9 +1252,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-DO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1282,7 +1285,7 @@
                 <a:srgbClr val="68E945"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -1300,7 +1303,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -1315,7 +1318,7 @@
                 <a:srgbClr val="68E945"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -1333,7 +1336,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -1348,7 +1351,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -1366,7 +1369,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -1425,7 +1428,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-3FA8-4974-82FB-960EC423E8D0}"/>
             </c:ext>
@@ -1640,7 +1643,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1675,7 +1678,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3118,10 +3121,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J22"/>
+  <dimension ref="A3:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3359,10 +3362,10 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="50" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C17" s="47">
-        <v>50063.15</v>
+        <v>3000</v>
       </c>
       <c r="D17" s="47"/>
       <c r="E17" s="47"/>
@@ -3372,10 +3375,10 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="50" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C18" s="47">
-        <v>205.34</v>
+        <v>50063.15</v>
       </c>
       <c r="D18" s="47"/>
       <c r="E18" s="47"/>
@@ -3385,10 +3388,10 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" s="47">
-        <v>4.4400000000000004</v>
+        <v>205.34</v>
       </c>
       <c r="D19" s="47"/>
       <c r="E19" s="47"/>
@@ -3397,45 +3400,58 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
-      <c r="B20" s="51" t="s">
-        <v>66</v>
+      <c r="B20" s="50" t="s">
+        <v>7</v>
       </c>
       <c r="C20" s="47">
-        <v>300</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="D20" s="47"/>
       <c r="E20" s="47"/>
       <c r="F20" s="47"/>
       <c r="G20" s="44"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="47">
+        <v>300</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="44"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="44"/>
+      <c r="B22" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C22" s="48">
         <v>610</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="44"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="44"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C13:F13"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:E10 C15:E21">
+  <conditionalFormatting sqref="C5:E10 C15:E22">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3449,7 +3465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="5" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Inventario" sheetId="2" r:id="rId3"/>
     <sheet name="Febrero" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="108">
   <si>
     <t>Ingresos</t>
   </si>
@@ -323,12 +323,30 @@
   </si>
   <si>
     <t>ADELSON PRESTAMOS</t>
+  </si>
+  <si>
+    <t>vainilla</t>
+  </si>
+  <si>
+    <t>pepino lechuga tomate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pan </t>
+  </si>
+  <si>
+    <t>galletica</t>
+  </si>
+  <si>
+    <t>merienda ninas</t>
+  </si>
+  <si>
+    <t>aji y tomate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -796,9 +814,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-DO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -829,7 +847,7 @@
                 <a:srgbClr val="68E945"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -847,7 +865,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -862,7 +880,7 @@
                 <a:srgbClr val="68E945"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -880,7 +898,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -895,7 +913,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -913,7 +931,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -972,7 +990,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-3FA8-4974-82FB-960EC423E8D0}"/>
             </c:ext>
@@ -987,11 +1005,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="186956032"/>
-        <c:axId val="186970112"/>
+        <c:axId val="176191360"/>
+        <c:axId val="176192896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="186956032"/>
+        <c:axId val="176191360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,7 +1019,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186970112"/>
+        <c:crossAx val="176192896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1009,7 +1027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186970112"/>
+        <c:axId val="176192896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +1038,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186956032"/>
+        <c:crossAx val="176191360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1038,9 +1056,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-DO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1096,7 +1114,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1185,7 +1203,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DC0B-40CC-97AB-203C2039427D}"/>
             </c:ext>
@@ -1201,11 +1219,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="187244928"/>
-        <c:axId val="187246464"/>
+        <c:axId val="176570368"/>
+        <c:axId val="176571904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187244928"/>
+        <c:axId val="176570368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,7 +1233,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187246464"/>
+        <c:crossAx val="176571904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1223,7 +1241,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187246464"/>
+        <c:axId val="176571904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1234,7 +1252,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187244928"/>
+        <c:crossAx val="176570368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1252,9 +1270,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-DO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1285,7 +1303,7 @@
                 <a:srgbClr val="68E945"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -1303,7 +1321,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -1318,7 +1336,7 @@
                 <a:srgbClr val="68E945"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -1336,7 +1354,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -1351,7 +1369,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -1369,7 +1387,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-3FA8-4974-82FB-960EC423E8D0}"/>
               </c:ext>
@@ -1423,12 +1441,12 @@
                   <c:v>19838.229999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8415.01</c:v>
+                  <c:v>8685.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-3FA8-4974-82FB-960EC423E8D0}"/>
             </c:ext>
@@ -1443,11 +1461,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="187653120"/>
-        <c:axId val="187659008"/>
+        <c:axId val="176466560"/>
+        <c:axId val="176468352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187653120"/>
+        <c:axId val="176466560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1475,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187659008"/>
+        <c:crossAx val="176468352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1465,7 +1483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187659008"/>
+        <c:axId val="176468352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1494,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187653120"/>
+        <c:crossAx val="176466560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1643,7 +1661,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1678,7 +1696,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3123,8 +3141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3465,8 +3483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3726,7 +3744,7 @@
       </c>
       <c r="G16" s="41">
         <f>SUM(G18:G201)</f>
-        <v>938.52</v>
+        <v>993.52</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3764,7 +3782,7 @@
       </c>
       <c r="C19" s="41">
         <f>SUM(C21:C200)</f>
-        <v>305.01</v>
+        <v>575.01</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>73</v>
@@ -3826,8 +3844,12 @@
       <c r="C23" s="32">
         <v>60</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="33"/>
+      <c r="F23" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="33">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="24" t="s">
@@ -3836,8 +3858,12 @@
       <c r="C24" s="32">
         <v>30</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="33"/>
+      <c r="F24" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="33">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="24" t="s">
@@ -3846,8 +3872,12 @@
       <c r="C25" s="33">
         <v>15</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="33"/>
+      <c r="F25" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="33">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="24" t="s">
@@ -3856,8 +3886,12 @@
       <c r="C26" s="33">
         <v>40</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="33"/>
+      <c r="F26" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="33">
+        <v>20</v>
+      </c>
       <c r="J26" s="30" t="s">
         <v>0</v>
       </c>
@@ -3918,8 +3952,12 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="24"/>
-      <c r="C30" s="32"/>
+      <c r="B30" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="32">
+        <v>5</v>
+      </c>
       <c r="F30" s="24"/>
       <c r="G30" s="33"/>
       <c r="J30" s="30" t="s">
@@ -3931,8 +3969,12 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="24"/>
-      <c r="C31" s="32"/>
+      <c r="B31" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="32">
+        <v>65</v>
+      </c>
       <c r="F31" s="24"/>
       <c r="G31" s="33"/>
       <c r="J31" s="30" t="s">
@@ -3940,54 +3982,86 @@
       </c>
       <c r="K31" s="19">
         <f>SUM(C9:C17)+SUM(C21:C120)</f>
-        <v>8415.01</v>
+        <v>8685.01</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="24"/>
-      <c r="C32" s="32"/>
+      <c r="B32" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="32">
+        <v>20</v>
+      </c>
       <c r="F32" s="24"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="24"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="32">
+        <v>20</v>
+      </c>
       <c r="F33" s="24"/>
       <c r="G33" s="33"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="24"/>
-      <c r="C34" s="32"/>
+      <c r="B34" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="32">
+        <v>20</v>
+      </c>
       <c r="F34" s="24"/>
       <c r="G34" s="33"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="32">
+        <v>70</v>
+      </c>
       <c r="F35" s="24"/>
       <c r="G35" s="32"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="24"/>
-      <c r="C36" s="32"/>
+      <c r="B36" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="32">
+        <v>20</v>
+      </c>
       <c r="F36" s="24"/>
       <c r="G36" s="33"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="24"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="32">
+        <v>20</v>
+      </c>
       <c r="F37" s="24"/>
       <c r="G37" s="33"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="24"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="32">
+        <v>10</v>
+      </c>
       <c r="F38" s="24"/>
       <c r="G38" s="33"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="24"/>
-      <c r="C39" s="32"/>
+      <c r="B39" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="32">
+        <v>20</v>
+      </c>
       <c r="F39" s="24"/>
       <c r="G39" s="32"/>
     </row>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
   <si>
     <t>Ingresos</t>
   </si>
@@ -341,6 +341,18 @@
   </si>
   <si>
     <t>aji y tomate</t>
+  </si>
+  <si>
+    <t>quineo y china</t>
+  </si>
+  <si>
+    <t>bolon</t>
+  </si>
+  <si>
+    <t>quezo y quineo</t>
+  </si>
+  <si>
+    <t>ninas</t>
   </si>
 </sst>
 </file>
@@ -1005,11 +1017,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="176191360"/>
-        <c:axId val="176192896"/>
+        <c:axId val="181499776"/>
+        <c:axId val="181501312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="176191360"/>
+        <c:axId val="181499776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,7 +1031,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176192896"/>
+        <c:crossAx val="181501312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1027,7 +1039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176192896"/>
+        <c:axId val="181501312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1050,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176191360"/>
+        <c:crossAx val="181499776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1219,11 +1231,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="176570368"/>
-        <c:axId val="176571904"/>
+        <c:axId val="182145024"/>
+        <c:axId val="182146560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="176570368"/>
+        <c:axId val="182145024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,7 +1245,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176571904"/>
+        <c:crossAx val="182146560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1241,7 +1253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176571904"/>
+        <c:axId val="182146560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1264,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176570368"/>
+        <c:crossAx val="182145024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1429,7 +1441,7 @@
                   <c:v>69838.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8134.76</c:v>
+                  <c:v>8434.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>50000</c:v>
@@ -1441,7 +1453,7 @@
                   <c:v>19838.229999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8685.01</c:v>
+                  <c:v>8820.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1461,11 +1473,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="176466560"/>
-        <c:axId val="176468352"/>
+        <c:axId val="181770880"/>
+        <c:axId val="181776768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="176466560"/>
+        <c:axId val="181770880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,7 +1487,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176468352"/>
+        <c:crossAx val="181776768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1483,7 +1495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176468352"/>
+        <c:axId val="181776768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1494,7 +1506,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176466560"/>
+        <c:crossAx val="181770880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3141,7 +3153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -3483,8 +3495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3703,7 +3715,7 @@
         <v>86</v>
       </c>
       <c r="G13" s="18">
-        <v>810.56</v>
+        <v>1110.56</v>
       </c>
       <c r="H13" s="36">
         <v>0</v>
@@ -3744,7 +3756,7 @@
       </c>
       <c r="G16" s="41">
         <f>SUM(G18:G201)</f>
-        <v>993.52</v>
+        <v>1038.52</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3782,7 +3794,7 @@
       </c>
       <c r="C19" s="41">
         <f>SUM(C21:C200)</f>
-        <v>575.01</v>
+        <v>710.01</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>73</v>
@@ -3907,14 +3919,18 @@
       <c r="C27" s="32">
         <v>30</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="33"/>
+      <c r="F27" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="33">
+        <v>35</v>
+      </c>
       <c r="J27" s="30" t="s">
         <v>35</v>
       </c>
       <c r="K27" s="19">
         <f>SUM(G8:G13)</f>
-        <v>8134.76</v>
+        <v>8434.76</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3924,8 +3940,12 @@
       <c r="C28" s="32">
         <v>60</v>
       </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="33"/>
+      <c r="F28" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="33">
+        <v>5</v>
+      </c>
       <c r="J28" s="30" t="s">
         <v>3</v>
       </c>
@@ -3941,8 +3961,12 @@
       <c r="C29" s="32">
         <v>20</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="33"/>
+      <c r="F29" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="33">
+        <v>5</v>
+      </c>
       <c r="J29" s="30" t="s">
         <v>35</v>
       </c>
@@ -3982,7 +4006,7 @@
       </c>
       <c r="K31" s="19">
         <f>SUM(C9:C17)+SUM(C21:C120)</f>
-        <v>8685.01</v>
+        <v>8820.01</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4066,20 +4090,32 @@
       <c r="G39" s="32"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="24"/>
-      <c r="C40" s="32"/>
+      <c r="B40" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="32">
+        <v>100</v>
+      </c>
       <c r="F40" s="24"/>
       <c r="G40" s="32"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="24"/>
-      <c r="C41" s="32"/>
+      <c r="B41" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="32">
+        <v>10</v>
+      </c>
       <c r="F41" s="24"/>
       <c r="G41" s="32"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="24"/>
-      <c r="C42" s="32"/>
+      <c r="B42" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="32">
+        <v>25</v>
+      </c>
       <c r="F42" s="24"/>
       <c r="G42" s="32"/>
     </row>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="117">
   <si>
     <t>Ingresos</t>
   </si>
@@ -353,6 +353,21 @@
   </si>
   <si>
     <t>ninas</t>
+  </si>
+  <si>
+    <t>pasaje de clinica</t>
+  </si>
+  <si>
+    <t>ahuyama</t>
+  </si>
+  <si>
+    <t>frustas</t>
+  </si>
+  <si>
+    <t>brocoli</t>
+  </si>
+  <si>
+    <t>papa</t>
   </si>
 </sst>
 </file>
@@ -1017,11 +1032,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="181499776"/>
-        <c:axId val="181501312"/>
+        <c:axId val="192444288"/>
+        <c:axId val="192445824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181499776"/>
+        <c:axId val="192444288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1046,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181501312"/>
+        <c:crossAx val="192445824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1039,7 +1054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181501312"/>
+        <c:axId val="192445824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,7 +1065,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181499776"/>
+        <c:crossAx val="192444288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1097,6 +1112,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1231,11 +1247,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="182145024"/>
-        <c:axId val="182146560"/>
+        <c:axId val="192696320"/>
+        <c:axId val="192697856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182145024"/>
+        <c:axId val="192696320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1261,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182146560"/>
+        <c:crossAx val="192697856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1253,7 +1269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182146560"/>
+        <c:axId val="192697856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,7 +1280,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182145024"/>
+        <c:crossAx val="192696320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1453,7 +1469,7 @@
                   <c:v>19838.229999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8820.01</c:v>
+                  <c:v>10065.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1473,11 +1489,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="181770880"/>
-        <c:axId val="181776768"/>
+        <c:axId val="193108608"/>
+        <c:axId val="193114496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181770880"/>
+        <c:axId val="193108608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1503,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181776768"/>
+        <c:crossAx val="193114496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1495,7 +1511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181776768"/>
+        <c:axId val="193114496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1506,7 +1522,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181770880"/>
+        <c:crossAx val="193108608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3495,8 +3511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3583,6 +3599,7 @@
         <f>C2-(C3+C4)</f>
         <v>5663.2299999999959</v>
       </c>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -3707,7 +3724,9 @@
       <c r="B13" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="28">
+        <v>1000</v>
+      </c>
       <c r="D13" s="36">
         <v>1000</v>
       </c>
@@ -3794,7 +3813,7 @@
       </c>
       <c r="C19" s="41">
         <f>SUM(C21:C200)</f>
-        <v>710.01</v>
+        <v>955.01</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>73</v>
@@ -4006,7 +4025,7 @@
       </c>
       <c r="K31" s="19">
         <f>SUM(C9:C17)+SUM(C21:C120)</f>
-        <v>8820.01</v>
+        <v>10065.01</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4120,32 +4139,52 @@
       <c r="G42" s="32"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
-      <c r="C43" s="32"/>
+      <c r="B43" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="32">
+        <v>75</v>
+      </c>
       <c r="F43" s="24"/>
       <c r="G43" s="32"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
-      <c r="C44" s="32"/>
+      <c r="B44" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="32">
+        <v>50</v>
+      </c>
       <c r="F44" s="24"/>
       <c r="G44" s="33"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
-      <c r="C45" s="32"/>
+      <c r="B45" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="32">
+        <v>50</v>
+      </c>
       <c r="F45" s="24"/>
       <c r="G45" s="33"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
-      <c r="C46" s="32"/>
+      <c r="B46" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="32">
+        <v>40</v>
+      </c>
       <c r="F46" s="24"/>
       <c r="G46" s="33"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
-      <c r="C47" s="32"/>
+      <c r="B47" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="32">
+        <v>30</v>
+      </c>
       <c r="F47" s="24"/>
       <c r="G47" s="33"/>
     </row>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="121">
   <si>
     <t>Ingresos</t>
   </si>
@@ -368,6 +368,18 @@
   </si>
   <si>
     <t>papa</t>
+  </si>
+  <si>
+    <t>avena</t>
+  </si>
+  <si>
+    <t>compra de recibo</t>
+  </si>
+  <si>
+    <t>china y quineo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">china </t>
   </si>
 </sst>
 </file>
@@ -1032,11 +1044,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192444288"/>
-        <c:axId val="192445824"/>
+        <c:axId val="170100608"/>
+        <c:axId val="170102144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192444288"/>
+        <c:axId val="170100608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1058,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192445824"/>
+        <c:crossAx val="170102144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1054,7 +1066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192445824"/>
+        <c:axId val="170102144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1077,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192444288"/>
+        <c:crossAx val="170100608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1112,7 +1124,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1247,11 +1258,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="192696320"/>
-        <c:axId val="192697856"/>
+        <c:axId val="189980672"/>
+        <c:axId val="189982208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192696320"/>
+        <c:axId val="189980672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1272,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192697856"/>
+        <c:crossAx val="189982208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1269,7 +1280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192697856"/>
+        <c:axId val="189982208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1291,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192696320"/>
+        <c:crossAx val="189980672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1469,7 +1480,7 @@
                   <c:v>19838.229999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10065.01</c:v>
+                  <c:v>11062.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1489,11 +1500,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="193108608"/>
-        <c:axId val="193114496"/>
+        <c:axId val="190061184"/>
+        <c:axId val="190067072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="193108608"/>
+        <c:axId val="190061184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +1514,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193114496"/>
+        <c:crossAx val="190067072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1511,7 +1522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193114496"/>
+        <c:axId val="190067072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1533,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193108608"/>
+        <c:crossAx val="190061184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3169,7 +3180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -3511,8 +3522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView showGridLines="0" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3745,7 +3756,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="18">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="D14" s="36">
         <v>2400</v>
@@ -3775,7 +3786,7 @@
       </c>
       <c r="G16" s="41">
         <f>SUM(G18:G201)</f>
-        <v>1038.52</v>
+        <v>1173.52</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3813,7 +3824,7 @@
       </c>
       <c r="C19" s="41">
         <f>SUM(C21:C200)</f>
-        <v>955.01</v>
+        <v>1352.96</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>73</v>
@@ -4001,8 +4012,12 @@
       <c r="C30" s="32">
         <v>5</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="33"/>
+      <c r="F30" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="33">
+        <v>25</v>
+      </c>
       <c r="J30" s="30" t="s">
         <v>61</v>
       </c>
@@ -4018,25 +4033,33 @@
       <c r="C31" s="32">
         <v>65</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="33"/>
+      <c r="F31" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="33">
+        <v>30</v>
+      </c>
       <c r="J31" s="30" t="s">
         <v>35</v>
       </c>
       <c r="K31" s="19">
         <f>SUM(C9:C17)+SUM(C21:C120)</f>
-        <v>10065.01</v>
+        <v>11062.96</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="24" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C32" s="32">
         <v>20</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="33"/>
+      <c r="F32" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="33">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="24" t="s">
@@ -4045,8 +4068,12 @@
       <c r="C33" s="32">
         <v>20</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="33"/>
+      <c r="F33" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="33">
+        <v>40</v>
+      </c>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="24" t="s">
@@ -4055,8 +4082,12 @@
       <c r="C34" s="32">
         <v>20</v>
       </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="33"/>
+      <c r="F34" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="33">
+        <v>25</v>
+      </c>
     </row>
     <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="24" t="s">
@@ -4130,10 +4161,10 @@
     </row>
     <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="24" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C42" s="32">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="32"/>
@@ -4189,14 +4220,22 @@
       <c r="G47" s="33"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="24"/>
-      <c r="C48" s="32"/>
+      <c r="B48" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="32">
+        <v>49.95</v>
+      </c>
       <c r="F48" s="24"/>
       <c r="G48" s="33"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="24"/>
-      <c r="C49" s="32"/>
+      <c r="B49" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="32">
+        <v>308</v>
+      </c>
       <c r="F49" s="24"/>
       <c r="G49" s="33"/>
     </row>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="145">
   <si>
     <t>Ingresos</t>
   </si>
@@ -380,6 +380,78 @@
   </si>
   <si>
     <t xml:space="preserve">china </t>
+  </si>
+  <si>
+    <t>comida</t>
+  </si>
+  <si>
+    <t>pan y huevo</t>
+  </si>
+  <si>
+    <t>gillet</t>
+  </si>
+  <si>
+    <t>pasaje trabajo</t>
+  </si>
+  <si>
+    <t>pina, ani y rabito</t>
+  </si>
+  <si>
+    <t>hilo</t>
+  </si>
+  <si>
+    <t>pago impuesto popular</t>
+  </si>
+  <si>
+    <t>huevo cebolla aji tomate</t>
+  </si>
+  <si>
+    <t>rabito quineo are</t>
+  </si>
+  <si>
+    <t>pan y galletica</t>
+  </si>
+  <si>
+    <t>china mandarina</t>
+  </si>
+  <si>
+    <t>frustas y desayuno</t>
+  </si>
+  <si>
+    <t>quineo verde tomate</t>
+  </si>
+  <si>
+    <t>canela huevo salami</t>
+  </si>
+  <si>
+    <t>seguro deudor popular</t>
+  </si>
+  <si>
+    <t>pastiya gripe</t>
+  </si>
+  <si>
+    <t>proteina rosalis</t>
+  </si>
+  <si>
+    <t>compra hogar(avena mani)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arina </t>
+  </si>
+  <si>
+    <t>galletica y jugo</t>
+  </si>
+  <si>
+    <t>pan quineo</t>
+  </si>
+  <si>
+    <t>tomate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frustas </t>
+  </si>
+  <si>
+    <t>cebolla y quineo tomate</t>
   </si>
 </sst>
 </file>
@@ -1044,11 +1116,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="170100608"/>
-        <c:axId val="170102144"/>
+        <c:axId val="157202304"/>
+        <c:axId val="157203840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170100608"/>
+        <c:axId val="157202304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,7 +1130,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170102144"/>
+        <c:crossAx val="157203840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1066,7 +1138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170102144"/>
+        <c:axId val="157203840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,7 +1149,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170100608"/>
+        <c:crossAx val="157202304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1258,11 +1330,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="189980672"/>
-        <c:axId val="189982208"/>
+        <c:axId val="158208000"/>
+        <c:axId val="158209536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189980672"/>
+        <c:axId val="158208000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,7 +1344,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189982208"/>
+        <c:crossAx val="158209536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1280,7 +1352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189982208"/>
+        <c:axId val="158209536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,7 +1363,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189980672"/>
+        <c:crossAx val="158208000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1480,7 +1552,7 @@
                   <c:v>19838.229999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11062.96</c:v>
+                  <c:v>13027.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1500,11 +1572,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190061184"/>
-        <c:axId val="190067072"/>
+        <c:axId val="157133440"/>
+        <c:axId val="157135232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190061184"/>
+        <c:axId val="157133440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,7 +1586,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190067072"/>
+        <c:crossAx val="157135232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1522,7 +1594,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190067072"/>
+        <c:axId val="157135232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,7 +1605,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190061184"/>
+        <c:crossAx val="157133440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3180,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3398,7 +3470,9 @@
       <c r="C15" s="46">
         <v>7355.5</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="46">
+        <v>11586.67</v>
+      </c>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="44"/>
@@ -3411,7 +3485,9 @@
       <c r="C16" s="47">
         <v>13.06</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="47">
+        <v>13.06</v>
+      </c>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="44"/>
@@ -3424,7 +3500,9 @@
       <c r="C17" s="47">
         <v>3000</v>
       </c>
-      <c r="D17" s="47"/>
+      <c r="D17" s="47">
+        <v>83689.34</v>
+      </c>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="44"/>
@@ -3437,7 +3515,9 @@
       <c r="C18" s="47">
         <v>50063.15</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="47">
+        <v>9929.09</v>
+      </c>
       <c r="E18" s="47"/>
       <c r="F18" s="47"/>
       <c r="G18" s="44"/>
@@ -3450,7 +3530,9 @@
       <c r="C19" s="47">
         <v>205.34</v>
       </c>
-      <c r="D19" s="47"/>
+      <c r="D19" s="47">
+        <v>91.39</v>
+      </c>
       <c r="E19" s="47"/>
       <c r="F19" s="47"/>
       <c r="G19" s="44"/>
@@ -3463,7 +3545,9 @@
       <c r="C20" s="47">
         <v>4.4400000000000004</v>
       </c>
-      <c r="D20" s="47"/>
+      <c r="D20" s="47">
+        <v>4.4400000000000004</v>
+      </c>
       <c r="E20" s="47"/>
       <c r="F20" s="47"/>
       <c r="G20" s="44"/>
@@ -3476,7 +3560,9 @@
       <c r="C21" s="47">
         <v>300</v>
       </c>
-      <c r="D21" s="47"/>
+      <c r="D21" s="47">
+        <v>500</v>
+      </c>
       <c r="E21" s="47"/>
       <c r="F21" s="47"/>
       <c r="G21" s="44"/>
@@ -3489,7 +3575,9 @@
       <c r="C22" s="48">
         <v>610</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="48">
+        <v>0</v>
+      </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
       <c r="G22" s="44"/>
@@ -3522,8 +3610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3718,7 +3806,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="28">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D12" s="36">
         <v>190</v>
@@ -3786,7 +3874,7 @@
       </c>
       <c r="G16" s="41">
         <f>SUM(G18:G201)</f>
-        <v>1173.52</v>
+        <v>1773.52</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3824,7 +3912,7 @@
       </c>
       <c r="C19" s="41">
         <f>SUM(C21:C200)</f>
-        <v>1352.96</v>
+        <v>3267.27</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>73</v>
@@ -4044,7 +4132,7 @@
       </c>
       <c r="K31" s="19">
         <f>SUM(C9:C17)+SUM(C21:C120)</f>
-        <v>11062.96</v>
+        <v>13027.27</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4096,8 +4184,12 @@
       <c r="C35" s="32">
         <v>70</v>
       </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="32"/>
+      <c r="F35" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="32">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="24" t="s">
@@ -4106,8 +4198,12 @@
       <c r="C36" s="32">
         <v>20</v>
       </c>
-      <c r="F36" s="24"/>
-      <c r="G36" s="33"/>
+      <c r="F36" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="33">
+        <v>50</v>
+      </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24" t="s">
@@ -4116,8 +4212,12 @@
       <c r="C37" s="32">
         <v>20</v>
       </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="33"/>
+      <c r="F37" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="33">
+        <v>50</v>
+      </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="24" t="s">
@@ -4126,8 +4226,12 @@
       <c r="C38" s="32">
         <v>10</v>
       </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="33"/>
+      <c r="F38" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G38" s="33">
+        <v>45</v>
+      </c>
     </row>
     <row r="39" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="24" t="s">
@@ -4136,8 +4240,12 @@
       <c r="C39" s="32">
         <v>20</v>
       </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="32"/>
+      <c r="F39" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="32">
+        <v>15</v>
+      </c>
     </row>
     <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="24" t="s">
@@ -4146,8 +4254,12 @@
       <c r="C40" s="32">
         <v>100</v>
       </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="32"/>
+      <c r="F40" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="32">
+        <v>35</v>
+      </c>
     </row>
     <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="24" t="s">
@@ -4156,8 +4268,12 @@
       <c r="C41" s="32">
         <v>10</v>
       </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="32"/>
+      <c r="F41" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="32">
+        <v>90</v>
+      </c>
     </row>
     <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="24" t="s">
@@ -4166,8 +4282,12 @@
       <c r="C42" s="32">
         <v>65</v>
       </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="32"/>
+      <c r="F42" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="32">
+        <v>20</v>
+      </c>
     </row>
     <row r="43" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="24" t="s">
@@ -4176,8 +4296,12 @@
       <c r="C43" s="32">
         <v>75</v>
       </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="32"/>
+      <c r="F43" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="32">
+        <v>50</v>
+      </c>
     </row>
     <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="24" t="s">
@@ -4186,8 +4310,12 @@
       <c r="C44" s="32">
         <v>50</v>
       </c>
-      <c r="F44" s="24"/>
-      <c r="G44" s="33"/>
+      <c r="F44" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="33">
+        <v>100</v>
+      </c>
     </row>
     <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="24" t="s">
@@ -4196,8 +4324,12 @@
       <c r="C45" s="32">
         <v>50</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="33"/>
+      <c r="F45" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G45" s="33">
+        <v>20</v>
+      </c>
     </row>
     <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="24" t="s">
@@ -4206,8 +4338,12 @@
       <c r="C46" s="32">
         <v>40</v>
       </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="33"/>
+      <c r="F46" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="33">
+        <v>20</v>
+      </c>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="24" t="s">
@@ -4216,8 +4352,12 @@
       <c r="C47" s="32">
         <v>30</v>
       </c>
-      <c r="F47" s="24"/>
-      <c r="G47" s="33"/>
+      <c r="F47" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="33">
+        <v>15</v>
+      </c>
     </row>
     <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="24" t="s">
@@ -4226,8 +4366,12 @@
       <c r="C48" s="32">
         <v>49.95</v>
       </c>
-      <c r="F48" s="24"/>
-      <c r="G48" s="33"/>
+      <c r="F48" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="33">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="24" t="s">
@@ -4236,108 +4380,184 @@
       <c r="C49" s="32">
         <v>308</v>
       </c>
-      <c r="F49" s="24"/>
-      <c r="G49" s="33"/>
+      <c r="F49" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="33">
+        <v>50</v>
+      </c>
     </row>
     <row r="50" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="24"/>
-      <c r="C50" s="32"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="33"/>
+      <c r="B50" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="32">
+        <v>150</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" s="33">
+        <v>20</v>
+      </c>
     </row>
     <row r="51" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="24"/>
-      <c r="C51" s="32"/>
+      <c r="B51" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="32">
+        <v>30</v>
+      </c>
       <c r="F51" s="24"/>
       <c r="G51" s="33"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="24"/>
-      <c r="C52" s="32"/>
+      <c r="B52" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="32">
+        <v>20</v>
+      </c>
       <c r="F52" s="24"/>
       <c r="G52" s="33"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="24"/>
-      <c r="C53" s="32"/>
+      <c r="B53" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="32">
+        <v>25</v>
+      </c>
       <c r="F53" s="24"/>
       <c r="G53" s="33"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="24"/>
-      <c r="C54" s="32"/>
+      <c r="B54" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="32">
+        <v>75</v>
+      </c>
       <c r="F54" s="24"/>
       <c r="G54" s="32"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="24"/>
-      <c r="C55" s="32"/>
+      <c r="B55" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="32">
+        <v>1.31</v>
+      </c>
       <c r="F55" s="24"/>
       <c r="G55" s="33"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="24"/>
-      <c r="C56" s="32"/>
+      <c r="B56" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="32">
+        <v>50</v>
+      </c>
       <c r="F56" s="24"/>
       <c r="G56" s="33"/>
     </row>
     <row r="57" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="24"/>
-      <c r="C57" s="32"/>
+      <c r="B57" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="32">
+        <v>50</v>
+      </c>
       <c r="F57" s="24"/>
       <c r="G57" s="33"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="24"/>
-      <c r="C58" s="32"/>
+      <c r="B58" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="32">
+        <v>85</v>
+      </c>
       <c r="F58" s="24"/>
       <c r="G58" s="32"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="24"/>
-      <c r="C59" s="32"/>
+      <c r="B59" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="32">
+        <v>440</v>
+      </c>
       <c r="F59" s="24"/>
       <c r="G59" s="32"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="24"/>
-      <c r="C60" s="32"/>
+      <c r="B60" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="32">
+        <v>503</v>
+      </c>
       <c r="F60" s="24"/>
       <c r="G60" s="32"/>
     </row>
     <row r="61" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="24"/>
-      <c r="C61" s="32"/>
+      <c r="B61" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="32">
+        <v>320</v>
+      </c>
       <c r="F61" s="24"/>
       <c r="G61" s="32"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="24"/>
-      <c r="C62" s="32"/>
+      <c r="B62" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="32">
+        <v>20</v>
+      </c>
       <c r="F62" s="24"/>
       <c r="G62" s="32"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="24"/>
-      <c r="C63" s="32"/>
+      <c r="B63" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="32">
+        <v>65</v>
+      </c>
       <c r="F63" s="24"/>
       <c r="G63" s="33"/>
     </row>
     <row r="64" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="24"/>
-      <c r="C64" s="32"/>
+      <c r="B64" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="32">
+        <v>5</v>
+      </c>
       <c r="F64" s="24"/>
       <c r="G64" s="33"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="24"/>
-      <c r="C65" s="32"/>
+      <c r="B65" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="32">
+        <v>50</v>
+      </c>
       <c r="F65" s="24"/>
       <c r="G65" s="33"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="24"/>
-      <c r="C66" s="32"/>
+      <c r="B66" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="32">
+        <v>25</v>
+      </c>
       <c r="F66" s="24"/>
       <c r="G66" s="33"/>
     </row>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="153">
   <si>
     <t>Ingresos</t>
   </si>
@@ -452,6 +452,30 @@
   </si>
   <si>
     <t>cebolla y quineo tomate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otros gasto no fijo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pina etre otros </t>
+  </si>
+  <si>
+    <t>comida en el hogar</t>
+  </si>
+  <si>
+    <t>prestamos caja</t>
+  </si>
+  <si>
+    <t>gua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desayuno </t>
+  </si>
+  <si>
+    <t>recarga</t>
+  </si>
+  <si>
+    <t>gastos fondo insuficiente</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1120,7 @@
                   <c:v>19798.229999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18522.13</c:v>
+                  <c:v>18692.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,11 +1140,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="157202304"/>
-        <c:axId val="157203840"/>
+        <c:axId val="182044544"/>
+        <c:axId val="182046080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157202304"/>
+        <c:axId val="182044544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,7 +1154,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157203840"/>
+        <c:crossAx val="182046080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1138,7 +1162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157203840"/>
+        <c:axId val="182046080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,7 +1173,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157202304"/>
+        <c:crossAx val="182044544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1330,11 +1354,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="158208000"/>
-        <c:axId val="158209536"/>
+        <c:axId val="182980608"/>
+        <c:axId val="182982144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158208000"/>
+        <c:axId val="182980608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1344,7 +1368,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158209536"/>
+        <c:crossAx val="182982144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1352,7 +1376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158209536"/>
+        <c:axId val="182982144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,7 +1387,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158208000"/>
+        <c:crossAx val="182980608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1552,7 +1576,7 @@
                   <c:v>19838.229999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13027.27</c:v>
+                  <c:v>16788.849999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,11 +1596,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="157133440"/>
-        <c:axId val="157135232"/>
+        <c:axId val="161598080"/>
+        <c:axId val="161608064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157133440"/>
+        <c:axId val="161598080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,7 +1610,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157135232"/>
+        <c:crossAx val="161608064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1594,7 +1618,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157135232"/>
+        <c:axId val="161608064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1605,7 +1629,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157133440"/>
+        <c:crossAx val="161598080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2019,7 +2043,7 @@
   <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,7 +2299,7 @@
       </c>
       <c r="G15" s="41">
         <f>SUM(G17:G200)</f>
-        <v>2904.07</v>
+        <v>3017.07</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2330,7 +2354,7 @@
       </c>
       <c r="C19" s="41">
         <f>SUM(C21:C200)</f>
-        <v>8437.130000000001</v>
+        <v>8607.130000000001</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>25</v>
@@ -2420,8 +2444,12 @@
       <c r="C25" s="33">
         <v>524.29</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="33"/>
+      <c r="F25" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="33">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="24" t="s">
@@ -2430,8 +2458,12 @@
       <c r="C26" s="33">
         <v>25</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="33"/>
+      <c r="F26" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="33">
+        <v>73</v>
+      </c>
       <c r="J26" s="30" t="s">
         <v>0</v>
       </c>
@@ -2522,7 +2554,7 @@
       </c>
       <c r="K31" s="19">
         <f>SUM(C9:C17)+SUM(C21:C120)</f>
-        <v>18522.13</v>
+        <v>18692.13</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2846,8 +2878,12 @@
       <c r="G63" s="33"/>
     </row>
     <row r="64" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="24"/>
-      <c r="C64" s="32"/>
+      <c r="B64" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="32">
+        <v>170</v>
+      </c>
       <c r="F64" s="24"/>
       <c r="G64" s="33"/>
     </row>
@@ -3253,7 +3289,7 @@
   <dimension ref="A3:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3473,7 +3509,9 @@
       <c r="D15" s="46">
         <v>11586.67</v>
       </c>
-      <c r="E15" s="46"/>
+      <c r="E15" s="46">
+        <v>19096.59</v>
+      </c>
       <c r="F15" s="46"/>
       <c r="G15" s="44"/>
     </row>
@@ -3488,7 +3526,9 @@
       <c r="D16" s="47">
         <v>13.06</v>
       </c>
-      <c r="E16" s="47"/>
+      <c r="E16" s="47">
+        <v>13.6</v>
+      </c>
       <c r="F16" s="47"/>
       <c r="G16" s="44"/>
     </row>
@@ -3518,7 +3558,9 @@
       <c r="D18" s="47">
         <v>9929.09</v>
       </c>
-      <c r="E18" s="47"/>
+      <c r="E18" s="47">
+        <v>9940.65</v>
+      </c>
       <c r="F18" s="47"/>
       <c r="G18" s="44"/>
     </row>
@@ -3533,7 +3575,9 @@
       <c r="D19" s="47">
         <v>91.39</v>
       </c>
-      <c r="E19" s="47"/>
+      <c r="E19" s="47">
+        <v>13.06</v>
+      </c>
       <c r="F19" s="47"/>
       <c r="G19" s="44"/>
     </row>
@@ -3548,7 +3592,9 @@
       <c r="D20" s="47">
         <v>4.4400000000000004</v>
       </c>
-      <c r="E20" s="47"/>
+      <c r="E20" s="47">
+        <v>14017.97</v>
+      </c>
       <c r="F20" s="47"/>
       <c r="G20" s="44"/>
     </row>
@@ -3563,7 +3609,9 @@
       <c r="D21" s="47">
         <v>500</v>
       </c>
-      <c r="E21" s="47"/>
+      <c r="E21" s="47">
+        <v>500</v>
+      </c>
       <c r="F21" s="47"/>
       <c r="G21" s="44"/>
     </row>
@@ -3578,7 +3626,9 @@
       <c r="D22" s="48">
         <v>0</v>
       </c>
-      <c r="E22" s="48"/>
+      <c r="E22" s="48">
+        <v>450</v>
+      </c>
       <c r="F22" s="48"/>
       <c r="G22" s="44"/>
     </row>
@@ -3610,8 +3660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57:K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3806,7 +3856,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="28">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D12" s="36">
         <v>190</v>
@@ -3824,7 +3874,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="28">
-        <v>1000</v>
+        <v>1257</v>
       </c>
       <c r="D13" s="36">
         <v>1000</v>
@@ -3874,7 +3924,7 @@
       </c>
       <c r="G16" s="41">
         <f>SUM(G18:G201)</f>
-        <v>1773.52</v>
+        <v>1971.52</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3883,7 +3933,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="18">
-        <v>1720</v>
+        <v>4318.16</v>
       </c>
       <c r="D17" s="36">
         <v>3150</v>
@@ -3912,7 +3962,7 @@
       </c>
       <c r="C19" s="41">
         <f>SUM(C21:C200)</f>
-        <v>3267.27</v>
+        <v>4263.6900000000005</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>73</v>
@@ -4132,7 +4182,7 @@
       </c>
       <c r="K31" s="19">
         <f>SUM(C9:C17)+SUM(C21:C120)</f>
-        <v>13027.27</v>
+        <v>16788.849999999999</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4408,8 +4458,12 @@
       <c r="C51" s="32">
         <v>30</v>
       </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="33"/>
+      <c r="F51" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="G51" s="33">
+        <v>60</v>
+      </c>
     </row>
     <row r="52" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="24" t="s">
@@ -4428,8 +4482,12 @@
       <c r="C53" s="32">
         <v>25</v>
       </c>
-      <c r="F53" s="24"/>
-      <c r="G53" s="33"/>
+      <c r="F53" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="33">
+        <v>138</v>
+      </c>
     </row>
     <row r="54" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="24" t="s">
@@ -4538,6 +4596,9 @@
       <c r="C64" s="32">
         <v>5</v>
       </c>
+      <c r="D64">
+        <v>65</v>
+      </c>
       <c r="F64" s="24"/>
       <c r="G64" s="33"/>
     </row>
@@ -4562,44 +4623,72 @@
       <c r="G66" s="33"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="24"/>
-      <c r="C67" s="32"/>
+      <c r="B67" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="32">
+        <v>431.42</v>
+      </c>
       <c r="F67" s="24"/>
       <c r="G67" s="33"/>
     </row>
     <row r="68" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="24"/>
-      <c r="C68" s="32"/>
+      <c r="B68" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="32">
+        <v>360</v>
+      </c>
       <c r="F68" s="24"/>
       <c r="G68" s="33"/>
     </row>
     <row r="69" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="24"/>
-      <c r="C69" s="32"/>
+      <c r="B69" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="32">
+        <v>25</v>
+      </c>
       <c r="F69" s="24"/>
       <c r="G69" s="33"/>
     </row>
     <row r="70" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="24"/>
-      <c r="C70" s="32"/>
+      <c r="B70" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="32">
+        <v>65</v>
+      </c>
       <c r="F70" s="24"/>
       <c r="G70" s="33"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="24"/>
-      <c r="C71" s="32"/>
+      <c r="B71" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="32">
+        <v>25</v>
+      </c>
       <c r="F71" s="24"/>
       <c r="G71" s="33"/>
     </row>
     <row r="72" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="24"/>
-      <c r="C72" s="32"/>
+      <c r="B72" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="32">
+        <v>50</v>
+      </c>
       <c r="F72" s="24"/>
       <c r="G72" s="33"/>
     </row>
     <row r="73" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="24"/>
-      <c r="C73" s="32"/>
+      <c r="B73" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="32">
+        <v>40</v>
+      </c>
       <c r="F73" s="24"/>
       <c r="G73" s="32"/>
     </row>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="155">
   <si>
     <t>Ingresos</t>
   </si>
@@ -476,6 +476,12 @@
   </si>
   <si>
     <t>gastos fondo insuficiente</t>
+  </si>
+  <si>
+    <t>sandia</t>
+  </si>
+  <si>
+    <t>manzana</t>
   </si>
 </sst>
 </file>
@@ -1140,11 +1146,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="182044544"/>
-        <c:axId val="182046080"/>
+        <c:axId val="174831488"/>
+        <c:axId val="174833024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182044544"/>
+        <c:axId val="174831488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,7 +1160,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182046080"/>
+        <c:crossAx val="174833024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1162,7 +1168,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182046080"/>
+        <c:axId val="174833024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,7 +1179,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182044544"/>
+        <c:crossAx val="174831488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1354,11 +1360,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="182980608"/>
-        <c:axId val="182982144"/>
+        <c:axId val="195043328"/>
+        <c:axId val="195044864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182980608"/>
+        <c:axId val="195043328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1368,7 +1374,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182982144"/>
+        <c:crossAx val="195044864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1376,7 +1382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182982144"/>
+        <c:axId val="195044864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,7 +1393,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182980608"/>
+        <c:crossAx val="195043328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1564,7 +1570,7 @@
                   <c:v>69838.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8434.76</c:v>
+                  <c:v>23064.960000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>50000</c:v>
@@ -1576,7 +1582,7 @@
                   <c:v>19838.229999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16788.849999999999</c:v>
+                  <c:v>20978.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1596,11 +1602,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="161598080"/>
-        <c:axId val="161608064"/>
+        <c:axId val="174783104"/>
+        <c:axId val="194851200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="161598080"/>
+        <c:axId val="174783104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1610,7 +1616,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161608064"/>
+        <c:crossAx val="194851200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1618,7 +1624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161608064"/>
+        <c:axId val="194851200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,7 +1635,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161598080"/>
+        <c:crossAx val="174783104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3289,7 +3295,7 @@
   <dimension ref="A3:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C13" sqref="C13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3543,7 +3549,9 @@
       <c r="D17" s="47">
         <v>83689.34</v>
       </c>
-      <c r="E17" s="47"/>
+      <c r="E17" s="47">
+        <v>200664.53</v>
+      </c>
       <c r="F17" s="47"/>
       <c r="G17" s="44"/>
     </row>
@@ -3660,19 +3668,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57:K57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="11" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.140625" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3798,7 +3806,9 @@
       <c r="B9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="18">
+        <v>1235</v>
+      </c>
       <c r="D9" s="36">
         <v>1235</v>
       </c>
@@ -3826,7 +3836,9 @@
       <c r="F10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="18">
+        <v>7324.2</v>
+      </c>
       <c r="H10" s="36">
         <v>7324.2</v>
       </c>
@@ -3845,7 +3857,9 @@
       <c r="F11" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="28">
+        <v>3500</v>
+      </c>
       <c r="H11" s="36">
         <v>3500</v>
       </c>
@@ -3856,7 +3870,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="28">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D12" s="36">
         <v>190</v>
@@ -3864,7 +3878,9 @@
       <c r="F12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="18">
+        <v>2500</v>
+      </c>
       <c r="H12" s="36">
         <v>2500</v>
       </c>
@@ -3883,7 +3899,7 @@
         <v>86</v>
       </c>
       <c r="G13" s="18">
-        <v>1110.56</v>
+        <v>2416.56</v>
       </c>
       <c r="H13" s="36">
         <v>0</v>
@@ -3924,7 +3940,7 @@
       </c>
       <c r="G16" s="41">
         <f>SUM(G18:G201)</f>
-        <v>1971.52</v>
+        <v>2031.52</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3960,10 +3976,7 @@
       <c r="B19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="41">
-        <f>SUM(C21:C200)</f>
-        <v>4263.6900000000005</v>
-      </c>
+      <c r="C19" s="41"/>
       <c r="F19" s="24" t="s">
         <v>73</v>
       </c>
@@ -4098,7 +4111,7 @@
       </c>
       <c r="K27" s="19">
         <f>SUM(G8:G13)</f>
-        <v>8434.76</v>
+        <v>23064.960000000003</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4182,7 +4195,7 @@
       </c>
       <c r="K31" s="19">
         <f>SUM(C9:C17)+SUM(C21:C120)</f>
-        <v>16788.849999999999</v>
+        <v>20978.35</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4472,8 +4485,12 @@
       <c r="C52" s="32">
         <v>20</v>
       </c>
-      <c r="F52" s="24"/>
-      <c r="G52" s="33"/>
+      <c r="F52" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" s="33">
+        <v>25</v>
+      </c>
     </row>
     <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="24" t="s">
@@ -4496,8 +4513,12 @@
       <c r="C54" s="32">
         <v>75</v>
       </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="32"/>
+      <c r="F54" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G54" s="32">
+        <v>35</v>
+      </c>
     </row>
     <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="24" t="s">
@@ -4596,9 +4617,6 @@
       <c r="C64" s="32">
         <v>5</v>
       </c>
-      <c r="D64">
-        <v>65</v>
-      </c>
       <c r="F64" s="24"/>
       <c r="G64" s="33"/>
     </row>
@@ -4693,20 +4711,32 @@
       <c r="G73" s="32"/>
     </row>
     <row r="74" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="24"/>
-      <c r="C74" s="32"/>
+      <c r="B74" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="32">
+        <v>112</v>
+      </c>
       <c r="F74" s="24"/>
       <c r="G74" s="33"/>
     </row>
     <row r="75" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="24"/>
-      <c r="C75" s="32"/>
+      <c r="B75" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="32">
+        <v>2730</v>
+      </c>
       <c r="F75" s="24"/>
       <c r="G75" s="33"/>
     </row>
     <row r="76" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="24"/>
-      <c r="C76" s="32"/>
+      <c r="B76" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="32">
+        <v>22.5</v>
+      </c>
       <c r="F76" s="24"/>
       <c r="G76" s="33"/>
     </row>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="165">
   <si>
     <t>Ingresos</t>
   </si>
@@ -482,6 +482,36 @@
   </si>
   <si>
     <t>manzana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pan galletica </t>
+  </si>
+  <si>
+    <t>naranja huevo</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>bino</t>
+  </si>
+  <si>
+    <t>bolita  nina</t>
+  </si>
+  <si>
+    <t>jugo</t>
+  </si>
+  <si>
+    <t>quineo maduro</t>
+  </si>
+  <si>
+    <t>batata y huevo</t>
+  </si>
+  <si>
+    <t>pollo</t>
+  </si>
+  <si>
+    <t>coco y habichuela</t>
   </si>
 </sst>
 </file>
@@ -1146,11 +1176,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174831488"/>
-        <c:axId val="174833024"/>
+        <c:axId val="161798016"/>
+        <c:axId val="161799552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174831488"/>
+        <c:axId val="161798016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,7 +1190,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174833024"/>
+        <c:crossAx val="161799552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1168,7 +1198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174833024"/>
+        <c:axId val="161799552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,7 +1209,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174831488"/>
+        <c:crossAx val="161798016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1360,11 +1390,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="195043328"/>
-        <c:axId val="195044864"/>
+        <c:axId val="181997568"/>
+        <c:axId val="181999104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195043328"/>
+        <c:axId val="181997568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,7 +1404,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195044864"/>
+        <c:crossAx val="181999104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1382,7 +1412,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195044864"/>
+        <c:axId val="181999104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,7 +1423,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195043328"/>
+        <c:crossAx val="181997568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1582,7 +1612,7 @@
                   <c:v>19838.229999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20978.35</c:v>
+                  <c:v>23482.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1602,11 +1632,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174783104"/>
-        <c:axId val="194851200"/>
+        <c:axId val="161733248"/>
+        <c:axId val="161747328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174783104"/>
+        <c:axId val="161733248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +1646,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194851200"/>
+        <c:crossAx val="161747328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1624,7 +1654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194851200"/>
+        <c:axId val="161747328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,7 +1665,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174783104"/>
+        <c:crossAx val="161733248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3668,8 +3698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3910,7 +3940,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="18">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="D14" s="36">
         <v>2400</v>
@@ -3940,7 +3970,7 @@
       </c>
       <c r="G16" s="41">
         <f>SUM(G18:G201)</f>
-        <v>2031.52</v>
+        <v>2454.52</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4195,7 +4225,7 @@
       </c>
       <c r="K31" s="19">
         <f>SUM(C9:C17)+SUM(C21:C120)</f>
-        <v>20978.35</v>
+        <v>23482.21</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4527,8 +4557,12 @@
       <c r="C55" s="32">
         <v>1.31</v>
       </c>
-      <c r="F55" s="24"/>
-      <c r="G55" s="33"/>
+      <c r="F55" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G55" s="33">
+        <v>30</v>
+      </c>
     </row>
     <row r="56" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="24" t="s">
@@ -4537,8 +4571,12 @@
       <c r="C56" s="32">
         <v>50</v>
       </c>
-      <c r="F56" s="24"/>
-      <c r="G56" s="33"/>
+      <c r="F56" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G56" s="33">
+        <v>30</v>
+      </c>
     </row>
     <row r="57" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="24" t="s">
@@ -4547,8 +4585,12 @@
       <c r="C57" s="32">
         <v>50</v>
       </c>
-      <c r="F57" s="24"/>
-      <c r="G57" s="33"/>
+      <c r="F57" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G57" s="33">
+        <v>25</v>
+      </c>
     </row>
     <row r="58" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="24" t="s">
@@ -4557,8 +4599,12 @@
       <c r="C58" s="32">
         <v>85</v>
       </c>
-      <c r="F58" s="24"/>
-      <c r="G58" s="32"/>
+      <c r="F58" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G58" s="32">
+        <v>20</v>
+      </c>
     </row>
     <row r="59" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="24" t="s">
@@ -4567,8 +4613,12 @@
       <c r="C59" s="32">
         <v>440</v>
       </c>
-      <c r="F59" s="24"/>
-      <c r="G59" s="32"/>
+      <c r="F59" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="32">
+        <v>20</v>
+      </c>
     </row>
     <row r="60" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="24" t="s">
@@ -4577,8 +4627,12 @@
       <c r="C60" s="32">
         <v>503</v>
       </c>
-      <c r="F60" s="24"/>
-      <c r="G60" s="32"/>
+      <c r="F60" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G60" s="32">
+        <v>48</v>
+      </c>
     </row>
     <row r="61" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="24" t="s">
@@ -4587,8 +4641,12 @@
       <c r="C61" s="32">
         <v>320</v>
       </c>
-      <c r="F61" s="24"/>
-      <c r="G61" s="32"/>
+      <c r="F61" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G61" s="32">
+        <v>65</v>
+      </c>
     </row>
     <row r="62" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="24" t="s">
@@ -4597,8 +4655,12 @@
       <c r="C62" s="32">
         <v>20</v>
       </c>
-      <c r="F62" s="24"/>
-      <c r="G62" s="32"/>
+      <c r="F62" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="32">
+        <v>35</v>
+      </c>
     </row>
     <row r="63" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="24" t="s">
@@ -4607,8 +4669,12 @@
       <c r="C63" s="32">
         <v>65</v>
       </c>
-      <c r="F63" s="24"/>
-      <c r="G63" s="33"/>
+      <c r="F63" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G63" s="33">
+        <v>105</v>
+      </c>
     </row>
     <row r="64" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="24" t="s">
@@ -4617,8 +4683,12 @@
       <c r="C64" s="32">
         <v>5</v>
       </c>
-      <c r="F64" s="24"/>
-      <c r="G64" s="33"/>
+      <c r="F64" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G64" s="33">
+        <v>10</v>
+      </c>
     </row>
     <row r="65" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="24" t="s">
@@ -4627,8 +4697,12 @@
       <c r="C65" s="32">
         <v>50</v>
       </c>
-      <c r="F65" s="24"/>
-      <c r="G65" s="33"/>
+      <c r="F65" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G65" s="33">
+        <v>10</v>
+      </c>
     </row>
     <row r="66" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="24" t="s">
@@ -4637,8 +4711,12 @@
       <c r="C66" s="32">
         <v>25</v>
       </c>
-      <c r="F66" s="24"/>
-      <c r="G66" s="33"/>
+      <c r="F66" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G66" s="33">
+        <v>25</v>
+      </c>
     </row>
     <row r="67" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="24" t="s">
@@ -4741,66 +4819,118 @@
       <c r="G76" s="33"/>
     </row>
     <row r="77" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="24"/>
-      <c r="C77" s="32"/>
+      <c r="B77" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="32">
+        <v>65</v>
+      </c>
       <c r="F77" s="24"/>
       <c r="G77" s="32"/>
     </row>
     <row r="78" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="24"/>
-      <c r="C78" s="32"/>
+      <c r="B78" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="32">
+        <v>30</v>
+      </c>
       <c r="F78" s="24"/>
       <c r="G78" s="32"/>
     </row>
     <row r="79" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="24"/>
-      <c r="C79" s="32"/>
+      <c r="B79" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" s="32">
+        <v>15</v>
+      </c>
       <c r="F79" s="24"/>
       <c r="G79" s="32"/>
     </row>
     <row r="80" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="24"/>
-      <c r="C80" s="32"/>
+      <c r="B80" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="32">
+        <v>30</v>
+      </c>
       <c r="F80" s="24"/>
       <c r="G80" s="32"/>
     </row>
     <row r="81" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="24"/>
-      <c r="C81" s="32"/>
+      <c r="B81" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="32">
+        <v>115</v>
+      </c>
       <c r="F81" s="24"/>
       <c r="G81" s="32"/>
     </row>
     <row r="82" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="24"/>
-      <c r="C82" s="32"/>
+      <c r="B82" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="32">
+        <v>20</v>
+      </c>
     </row>
     <row r="83" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="24"/>
-      <c r="C83" s="32"/>
+      <c r="B83" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="32">
+        <v>399.86</v>
+      </c>
     </row>
     <row r="84" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="24"/>
-      <c r="C84" s="32"/>
+      <c r="B84" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" s="32">
+        <v>205</v>
+      </c>
     </row>
     <row r="85" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="24"/>
-      <c r="C85" s="32"/>
+      <c r="B85" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" s="32">
+        <v>110</v>
+      </c>
     </row>
     <row r="86" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="24"/>
-      <c r="C86" s="32"/>
+      <c r="B86" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="32">
+        <v>130</v>
+      </c>
     </row>
     <row r="87" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="24"/>
-      <c r="C87" s="32"/>
+      <c r="B87" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="32">
+        <v>60</v>
+      </c>
     </row>
     <row r="88" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="24"/>
-      <c r="C88" s="32"/>
+      <c r="B88" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="32">
+        <v>24</v>
+      </c>
     </row>
     <row r="89" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="24"/>
-      <c r="C89" s="32"/>
+      <c r="B89" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C89" s="32">
+        <v>100</v>
+      </c>
     </row>
     <row r="90" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="24"/>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="168">
   <si>
     <t>Ingresos</t>
   </si>
@@ -512,6 +512,15 @@
   </si>
   <si>
     <t>coco y habichuela</t>
+  </si>
+  <si>
+    <t>espaqueti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quineo </t>
+  </si>
+  <si>
+    <t>yogur</t>
   </si>
 </sst>
 </file>
@@ -1176,11 +1185,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="161798016"/>
-        <c:axId val="161799552"/>
+        <c:axId val="49487872"/>
+        <c:axId val="49489408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="161798016"/>
+        <c:axId val="49487872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,7 +1199,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161799552"/>
+        <c:crossAx val="49489408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1198,7 +1207,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161799552"/>
+        <c:axId val="49489408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +1218,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161798016"/>
+        <c:crossAx val="49487872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1390,11 +1399,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="181997568"/>
-        <c:axId val="181999104"/>
+        <c:axId val="49710976"/>
+        <c:axId val="49712512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181997568"/>
+        <c:axId val="49710976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +1413,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181999104"/>
+        <c:crossAx val="49712512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1412,7 +1421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181999104"/>
+        <c:axId val="49712512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +1432,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181997568"/>
+        <c:crossAx val="49710976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1612,7 +1621,7 @@
                   <c:v>19838.229999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23482.21</c:v>
+                  <c:v>23668.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,11 +1641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="161733248"/>
-        <c:axId val="161747328"/>
+        <c:axId val="223113984"/>
+        <c:axId val="223115520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="161733248"/>
+        <c:axId val="223113984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,7 +1655,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161747328"/>
+        <c:crossAx val="223115520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1654,7 +1663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161747328"/>
+        <c:axId val="223115520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1665,7 +1674,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161733248"/>
+        <c:crossAx val="223113984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3324,8 +3333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3548,7 +3557,9 @@
       <c r="E15" s="46">
         <v>19096.59</v>
       </c>
-      <c r="F15" s="46"/>
+      <c r="F15" s="46">
+        <v>39.74</v>
+      </c>
       <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3565,7 +3576,9 @@
       <c r="E16" s="47">
         <v>13.6</v>
       </c>
-      <c r="F16" s="47"/>
+      <c r="F16" s="47">
+        <v>13.08</v>
+      </c>
       <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3582,7 +3595,9 @@
       <c r="E17" s="47">
         <v>200664.53</v>
       </c>
-      <c r="F17" s="47"/>
+      <c r="F17" s="47">
+        <v>0</v>
+      </c>
       <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3599,7 +3614,9 @@
       <c r="E18" s="47">
         <v>9940.65</v>
       </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="47">
+        <v>0</v>
+      </c>
       <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3616,7 +3633,9 @@
       <c r="E19" s="47">
         <v>13.06</v>
       </c>
-      <c r="F19" s="47"/>
+      <c r="F19" s="47">
+        <v>60062.53</v>
+      </c>
       <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3633,7 +3652,9 @@
       <c r="E20" s="47">
         <v>14017.97</v>
       </c>
-      <c r="F20" s="47"/>
+      <c r="F20" s="47">
+        <v>17.97</v>
+      </c>
       <c r="G20" s="44"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3650,7 +3671,9 @@
       <c r="E21" s="47">
         <v>500</v>
       </c>
-      <c r="F21" s="47"/>
+      <c r="F21" s="47">
+        <v>300</v>
+      </c>
       <c r="G21" s="44"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3667,7 +3690,9 @@
       <c r="E22" s="48">
         <v>450</v>
       </c>
-      <c r="F22" s="48"/>
+      <c r="F22" s="48">
+        <v>629</v>
+      </c>
       <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3698,8 +3723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView showGridLines="0" topLeftCell="B79" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3970,7 +3995,7 @@
       </c>
       <c r="G16" s="41">
         <f>SUM(G18:G201)</f>
-        <v>2454.52</v>
+        <v>2509.52</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4225,7 +4250,7 @@
       </c>
       <c r="K31" s="19">
         <f>SUM(C9:C17)+SUM(C21:C120)</f>
-        <v>23482.21</v>
+        <v>23668.21</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4725,8 +4750,12 @@
       <c r="C67" s="32">
         <v>431.42</v>
       </c>
-      <c r="F67" s="24"/>
-      <c r="G67" s="33"/>
+      <c r="F67" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G67" s="33">
+        <v>25</v>
+      </c>
     </row>
     <row r="68" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="24" t="s">
@@ -4735,8 +4764,12 @@
       <c r="C68" s="32">
         <v>360</v>
       </c>
-      <c r="F68" s="24"/>
-      <c r="G68" s="33"/>
+      <c r="F68" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G68" s="33">
+        <v>10</v>
+      </c>
     </row>
     <row r="69" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="24" t="s">
@@ -4745,8 +4778,12 @@
       <c r="C69" s="32">
         <v>25</v>
       </c>
-      <c r="F69" s="24"/>
-      <c r="G69" s="33"/>
+      <c r="F69" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G69" s="33">
+        <v>20</v>
+      </c>
     </row>
     <row r="70" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="24" t="s">
@@ -4933,16 +4970,28 @@
       </c>
     </row>
     <row r="90" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="24"/>
-      <c r="C90" s="32"/>
+      <c r="B90" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C90" s="32">
+        <v>21</v>
+      </c>
     </row>
     <row r="91" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="24"/>
-      <c r="C91" s="32"/>
+      <c r="B91" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" s="32">
+        <v>65</v>
+      </c>
     </row>
     <row r="92" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="24"/>
-      <c r="C92" s="32"/>
+      <c r="B92" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" s="32">
+        <v>100</v>
+      </c>
     </row>
     <row r="93" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="24"/>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="5" r:id="rId1"/>
@@ -1185,11 +1185,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="49487872"/>
-        <c:axId val="49489408"/>
+        <c:axId val="132700032"/>
+        <c:axId val="132701568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49487872"/>
+        <c:axId val="132700032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,7 +1199,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49489408"/>
+        <c:crossAx val="132701568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1207,7 +1207,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49489408"/>
+        <c:axId val="132701568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,7 +1218,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49487872"/>
+        <c:crossAx val="132700032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1399,11 +1399,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="49710976"/>
-        <c:axId val="49712512"/>
+        <c:axId val="162533376"/>
+        <c:axId val="162534912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49710976"/>
+        <c:axId val="162533376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +1413,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49712512"/>
+        <c:crossAx val="162534912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1421,7 +1421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49712512"/>
+        <c:axId val="162534912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,7 +1432,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49710976"/>
+        <c:crossAx val="162533376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1641,11 +1641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="223113984"/>
-        <c:axId val="223115520"/>
+        <c:axId val="159042176"/>
+        <c:axId val="159043968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="223113984"/>
+        <c:axId val="159042176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1655,7 +1655,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223115520"/>
+        <c:crossAx val="159043968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1663,7 +1663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223115520"/>
+        <c:axId val="159043968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1674,7 +1674,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223113984"/>
+        <c:crossAx val="159042176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3333,7 +3333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -3723,8 +3723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="5" r:id="rId1"/>
     <sheet name="Diciembre año pasado" sheetId="3" r:id="rId2"/>
     <sheet name="Inventario" sheetId="2" r:id="rId3"/>
     <sheet name="Febrero" sheetId="7" r:id="rId4"/>
+    <sheet name="marzo" sheetId="8" r:id="rId5"/>
+    <sheet name="Inventario marzo" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="191">
   <si>
     <t>Ingresos</t>
   </si>
@@ -521,6 +523,75 @@
   </si>
   <si>
     <t>yogur</t>
+  </si>
+  <si>
+    <t>abril</t>
+  </si>
+  <si>
+    <t>marzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pasaje </t>
+  </si>
+  <si>
+    <t>aji habichuela</t>
+  </si>
+  <si>
+    <t>empanada</t>
+  </si>
+  <si>
+    <t>pasaje clinica</t>
+  </si>
+  <si>
+    <t>manzana y otros</t>
+  </si>
+  <si>
+    <t>maricina</t>
+  </si>
+  <si>
+    <t>interes prestamos gordo</t>
+  </si>
+  <si>
+    <t>enpanada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yogur </t>
+  </si>
+  <si>
+    <t>pasaje adel</t>
+  </si>
+  <si>
+    <t>interes prestamos cojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recarga </t>
+  </si>
+  <si>
+    <t>naranja ahuyama</t>
+  </si>
+  <si>
+    <t>hielo</t>
+  </si>
+  <si>
+    <t>frutas</t>
+  </si>
+  <si>
+    <t>adel calle</t>
+  </si>
+  <si>
+    <t>calgo mensual bhd a</t>
+  </si>
+  <si>
+    <t>menbresia bhd R</t>
+  </si>
+  <si>
+    <t>cargo mensual bhd R</t>
+  </si>
+  <si>
+    <t>cargo tarjeta popular</t>
+  </si>
+  <si>
+    <t>10.26-</t>
   </si>
 </sst>
 </file>
@@ -877,7 +948,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -959,6 +1030,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -966,7 +1052,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1185,11 +1276,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="132700032"/>
-        <c:axId val="132701568"/>
+        <c:axId val="181734016"/>
+        <c:axId val="181735808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132700032"/>
+        <c:axId val="181734016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,7 +1290,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132701568"/>
+        <c:crossAx val="181735808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1207,7 +1298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132701568"/>
+        <c:axId val="181735808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,7 +1309,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132700032"/>
+        <c:crossAx val="181734016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1399,11 +1490,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="162533376"/>
-        <c:axId val="162534912"/>
+        <c:axId val="182080256"/>
+        <c:axId val="182081792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162533376"/>
+        <c:axId val="182080256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +1504,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162534912"/>
+        <c:crossAx val="182081792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1421,7 +1512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162534912"/>
+        <c:axId val="182081792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,7 +1523,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162533376"/>
+        <c:crossAx val="182080256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1641,11 +1732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159042176"/>
-        <c:axId val="159043968"/>
+        <c:axId val="182168960"/>
+        <c:axId val="182170752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159042176"/>
+        <c:axId val="182168960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1655,7 +1746,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159043968"/>
+        <c:crossAx val="182170752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1663,7 +1754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159043968"/>
+        <c:axId val="182170752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1674,7 +1765,249 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159042176"/>
+        <c:crossAx val="182168960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-DO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="142"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="42"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="68E945"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3FA8-4974-82FB-960EC423E8D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3FA8-4974-82FB-960EC423E8D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="68E945"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3FA8-4974-82FB-960EC423E8D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3FA8-4974-82FB-960EC423E8D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3FA8-4974-82FB-960EC423E8D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3FA8-4974-82FB-960EC423E8D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Enero!$J$26:$J$31</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ingresos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ahorros</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gastos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Enero!$K$26:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>69798.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69798.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19798.229999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18692.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-3FA8-4974-82FB-960EC423E8D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="182347648"/>
+        <c:axId val="182349184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="182347648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="182349184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="182349184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="182347648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1779,6 +2112,43 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2087,8 +2457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N32" sqref="B1:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,12 +2475,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="C1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -2122,8 +2492,8 @@
         <v>69798.23</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2186,11 +2556,11 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
       <c r="F7" s="34" t="s">
         <v>0</v>
       </c>
@@ -3334,7 +3704,7 @@
   <dimension ref="A3:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3353,12 +3723,12 @@
       <c r="B3" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="44"/>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
@@ -3516,12 +3886,12 @@
       <c r="B13" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
       <c r="G13" s="44"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3710,7 +4080,7 @@
     <mergeCell ref="C13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E10 C15:E22">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3723,15 +4093,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B76" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView showGridLines="0" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="11" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.140625" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="30" bestFit="1" customWidth="1"/>
@@ -3741,12 +4111,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="C1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -3758,8 +4128,8 @@
         <v>69838.23</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3821,11 +4191,11 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
       <c r="F7" s="34" t="s">
         <v>0</v>
       </c>
@@ -5087,4 +5457,1728 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:V113"/>
+  <sheetViews>
+    <sheetView topLeftCell="M4" workbookViewId="0">
+      <selection activeCell="W33" sqref="W33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" customWidth="1"/>
+    <col min="8" max="8" width="52.85546875" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="6" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" customWidth="1"/>
+    <col min="24" max="24" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="4:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="59"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+    </row>
+    <row r="3" spans="4:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="21">
+        <f>SUM(S9:S13)</f>
+        <v>69798.23</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="4:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="M4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="23">
+        <f>S5</f>
+        <v>50000</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="Q4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="4:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="55"/>
+      <c r="M5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="37">
+        <f>SUM(O10:O18)</f>
+        <v>14175</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="Q5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="18">
+        <v>50000</v>
+      </c>
+      <c r="S5" s="36">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="23" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="M6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="37">
+        <f>N3-(N4+N5)</f>
+        <v>5623.2299999999959</v>
+      </c>
+      <c r="Q6" s="30"/>
+    </row>
+    <row r="7" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="37">
+        <f>SUM(F12:F20)</f>
+        <v>14175</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="37" t="e">
+        <f>E5-(E6+E7)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M8" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="Q8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="18"/>
+      <c r="S9" s="36">
+        <v>49189.83</v>
+      </c>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="M10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="18"/>
+      <c r="O10" s="36">
+        <v>1235</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="18"/>
+      <c r="S10" s="36">
+        <v>7304.2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="18">
+        <v>900</v>
+      </c>
+      <c r="O11" s="36">
+        <v>900</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="18"/>
+      <c r="S11" s="36">
+        <v>7304.2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1235</v>
+      </c>
+      <c r="F12" s="36">
+        <v>1235</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="18">
+        <v>1800</v>
+      </c>
+      <c r="O12" s="36">
+        <v>1800</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="28"/>
+      <c r="S12" s="36">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="13" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="18">
+        <v>900</v>
+      </c>
+      <c r="F13" s="36">
+        <v>900</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="28">
+        <v>0</v>
+      </c>
+      <c r="O13" s="36">
+        <v>190</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="18"/>
+      <c r="S13" s="36">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="14" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1800</v>
+      </c>
+      <c r="F14" s="36">
+        <v>1800</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="28">
+        <v>1065</v>
+      </c>
+      <c r="O14" s="36">
+        <v>1000</v>
+      </c>
+      <c r="Q14" s="30"/>
+    </row>
+    <row r="15" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="28">
+        <v>140</v>
+      </c>
+      <c r="F15" s="36">
+        <v>190</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="18">
+        <v>500</v>
+      </c>
+      <c r="O15" s="36">
+        <v>2400</v>
+      </c>
+      <c r="Q15" s="30"/>
+    </row>
+    <row r="16" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1257</v>
+      </c>
+      <c r="F16" s="36">
+        <v>1000</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="18">
+        <v>800</v>
+      </c>
+      <c r="O16" s="36">
+        <v>500</v>
+      </c>
+      <c r="Q16" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" s="41">
+        <f>SUM(R18:R222)</f>
+        <v>1508.4299999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="18">
+        <v>2400</v>
+      </c>
+      <c r="F17" s="36">
+        <v>2400</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="18">
+        <v>3000</v>
+      </c>
+      <c r="O17" s="36">
+        <v>3000</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="R17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="19"/>
+    </row>
+    <row r="18" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="36">
+        <v>500</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="18">
+        <v>3217.03</v>
+      </c>
+      <c r="O18" s="36">
+        <v>3150</v>
+      </c>
+      <c r="Q18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="R18" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="18">
+        <v>3000</v>
+      </c>
+      <c r="F19" s="36">
+        <v>3000</v>
+      </c>
+      <c r="M19" s="38"/>
+      <c r="N19" s="39"/>
+      <c r="Q19" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="R19" s="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="4:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="18">
+        <v>4318.16</v>
+      </c>
+      <c r="F20" s="36">
+        <v>3150</v>
+      </c>
+      <c r="M20" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" s="41">
+        <f>SUM(N22:N222)</f>
+        <v>2134</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="R20" s="32">
+        <v>50</v>
+      </c>
+      <c r="S20" s="19"/>
+    </row>
+    <row r="21" spans="4:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="M21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="R21" s="32">
+        <v>195</v>
+      </c>
+      <c r="T21" s="11"/>
+    </row>
+    <row r="22" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="M22" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="N22" s="32">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="R22" s="32">
+        <v>10</v>
+      </c>
+      <c r="T22" s="11"/>
+    </row>
+    <row r="23" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="32">
+        <v>65</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="R23" s="33">
+        <v>150</v>
+      </c>
+      <c r="T23" s="11"/>
+    </row>
+    <row r="24" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="N24" s="32">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="R24" s="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="32">
+        <v>50</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="N25" s="32">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="R25" s="33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="32">
+        <v>60</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="N26" s="33">
+        <v>75</v>
+      </c>
+      <c r="Q26" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="R26" s="33">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="32">
+        <v>30</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N27" s="33">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="R27" s="33">
+        <v>93</v>
+      </c>
+      <c r="U27" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="V27" s="19">
+        <f>N3</f>
+        <v>69798.23</v>
+      </c>
+    </row>
+    <row r="28" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="33">
+        <v>15</v>
+      </c>
+      <c r="M28" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" s="32">
+        <v>65</v>
+      </c>
+      <c r="Q28" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="R28" s="33">
+        <v>25</v>
+      </c>
+      <c r="U28" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="V28" s="19">
+        <f>SUM(R9:R13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="33">
+        <v>40</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="N29" s="32">
+        <v>70</v>
+      </c>
+      <c r="Q29" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="R29" s="33">
+        <v>20</v>
+      </c>
+      <c r="U29" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="V29" s="19">
+        <f>S5</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="30" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="32">
+        <v>30</v>
+      </c>
+      <c r="M30" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="N30" s="32">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="R30" s="33">
+        <v>10</v>
+      </c>
+      <c r="U30" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="V30" s="19">
+        <f>R5</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="31" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="24"/>
+      <c r="E31" s="32"/>
+      <c r="M31" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="N31" s="32">
+        <v>300</v>
+      </c>
+      <c r="Q31" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="R31" s="33">
+        <v>90</v>
+      </c>
+      <c r="U31" s="30"/>
+      <c r="V31" s="19"/>
+    </row>
+    <row r="32" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="32">
+        <v>60</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="N32" s="32">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="R32" s="33">
+        <v>75</v>
+      </c>
+      <c r="U32" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="V32" s="19"/>
+    </row>
+    <row r="33" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="24"/>
+      <c r="E33" s="32"/>
+      <c r="M33" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="N33" s="32">
+        <v>170</v>
+      </c>
+      <c r="Q33" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="R33" s="33">
+        <v>65</v>
+      </c>
+      <c r="U33" s="30"/>
+      <c r="V33" s="19"/>
+    </row>
+    <row r="34" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="24"/>
+      <c r="E34" s="32"/>
+      <c r="M34" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="N34" s="32">
+        <v>300</v>
+      </c>
+      <c r="Q34" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="R34" s="33">
+        <v>20</v>
+      </c>
+      <c r="U34" s="30"/>
+      <c r="V34" s="19"/>
+    </row>
+    <row r="35" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="24"/>
+      <c r="E35" s="32"/>
+      <c r="M35" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N35" s="32">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="R35" s="33">
+        <v>570.42999999999995</v>
+      </c>
+      <c r="U35" s="30"/>
+      <c r="V35" s="19"/>
+    </row>
+    <row r="36" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="24"/>
+      <c r="E36" s="32"/>
+      <c r="M36" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N36" s="32">
+        <v>65</v>
+      </c>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="33"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="19"/>
+    </row>
+    <row r="37" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="32">
+        <v>20</v>
+      </c>
+      <c r="M37" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="N37" s="32">
+        <v>100</v>
+      </c>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="33"/>
+      <c r="U37" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="V37" s="19"/>
+    </row>
+    <row r="38" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="24"/>
+      <c r="E38" s="32"/>
+      <c r="M38" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="N38" s="32">
+        <v>125</v>
+      </c>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="33"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="19"/>
+    </row>
+    <row r="39" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="24"/>
+      <c r="E39" s="32"/>
+      <c r="M39" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="N39" s="32">
+        <v>50</v>
+      </c>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="33"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="19"/>
+    </row>
+    <row r="40" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="24"/>
+      <c r="E40" s="32"/>
+      <c r="M40" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="N40" s="32">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="33"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="19"/>
+    </row>
+    <row r="41" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="24"/>
+      <c r="E41" s="32"/>
+      <c r="M41" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N41" s="32">
+        <v>74</v>
+      </c>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="33"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="19"/>
+    </row>
+    <row r="42" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="24"/>
+      <c r="E42" s="32"/>
+      <c r="M42" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="N42" s="32">
+        <v>110</v>
+      </c>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="33"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="19"/>
+    </row>
+    <row r="43" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="24"/>
+      <c r="E43" s="32"/>
+      <c r="M43" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="N43" s="32">
+        <v>75</v>
+      </c>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="33"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="19"/>
+    </row>
+    <row r="44" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="24"/>
+      <c r="E44" s="32"/>
+      <c r="M44" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="N44" s="32">
+        <v>50</v>
+      </c>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="33"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="19"/>
+    </row>
+    <row r="45" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="24"/>
+      <c r="E45" s="32"/>
+      <c r="M45" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="N45" s="32">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="33"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="19"/>
+    </row>
+    <row r="46" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="24"/>
+      <c r="E46" s="32"/>
+      <c r="M46" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="N46" s="32">
+        <v>40</v>
+      </c>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="33"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="19"/>
+    </row>
+    <row r="47" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="24"/>
+      <c r="E47" s="32"/>
+      <c r="M47" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="N47" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="33"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="19"/>
+    </row>
+    <row r="48" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="24"/>
+      <c r="E48" s="32"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="32"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="33"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="19"/>
+    </row>
+    <row r="49" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="24"/>
+      <c r="E49" s="32"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="32"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="33"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="19"/>
+    </row>
+    <row r="50" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="24"/>
+      <c r="E50" s="32"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="32"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="33"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="19"/>
+    </row>
+    <row r="51" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="24"/>
+      <c r="E51" s="32"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="32"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="33"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="19"/>
+    </row>
+    <row r="52" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="24"/>
+      <c r="E52" s="32"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="32"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="33"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="19"/>
+    </row>
+    <row r="53" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="32">
+        <v>5</v>
+      </c>
+      <c r="M53" s="24"/>
+      <c r="N53" s="32"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="33"/>
+    </row>
+    <row r="54" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="32">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="24"/>
+      <c r="E55" s="32"/>
+    </row>
+    <row r="56" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" s="32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E64" s="32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D65" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D66" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" s="32">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D67" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" s="32">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D68" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E69" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D70" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E70" s="32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" s="32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" s="32">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" s="32">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" s="32">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D75" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" s="32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D76" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E76" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E77" s="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E78" s="32">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D79" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E79" s="32">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E81" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D82" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82" s="32">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D83" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" s="32">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D84" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E84" s="32">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D85" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E85" s="32">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D86" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E86" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D87" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E87" s="32">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D89" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D90" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E90" s="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D91" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E91" s="32">
+        <v>431.42</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D92" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="32">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D93" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E93" s="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D94" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E94" s="32">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D95" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E95" s="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D96" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E96" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D97" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E97" s="32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D100" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E100" s="32">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D101" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E101" s="32">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D102" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E102" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D103" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E103" s="32">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D104" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E104" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D105" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E105" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D106" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E106" s="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D107" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E107" s="32">
+        <v>431.42</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D108" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E108" s="32">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D109" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E109" s="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D110" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E110" s="32">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D111" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E111" s="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D112" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E112" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D113" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E113" s="32">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="M8:O8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="43"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="58">
+        <v>1</v>
+      </c>
+      <c r="C3" s="58">
+        <v>2</v>
+      </c>
+      <c r="D3" s="58">
+        <v>3</v>
+      </c>
+      <c r="E3" s="58">
+        <v>4</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="46">
+        <v>5091.99</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="47">
+        <v>2.91</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="44"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="47">
+        <v>380.05</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="44"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="47">
+        <v>84.24</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="47">
+        <v>500</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="48">
+        <v>475</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="42"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="44"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="58">
+        <v>1</v>
+      </c>
+      <c r="C13" s="58">
+        <v>2</v>
+      </c>
+      <c r="D13" s="58">
+        <v>3</v>
+      </c>
+      <c r="E13" s="58">
+        <v>4</v>
+      </c>
+      <c r="F13" s="44"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="44"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="44"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="44"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="44"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B12:E12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:D9 B14:D19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Control Rosalis.xlsx
+++ b/Control Rosalis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="200">
   <si>
     <t>Ingresos</t>
   </si>
@@ -592,6 +592,33 @@
   </si>
   <si>
     <t>10.26-</t>
+  </si>
+  <si>
+    <t>tarjeta cas</t>
+  </si>
+  <si>
+    <t>habichuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naranja </t>
+  </si>
+  <si>
+    <t>verdura</t>
+  </si>
+  <si>
+    <t>molondrones</t>
+  </si>
+  <si>
+    <t>adel yogur</t>
+  </si>
+  <si>
+    <t>comida adel</t>
+  </si>
+  <si>
+    <t>adelyogur</t>
+  </si>
+  <si>
+    <t>salami huevo</t>
   </si>
 </sst>
 </file>
@@ -1276,11 +1303,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="181734016"/>
-        <c:axId val="181735808"/>
+        <c:axId val="181406336"/>
+        <c:axId val="181408128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181734016"/>
+        <c:axId val="181406336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1317,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181735808"/>
+        <c:crossAx val="181408128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1298,7 +1325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181735808"/>
+        <c:axId val="181408128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1336,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181734016"/>
+        <c:crossAx val="181406336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1490,11 +1517,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="182080256"/>
-        <c:axId val="182081792"/>
+        <c:axId val="181818112"/>
+        <c:axId val="181819648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182080256"/>
+        <c:axId val="181818112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1504,7 +1531,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182081792"/>
+        <c:crossAx val="181819648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1512,7 +1539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182081792"/>
+        <c:axId val="181819648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,7 +1550,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182080256"/>
+        <c:crossAx val="181818112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1732,11 +1759,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="182168960"/>
-        <c:axId val="182170752"/>
+        <c:axId val="181775744"/>
+        <c:axId val="181777536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182168960"/>
+        <c:axId val="181775744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,7 +1773,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182170752"/>
+        <c:crossAx val="181777536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1754,7 +1781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182170752"/>
+        <c:axId val="181777536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1765,7 +1792,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182168960"/>
+        <c:crossAx val="181775744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1974,11 +2001,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="182347648"/>
-        <c:axId val="182349184"/>
+        <c:axId val="182015872"/>
+        <c:axId val="182017408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182347648"/>
+        <c:axId val="182015872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1988,7 +2015,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182349184"/>
+        <c:crossAx val="182017408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1996,7 +2023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182349184"/>
+        <c:axId val="182017408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,7 +2034,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182347648"/>
+        <c:crossAx val="182015872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2458,7 +2485,7 @@
   <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N32" sqref="B1:N32"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4093,8 +4120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showGridLines="0" topLeftCell="B103" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5461,10 +5488,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V113"/>
+  <dimension ref="B1:V140"/>
   <sheetViews>
-    <sheetView topLeftCell="M4" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView tabSelected="1" topLeftCell="M43" workbookViewId="0">
+      <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5482,7 +5509,7 @@
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" customWidth="1"/>
     <col min="13" max="13" width="23.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" customWidth="1"/>
     <col min="16" max="16" width="6" customWidth="1"/>
     <col min="17" max="17" width="20.85546875" customWidth="1"/>
@@ -5518,8 +5545,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="21">
-        <f>SUM(S9:S13)</f>
-        <v>69798.23</v>
+        <v>69838.23</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="60"/>
@@ -5593,8 +5619,7 @@
         <v>34</v>
       </c>
       <c r="N6" s="37">
-        <f>N3-(N4+N5)</f>
-        <v>5623.2299999999959</v>
+        <v>5663.23</v>
       </c>
       <c r="Q6" s="30"/>
     </row>
@@ -5607,6 +5632,15 @@
         <v>14175</v>
       </c>
       <c r="F7" s="3"/>
+      <c r="Q7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="25" t="s">
@@ -5621,15 +5655,14 @@
       </c>
       <c r="N8" s="62"/>
       <c r="O8" s="62"/>
-      <c r="Q8" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" s="35" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="18"/>
+      <c r="S8" s="36">
+        <v>49189.83</v>
+      </c>
+      <c r="T8" s="1"/>
     </row>
     <row r="9" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" s="34" t="s">
@@ -5642,13 +5675,14 @@
         <v>37</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="R9" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="R9" s="18">
+        <v>7324.2</v>
+      </c>
       <c r="S9" s="36">
-        <v>49189.83</v>
-      </c>
-      <c r="T9" s="1"/>
+        <v>7324.2</v>
+      </c>
     </row>
     <row r="10" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="56" t="s">
@@ -5664,11 +5698,11 @@
         <v>1235</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R10" s="18"/>
       <c r="S10" s="36">
-        <v>7304.2</v>
+        <v>7324.2</v>
       </c>
     </row>
     <row r="11" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5690,12 +5724,12 @@
       <c r="O11" s="36">
         <v>900</v>
       </c>
-      <c r="Q11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="R11" s="18"/>
+      <c r="Q11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="28"/>
       <c r="S11" s="36">
-        <v>7304.2</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="12" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5717,12 +5751,12 @@
       <c r="O12" s="36">
         <v>1800</v>
       </c>
-      <c r="Q12" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="R12" s="28"/>
+      <c r="Q12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" s="18"/>
       <c r="S12" s="36">
-        <v>3500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="13" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5745,11 +5779,13 @@
         <v>190</v>
       </c>
       <c r="Q13" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="R13" s="18"/>
+        <v>86</v>
+      </c>
+      <c r="R13" s="18">
+        <v>780</v>
+      </c>
       <c r="S13" s="36">
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5817,8 +5853,8 @@
         <v>56</v>
       </c>
       <c r="R16" s="41">
-        <f>SUM(R18:R222)</f>
-        <v>1508.4299999999998</v>
+        <f>SUM(R18:R249)</f>
+        <v>1731.4299999999998</v>
       </c>
     </row>
     <row r="17" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5905,8 +5941,8 @@
         <v>59</v>
       </c>
       <c r="N20" s="41">
-        <f>SUM(N22:N222)</f>
-        <v>2134</v>
+        <f>SUM(N22:N249)</f>
+        <v>2983.27</v>
       </c>
       <c r="Q20" s="29" t="s">
         <v>114</v>
@@ -6057,7 +6093,7 @@
       </c>
       <c r="V27" s="19">
         <f>N3</f>
-        <v>69798.23</v>
+        <v>69838.23</v>
       </c>
     </row>
     <row r="28" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6082,10 +6118,7 @@
       <c r="U28" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="V28" s="19">
-        <f>SUM(R9:R13)</f>
-        <v>0</v>
-      </c>
+      <c r="V28" s="19"/>
     </row>
     <row r="29" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="24" t="s">
@@ -6246,8 +6279,12 @@
       <c r="N36" s="32">
         <v>65</v>
       </c>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="33"/>
+      <c r="Q36" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="R36" s="33">
+        <v>10</v>
+      </c>
       <c r="U36" s="30"/>
       <c r="V36" s="19"/>
     </row>
@@ -6264,8 +6301,12 @@
       <c r="N37" s="32">
         <v>100</v>
       </c>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="33"/>
+      <c r="Q37" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="R37" s="33">
+        <v>40</v>
+      </c>
       <c r="U37" s="30" t="s">
         <v>35</v>
       </c>
@@ -6280,8 +6321,12 @@
       <c r="N38" s="32">
         <v>125</v>
       </c>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="33"/>
+      <c r="Q38" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="R38" s="33">
+        <v>70</v>
+      </c>
       <c r="U38" s="30"/>
       <c r="V38" s="19"/>
     </row>
@@ -6294,8 +6339,12 @@
       <c r="N39" s="32">
         <v>50</v>
       </c>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="33"/>
+      <c r="Q39" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="R39" s="33">
+        <v>70</v>
+      </c>
       <c r="U39" s="30"/>
       <c r="V39" s="19"/>
     </row>
@@ -6308,8 +6357,12 @@
       <c r="N40" s="32">
         <v>20</v>
       </c>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="33"/>
+      <c r="Q40" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="R40" s="33">
+        <v>8</v>
+      </c>
       <c r="U40" s="30"/>
       <c r="V40" s="19"/>
     </row>
@@ -6322,8 +6375,12 @@
       <c r="N41" s="32">
         <v>74</v>
       </c>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="33"/>
+      <c r="Q41" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="R41" s="33">
+        <v>25</v>
+      </c>
       <c r="U41" s="30"/>
       <c r="V41" s="19"/>
     </row>
@@ -6414,8 +6471,12 @@
     <row r="48" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D48" s="24"/>
       <c r="E48" s="32"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="32"/>
+      <c r="M48" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="N48" s="32">
+        <v>39.74</v>
+      </c>
       <c r="Q48" s="24"/>
       <c r="R48" s="33"/>
       <c r="U48" s="30"/>
@@ -6424,8 +6485,12 @@
     <row r="49" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D49" s="24"/>
       <c r="E49" s="32"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="32"/>
+      <c r="M49" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="N49" s="32">
+        <v>50</v>
+      </c>
       <c r="Q49" s="24"/>
       <c r="R49" s="33"/>
       <c r="U49" s="30"/>
@@ -6434,8 +6499,12 @@
     <row r="50" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D50" s="24"/>
       <c r="E50" s="32"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="32"/>
+      <c r="M50" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="N50" s="32">
+        <v>20</v>
+      </c>
       <c r="Q50" s="24"/>
       <c r="R50" s="33"/>
       <c r="U50" s="30"/>
@@ -6444,8 +6513,12 @@
     <row r="51" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D51" s="24"/>
       <c r="E51" s="32"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="32"/>
+      <c r="M51" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="N51" s="32">
+        <v>50</v>
+      </c>
       <c r="Q51" s="24"/>
       <c r="R51" s="33"/>
       <c r="U51" s="30"/>
@@ -6454,360 +6527,451 @@
     <row r="52" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D52" s="24"/>
       <c r="E52" s="32"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="32"/>
+      <c r="M52" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="N52" s="32">
+        <v>10</v>
+      </c>
       <c r="Q52" s="24"/>
       <c r="R52" s="33"/>
       <c r="U52" s="30"/>
       <c r="V52" s="19"/>
     </row>
     <row r="53" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" s="32">
-        <v>5</v>
-      </c>
-      <c r="M53" s="24"/>
-      <c r="N53" s="32"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="32"/>
+      <c r="M53" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="N53" s="32">
+        <v>20</v>
+      </c>
       <c r="Q53" s="24"/>
       <c r="R53" s="33"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="19"/>
     </row>
     <row r="54" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="32">
-        <v>65</v>
-      </c>
+      <c r="D54" s="24"/>
+      <c r="E54" s="32"/>
+      <c r="M54" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="N54" s="32">
+        <v>156.82</v>
+      </c>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="33"/>
+      <c r="U54" s="30"/>
+      <c r="V54" s="19"/>
     </row>
     <row r="55" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D55" s="24"/>
       <c r="E55" s="32"/>
+      <c r="M55" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="N55" s="32">
+        <v>122.71</v>
+      </c>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="33"/>
+      <c r="U55" s="30"/>
+      <c r="V55" s="19"/>
     </row>
     <row r="56" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="24"/>
+      <c r="E56" s="32"/>
+      <c r="M56" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="N56" s="32">
+        <v>45</v>
+      </c>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="33"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="19"/>
+    </row>
+    <row r="57" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="24"/>
+      <c r="E57" s="32"/>
+      <c r="M57" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="N57" s="32">
+        <v>150</v>
+      </c>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="33"/>
+      <c r="U57" s="30"/>
+      <c r="V57" s="19"/>
+    </row>
+    <row r="58" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="24"/>
+      <c r="E58" s="32"/>
+      <c r="M58" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="N58" s="32">
+        <v>15</v>
+      </c>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="33"/>
+      <c r="U58" s="30"/>
+      <c r="V58" s="19"/>
+    </row>
+    <row r="59" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="24"/>
+      <c r="E59" s="32"/>
+      <c r="M59" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="N59" s="32">
+        <v>60</v>
+      </c>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="33"/>
+      <c r="U59" s="30"/>
+      <c r="V59" s="19"/>
+    </row>
+    <row r="60" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="24"/>
+      <c r="E60" s="32"/>
+      <c r="M60" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="N60" s="32">
+        <v>110</v>
+      </c>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="33"/>
+      <c r="U60" s="30"/>
+      <c r="V60" s="19"/>
+    </row>
+    <row r="61" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="24"/>
+      <c r="E61" s="32"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="32"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="33"/>
+      <c r="U61" s="30"/>
+      <c r="V61" s="19"/>
+    </row>
+    <row r="62" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="24"/>
+      <c r="E62" s="32"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="32"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="33"/>
+      <c r="U62" s="30"/>
+      <c r="V62" s="19"/>
+    </row>
+    <row r="63" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="24"/>
+      <c r="E63" s="32"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="32"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="33"/>
+      <c r="U63" s="30"/>
+      <c r="V63" s="19"/>
+    </row>
+    <row r="64" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="24"/>
+      <c r="E64" s="32"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="32"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="33"/>
+      <c r="U64" s="30"/>
+      <c r="V64" s="19"/>
+    </row>
+    <row r="65" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D65" s="24"/>
+      <c r="E65" s="32"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="32"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="33"/>
+      <c r="U65" s="30"/>
+      <c r="V65" s="19"/>
+    </row>
+    <row r="66" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D66" s="24"/>
+      <c r="E66" s="32"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="32"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="33"/>
+      <c r="U66" s="30"/>
+      <c r="V66" s="19"/>
+    </row>
+    <row r="67" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D67" s="24"/>
+      <c r="E67" s="32"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="32"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="33"/>
+      <c r="U67" s="30"/>
+      <c r="V67" s="19"/>
+    </row>
+    <row r="68" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D68" s="24"/>
+      <c r="E68" s="32"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="32"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="33"/>
+      <c r="U68" s="30"/>
+      <c r="V68" s="19"/>
+    </row>
+    <row r="69" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="24"/>
+      <c r="E69" s="32"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="32"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="33"/>
+      <c r="U69" s="30"/>
+      <c r="V69" s="19"/>
+    </row>
+    <row r="70" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D70" s="24"/>
+      <c r="E70" s="32"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="32"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="33"/>
+      <c r="U70" s="30"/>
+      <c r="V70" s="19"/>
+    </row>
+    <row r="71" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="24"/>
+      <c r="E71" s="32"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="32"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="33"/>
+      <c r="U71" s="30"/>
+      <c r="V71" s="19"/>
+    </row>
+    <row r="72" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="24"/>
+      <c r="E72" s="32"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="32"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="33"/>
+      <c r="U72" s="30"/>
+      <c r="V72" s="19"/>
+    </row>
+    <row r="73" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="24"/>
+      <c r="E73" s="32"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="32"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="33"/>
+      <c r="U73" s="30"/>
+      <c r="V73" s="19"/>
+    </row>
+    <row r="74" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="24"/>
+      <c r="E74" s="32"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="32"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="33"/>
+      <c r="U74" s="30"/>
+      <c r="V74" s="19"/>
+    </row>
+    <row r="75" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D75" s="24"/>
+      <c r="E75" s="32"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="32"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="33"/>
+      <c r="U75" s="30"/>
+      <c r="V75" s="19"/>
+    </row>
+    <row r="76" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D76" s="24"/>
+      <c r="E76" s="32"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="32"/>
+      <c r="Q76" s="24"/>
+      <c r="R76" s="33"/>
+      <c r="U76" s="30"/>
+      <c r="V76" s="19"/>
+    </row>
+    <row r="77" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="24"/>
+      <c r="E77" s="32"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="32"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="33"/>
+      <c r="U77" s="30"/>
+      <c r="V77" s="19"/>
+    </row>
+    <row r="78" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="24"/>
+      <c r="E78" s="32"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="32"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="33"/>
+      <c r="U78" s="30"/>
+      <c r="V78" s="19"/>
+    </row>
+    <row r="79" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D79" s="24"/>
+      <c r="E79" s="32"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="32"/>
+      <c r="Q79" s="24"/>
+      <c r="R79" s="33"/>
+      <c r="U79" s="30"/>
+      <c r="V79" s="19"/>
+    </row>
+    <row r="80" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E80" s="32">
+        <v>5</v>
+      </c>
+      <c r="M80" s="24"/>
+      <c r="N80" s="32"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="33"/>
+    </row>
+    <row r="81" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E81" s="32">
+        <v>65</v>
+      </c>
+      <c r="M81" s="24"/>
+    </row>
+    <row r="82" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D82" s="24"/>
+      <c r="E82" s="32"/>
+    </row>
+    <row r="83" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D83" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="32">
+      <c r="E83" s="32">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="24" t="s">
+    <row r="84" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D84" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="32">
+      <c r="E84" s="32">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="24" t="s">
+    <row r="85" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D85" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E58" s="32">
+      <c r="E85" s="32">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="24" t="s">
+    <row r="86" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D86" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E59" s="32">
+      <c r="E86" s="32">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="24" t="s">
+    <row r="87" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D87" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E60" s="32">
+      <c r="E87" s="32">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="24" t="s">
+    <row r="88" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="32">
+      <c r="E88" s="32">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="24" t="s">
+    <row r="89" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D89" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E62" s="32">
+      <c r="E89" s="32">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="24" t="s">
+    <row r="90" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D90" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E63" s="32">
+      <c r="E90" s="32">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="24" t="s">
+    <row r="91" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D91" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E64" s="32">
+      <c r="E91" s="32">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="24" t="s">
+    <row r="92" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D92" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="32">
+      <c r="E92" s="32">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="24" t="s">
+    <row r="93" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D93" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E66" s="32">
+      <c r="E93" s="32">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="24" t="s">
+    <row r="94" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D94" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E67" s="32">
+      <c r="E94" s="32">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D68" s="24" t="s">
+    <row r="95" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D95" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E68" s="32">
+      <c r="E95" s="32">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="24" t="s">
+    <row r="96" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D96" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="E69" s="32">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E70" s="32">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E71" s="32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D72" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E72" s="32">
-        <v>49.95</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D73" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E73" s="32">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="74" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E74" s="32">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D75" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E75" s="32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E76" s="32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D77" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E77" s="32">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D78" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78" s="32">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E79" s="32">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="80" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E80" s="32">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E81" s="32">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E82" s="32">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E83" s="32">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="84" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D84" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E84" s="32">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="85" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D85" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E85" s="32">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="86" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D86" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E86" s="32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D87" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E87" s="32">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D88" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E88" s="32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D89" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E89" s="32">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D90" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E90" s="32">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D91" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E91" s="32">
-        <v>431.42</v>
-      </c>
-    </row>
-    <row r="92" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D92" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E92" s="32">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="93" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D93" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E93" s="32">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D94" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E94" s="32">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="95" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D95" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E95" s="32">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D96" s="24" t="s">
-        <v>150</v>
       </c>
       <c r="E96" s="32">
         <v>50</v>
@@ -6815,122 +6979,338 @@
     </row>
     <row r="97" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D97" s="24" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="E97" s="32">
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D98" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E98" s="32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D99" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E99" s="32">
+        <v>49.95</v>
+      </c>
+    </row>
     <row r="100" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D100" s="24" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E100" s="32">
-        <v>503</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D101" s="24" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E101" s="32">
-        <v>320</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D102" s="24" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="E102" s="32">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D103" s="24" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E103" s="32">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D104" s="24" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E104" s="32">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D105" s="24" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E105" s="32">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D106" s="24" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="E106" s="32">
-        <v>25</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="107" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D107" s="24" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="E107" s="32">
-        <v>431.42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D108" s="24" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E108" s="32">
-        <v>360</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D109" s="24" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E109" s="32">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D110" s="24" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E110" s="32">
-        <v>65</v>
+        <v>440</v>
       </c>
     </row>
     <row r="111" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D111" s="24" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="E111" s="32">
-        <v>25</v>
+        <v>503</v>
       </c>
     </row>
     <row r="112" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D112" s="24" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E112" s="32">
-        <v>50</v>
+        <v>320</v>
       </c>
     </row>
     <row r="113" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D113" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E113" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D114" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E114" s="32">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D115" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E115" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D116" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E116" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D117" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E117" s="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D118" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E118" s="32">
+        <v>431.42</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D119" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E119" s="32">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D120" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E120" s="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D121" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E121" s="32">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D122" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E122" s="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D123" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E123" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D124" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E113" s="32">
+      <c r="E124" s="32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D127" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E127" s="32">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D128" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E128" s="32">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D129" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E129" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D130" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E130" s="32">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D131" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E131" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D132" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E132" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D133" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E133" s="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D134" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E134" s="32">
+        <v>431.42</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D135" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E135" s="32">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="136" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D136" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E136" s="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D137" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E137" s="32">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="138" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D138" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E138" s="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D139" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E139" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D140" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E140" s="32">
         <v>40</v>
       </c>
     </row>
@@ -6950,8 +7330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
